--- a/TransportReports/bin/Debug/Template/ActivePass.xlsx
+++ b/TransportReports/bin/Debug/Template/ActivePass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="11355" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="11805" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По поездкам" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,6 +468,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2704,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V320"/>
+  <dimension ref="A1:V1271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E1271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,7 +2865,7 @@
       <c r="B5" s="48"/>
       <c r="C5" s="15"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="8"/>
@@ -2883,7 +2889,7 @@
       <c r="B6" s="48"/>
       <c r="C6" s="15"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="8"/>
@@ -2907,7 +2913,7 @@
       <c r="B7" s="48"/>
       <c r="C7" s="15"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="8"/>
@@ -2931,7 +2937,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="15"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="8"/>
@@ -2955,7 +2961,7 @@
       <c r="B9" s="48"/>
       <c r="C9" s="15"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="8"/>
@@ -2979,7 +2985,7 @@
       <c r="B10" s="48"/>
       <c r="C10" s="15"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="8"/>
@@ -3003,7 +3009,7 @@
       <c r="B11" s="48"/>
       <c r="C11" s="15"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="8"/>
@@ -3027,7 +3033,7 @@
       <c r="B12" s="48"/>
       <c r="C12" s="15"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="8"/>
@@ -3051,7 +3057,7 @@
       <c r="B13" s="48"/>
       <c r="C13" s="15"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="8"/>
@@ -3075,7 +3081,7 @@
       <c r="B14" s="48"/>
       <c r="C14" s="15"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="8"/>
@@ -3099,7 +3105,7 @@
       <c r="B15" s="48"/>
       <c r="C15" s="15"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="8"/>
@@ -3123,7 +3129,7 @@
       <c r="B16" s="48"/>
       <c r="C16" s="15"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="8"/>
@@ -3147,7 +3153,7 @@
       <c r="B17" s="48"/>
       <c r="C17" s="15"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="8"/>
@@ -3171,7 +3177,7 @@
       <c r="B18" s="48"/>
       <c r="C18" s="15"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="8"/>
@@ -3195,7 +3201,7 @@
       <c r="B19" s="48"/>
       <c r="C19" s="15"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="8"/>
@@ -3219,7 +3225,7 @@
       <c r="B20" s="48"/>
       <c r="C20" s="15"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="8"/>
@@ -3243,7 +3249,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="15"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="8"/>
@@ -3267,7 +3273,7 @@
       <c r="B22" s="48"/>
       <c r="C22" s="15"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="8"/>
@@ -3291,7 +3297,7 @@
       <c r="B23" s="48"/>
       <c r="C23" s="15"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="8"/>
@@ -3315,7 +3321,7 @@
       <c r="B24" s="48"/>
       <c r="C24" s="15"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="8"/>
@@ -3339,7 +3345,7 @@
       <c r="B25" s="48"/>
       <c r="C25" s="15"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="8"/>
@@ -3363,7 +3369,7 @@
       <c r="B26" s="48"/>
       <c r="C26" s="15"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="8"/>
@@ -3387,7 +3393,7 @@
       <c r="B27" s="48"/>
       <c r="C27" s="15"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="8"/>
@@ -3411,7 +3417,7 @@
       <c r="B28" s="48"/>
       <c r="C28" s="15"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="8"/>
@@ -3435,7 +3441,7 @@
       <c r="B29" s="48"/>
       <c r="C29" s="15"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="8"/>
@@ -3459,7 +3465,7 @@
       <c r="B30" s="48"/>
       <c r="C30" s="15"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="8"/>
@@ -3483,7 +3489,7 @@
       <c r="B31" s="48"/>
       <c r="C31" s="15"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="8"/>
@@ -3507,7 +3513,7 @@
       <c r="B32" s="48"/>
       <c r="C32" s="15"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="8"/>
@@ -3531,7 +3537,7 @@
       <c r="B33" s="48"/>
       <c r="C33" s="15"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="8"/>
@@ -3555,7 +3561,7 @@
       <c r="B34" s="48"/>
       <c r="C34" s="15"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="8"/>
@@ -3579,7 +3585,7 @@
       <c r="B35" s="48"/>
       <c r="C35" s="15"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="8"/>
@@ -3603,7 +3609,7 @@
       <c r="B36" s="48"/>
       <c r="C36" s="15"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="8"/>
@@ -3627,7 +3633,7 @@
       <c r="B37" s="48"/>
       <c r="C37" s="15"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="8"/>
@@ -3651,7 +3657,7 @@
       <c r="B38" s="48"/>
       <c r="C38" s="15"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="8"/>
@@ -3675,7 +3681,7 @@
       <c r="B39" s="48"/>
       <c r="C39" s="15"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="8"/>
@@ -3698,7 +3704,7 @@
       <c r="B40" s="50"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="41"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="39"/>
@@ -3721,7 +3727,7 @@
       <c r="B41" s="50"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="39"/>
@@ -3730,7 +3736,7 @@
       <c r="B42" s="50"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="41"/>
+      <c r="E42" s="68"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="39"/>
@@ -3739,7 +3745,7 @@
       <c r="B43" s="50"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="41"/>
+      <c r="E43" s="68"/>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="39"/>
@@ -3748,7 +3754,7 @@
       <c r="B44" s="50"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="68"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
       <c r="H44" s="39"/>
@@ -3757,7 +3763,7 @@
       <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="41"/>
+      <c r="E45" s="68"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="39"/>
@@ -3766,7 +3772,7 @@
       <c r="B46" s="50"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="39"/>
@@ -3775,7 +3781,7 @@
       <c r="B47" s="50"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
       <c r="H47" s="39"/>
@@ -3784,7 +3790,7 @@
       <c r="B48" s="50"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="39"/>
@@ -3793,7 +3799,7 @@
       <c r="B49" s="50"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="39"/>
@@ -3802,7 +3808,7 @@
       <c r="B50" s="50"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="39"/>
@@ -3811,7 +3817,7 @@
       <c r="B51" s="50"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="39"/>
@@ -3820,7 +3826,7 @@
       <c r="B52" s="50"/>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="41"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="39"/>
@@ -3829,7 +3835,7 @@
       <c r="B53" s="50"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="41"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="39"/>
@@ -3838,7 +3844,7 @@
       <c r="B54" s="50"/>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="39"/>
@@ -3847,7 +3853,7 @@
       <c r="B55" s="50"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="41"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="39"/>
@@ -3856,7 +3862,7 @@
       <c r="B56" s="50"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="41"/>
+      <c r="E56" s="68"/>
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="39"/>
@@ -3865,7 +3871,7 @@
       <c r="B57" s="50"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="41"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="39"/>
@@ -3874,7 +3880,7 @@
       <c r="B58" s="50"/>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="68"/>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="39"/>
@@ -3883,7 +3889,7 @@
       <c r="B59" s="50"/>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="41"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="39"/>
@@ -3892,7 +3898,7 @@
       <c r="B60" s="50"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="41"/>
+      <c r="E60" s="68"/>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="39"/>
@@ -3901,7 +3907,7 @@
       <c r="B61" s="50"/>
       <c r="C61" s="39"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="41"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="39"/>
@@ -3910,7 +3916,7 @@
       <c r="B62" s="50"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="41"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="39"/>
@@ -3919,7 +3925,7 @@
       <c r="B63" s="50"/>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="41"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="39"/>
@@ -3928,7 +3934,7 @@
       <c r="B64" s="50"/>
       <c r="C64" s="39"/>
       <c r="D64" s="39"/>
-      <c r="E64" s="41"/>
+      <c r="E64" s="68"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
       <c r="H64" s="39"/>
@@ -3937,7 +3943,7 @@
       <c r="B65" s="50"/>
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="41"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
       <c r="H65" s="39"/>
@@ -3946,7 +3952,7 @@
       <c r="B66" s="50"/>
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="41"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
       <c r="H66" s="39"/>
@@ -3955,7 +3961,7 @@
       <c r="B67" s="50"/>
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="41"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
       <c r="H67" s="39"/>
@@ -3964,7 +3970,7 @@
       <c r="B68" s="50"/>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
-      <c r="E68" s="41"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
       <c r="H68" s="39"/>
@@ -3973,7 +3979,7 @@
       <c r="B69" s="50"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="41"/>
+      <c r="E69" s="68"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
       <c r="H69" s="39"/>
@@ -3982,7 +3988,7 @@
       <c r="B70" s="50"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
-      <c r="E70" s="41"/>
+      <c r="E70" s="68"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
       <c r="H70" s="39"/>
@@ -3991,7 +3997,7 @@
       <c r="B71" s="50"/>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="41"/>
+      <c r="E71" s="68"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
       <c r="H71" s="39"/>
@@ -4000,7 +4006,7 @@
       <c r="B72" s="50"/>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="41"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
       <c r="H72" s="39"/>
@@ -4009,7 +4015,7 @@
       <c r="B73" s="50"/>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
-      <c r="E73" s="41"/>
+      <c r="E73" s="68"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
       <c r="H73" s="39"/>
@@ -4018,7 +4024,7 @@
       <c r="B74" s="50"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="41"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="39"/>
@@ -4027,7 +4033,7 @@
       <c r="B75" s="50"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="41"/>
+      <c r="E75" s="68"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
       <c r="H75" s="39"/>
@@ -4036,7 +4042,7 @@
       <c r="B76" s="50"/>
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
-      <c r="E76" s="41"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
       <c r="H76" s="39"/>
@@ -4045,7 +4051,7 @@
       <c r="B77" s="50"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="41"/>
+      <c r="E77" s="68"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
       <c r="H77" s="39"/>
@@ -4054,7 +4060,7 @@
       <c r="B78" s="50"/>
       <c r="C78" s="39"/>
       <c r="D78" s="39"/>
-      <c r="E78" s="41"/>
+      <c r="E78" s="68"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
       <c r="H78" s="39"/>
@@ -4063,7 +4069,7 @@
       <c r="B79" s="50"/>
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="68"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
       <c r="H79" s="39"/>
@@ -4072,7 +4078,7 @@
       <c r="B80" s="50"/>
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="41"/>
+      <c r="E80" s="68"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
       <c r="H80" s="39"/>
@@ -4081,7 +4087,7 @@
       <c r="B81" s="50"/>
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="68"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
       <c r="H81" s="39"/>
@@ -4090,7 +4096,7 @@
       <c r="B82" s="50"/>
       <c r="C82" s="39"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="68"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
       <c r="H82" s="39"/>
@@ -4099,7 +4105,7 @@
       <c r="B83" s="50"/>
       <c r="C83" s="39"/>
       <c r="D83" s="39"/>
-      <c r="E83" s="41"/>
+      <c r="E83" s="68"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
       <c r="H83" s="39"/>
@@ -4108,7 +4114,7 @@
       <c r="B84" s="50"/>
       <c r="C84" s="39"/>
       <c r="D84" s="39"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="68"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
       <c r="H84" s="39"/>
@@ -4117,7 +4123,7 @@
       <c r="B85" s="50"/>
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="41"/>
+      <c r="E85" s="68"/>
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
       <c r="H85" s="39"/>
@@ -4126,7 +4132,7 @@
       <c r="B86" s="50"/>
       <c r="C86" s="39"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="41"/>
+      <c r="E86" s="68"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
       <c r="H86" s="39"/>
@@ -4135,7 +4141,7 @@
       <c r="B87" s="50"/>
       <c r="C87" s="39"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="68"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
       <c r="H87" s="39"/>
@@ -4144,7 +4150,7 @@
       <c r="B88" s="50"/>
       <c r="C88" s="39"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="41"/>
+      <c r="E88" s="68"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
       <c r="H88" s="39"/>
@@ -4153,7 +4159,7 @@
       <c r="B89" s="50"/>
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="41"/>
+      <c r="E89" s="68"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
       <c r="H89" s="39"/>
@@ -4162,7 +4168,7 @@
       <c r="B90" s="50"/>
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
-      <c r="E90" s="41"/>
+      <c r="E90" s="68"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
       <c r="H90" s="39"/>
@@ -4171,7 +4177,7 @@
       <c r="B91" s="50"/>
       <c r="C91" s="39"/>
       <c r="D91" s="39"/>
-      <c r="E91" s="41"/>
+      <c r="E91" s="68"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
       <c r="H91" s="39"/>
@@ -4180,7 +4186,7 @@
       <c r="B92" s="50"/>
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="41"/>
+      <c r="E92" s="68"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
       <c r="H92" s="39"/>
@@ -4189,7 +4195,7 @@
       <c r="B93" s="50"/>
       <c r="C93" s="39"/>
       <c r="D93" s="39"/>
-      <c r="E93" s="41"/>
+      <c r="E93" s="68"/>
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
       <c r="H93" s="39"/>
@@ -4198,7 +4204,7 @@
       <c r="B94" s="50"/>
       <c r="C94" s="39"/>
       <c r="D94" s="39"/>
-      <c r="E94" s="41"/>
+      <c r="E94" s="68"/>
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
       <c r="H94" s="39"/>
@@ -4207,7 +4213,7 @@
       <c r="B95" s="50"/>
       <c r="C95" s="39"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="41"/>
+      <c r="E95" s="68"/>
       <c r="F95" s="41"/>
       <c r="G95" s="41"/>
       <c r="H95" s="39"/>
@@ -4216,7 +4222,7 @@
       <c r="B96" s="50"/>
       <c r="C96" s="39"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="68"/>
       <c r="F96" s="41"/>
       <c r="G96" s="41"/>
       <c r="H96" s="39"/>
@@ -4225,7 +4231,7 @@
       <c r="B97" s="50"/>
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
-      <c r="E97" s="41"/>
+      <c r="E97" s="68"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
       <c r="H97" s="39"/>
@@ -4234,7 +4240,7 @@
       <c r="B98" s="50"/>
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
-      <c r="E98" s="41"/>
+      <c r="E98" s="68"/>
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
       <c r="H98" s="39"/>
@@ -4243,7 +4249,7 @@
       <c r="B99" s="50"/>
       <c r="C99" s="39"/>
       <c r="D99" s="39"/>
-      <c r="E99" s="41"/>
+      <c r="E99" s="68"/>
       <c r="F99" s="41"/>
       <c r="G99" s="41"/>
       <c r="H99" s="39"/>
@@ -4252,7 +4258,7 @@
       <c r="B100" s="50"/>
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
-      <c r="E100" s="41"/>
+      <c r="E100" s="68"/>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
       <c r="H100" s="39"/>
@@ -4261,7 +4267,7 @@
       <c r="B101" s="50"/>
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
-      <c r="E101" s="41"/>
+      <c r="E101" s="68"/>
       <c r="F101" s="41"/>
       <c r="G101" s="41"/>
       <c r="H101" s="39"/>
@@ -4270,7 +4276,7 @@
       <c r="B102" s="50"/>
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
-      <c r="E102" s="41"/>
+      <c r="E102" s="68"/>
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
       <c r="H102" s="39"/>
@@ -4279,7 +4285,7 @@
       <c r="B103" s="50"/>
       <c r="C103" s="39"/>
       <c r="D103" s="39"/>
-      <c r="E103" s="41"/>
+      <c r="E103" s="68"/>
       <c r="F103" s="41"/>
       <c r="G103" s="41"/>
       <c r="H103" s="39"/>
@@ -4288,7 +4294,7 @@
       <c r="B104" s="50"/>
       <c r="C104" s="39"/>
       <c r="D104" s="39"/>
-      <c r="E104" s="41"/>
+      <c r="E104" s="68"/>
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
       <c r="H104" s="39"/>
@@ -4297,7 +4303,7 @@
       <c r="B105" s="50"/>
       <c r="C105" s="39"/>
       <c r="D105" s="39"/>
-      <c r="E105" s="41"/>
+      <c r="E105" s="68"/>
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
       <c r="H105" s="39"/>
@@ -4306,7 +4312,7 @@
       <c r="B106" s="50"/>
       <c r="C106" s="39"/>
       <c r="D106" s="39"/>
-      <c r="E106" s="41"/>
+      <c r="E106" s="68"/>
       <c r="F106" s="41"/>
       <c r="G106" s="41"/>
       <c r="H106" s="39"/>
@@ -4315,7 +4321,7 @@
       <c r="B107" s="50"/>
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
-      <c r="E107" s="41"/>
+      <c r="E107" s="68"/>
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
       <c r="H107" s="39"/>
@@ -4324,7 +4330,7 @@
       <c r="B108" s="50"/>
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
-      <c r="E108" s="41"/>
+      <c r="E108" s="68"/>
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
       <c r="H108" s="39"/>
@@ -4333,7 +4339,7 @@
       <c r="B109" s="50"/>
       <c r="C109" s="39"/>
       <c r="D109" s="39"/>
-      <c r="E109" s="41"/>
+      <c r="E109" s="68"/>
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
       <c r="H109" s="39"/>
@@ -4342,7 +4348,7 @@
       <c r="B110" s="50"/>
       <c r="C110" s="39"/>
       <c r="D110" s="39"/>
-      <c r="E110" s="41"/>
+      <c r="E110" s="68"/>
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
       <c r="H110" s="39"/>
@@ -4351,7 +4357,7 @@
       <c r="B111" s="50"/>
       <c r="C111" s="39"/>
       <c r="D111" s="39"/>
-      <c r="E111" s="41"/>
+      <c r="E111" s="68"/>
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
       <c r="H111" s="39"/>
@@ -4360,7 +4366,7 @@
       <c r="B112" s="50"/>
       <c r="C112" s="39"/>
       <c r="D112" s="39"/>
-      <c r="E112" s="41"/>
+      <c r="E112" s="68"/>
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
       <c r="H112" s="39"/>
@@ -4369,7 +4375,7 @@
       <c r="B113" s="50"/>
       <c r="C113" s="39"/>
       <c r="D113" s="39"/>
-      <c r="E113" s="41"/>
+      <c r="E113" s="68"/>
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
       <c r="H113" s="39"/>
@@ -4378,7 +4384,7 @@
       <c r="B114" s="50"/>
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
-      <c r="E114" s="41"/>
+      <c r="E114" s="68"/>
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
       <c r="H114" s="39"/>
@@ -4387,7 +4393,7 @@
       <c r="B115" s="50"/>
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
-      <c r="E115" s="41"/>
+      <c r="E115" s="68"/>
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
       <c r="H115" s="39"/>
@@ -4396,7 +4402,7 @@
       <c r="B116" s="50"/>
       <c r="C116" s="39"/>
       <c r="D116" s="39"/>
-      <c r="E116" s="41"/>
+      <c r="E116" s="68"/>
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
       <c r="H116" s="39"/>
@@ -4405,7 +4411,7 @@
       <c r="B117" s="50"/>
       <c r="C117" s="39"/>
       <c r="D117" s="39"/>
-      <c r="E117" s="41"/>
+      <c r="E117" s="68"/>
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
       <c r="H117" s="39"/>
@@ -4414,7 +4420,7 @@
       <c r="B118" s="50"/>
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
-      <c r="E118" s="41"/>
+      <c r="E118" s="68"/>
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
       <c r="H118" s="39"/>
@@ -4423,7 +4429,7 @@
       <c r="B119" s="50"/>
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
-      <c r="E119" s="41"/>
+      <c r="E119" s="68"/>
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
       <c r="H119" s="39"/>
@@ -4432,7 +4438,7 @@
       <c r="B120" s="50"/>
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
-      <c r="E120" s="41"/>
+      <c r="E120" s="68"/>
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
       <c r="H120" s="39"/>
@@ -4441,7 +4447,7 @@
       <c r="B121" s="50"/>
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
-      <c r="E121" s="41"/>
+      <c r="E121" s="68"/>
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
       <c r="H121" s="39"/>
@@ -4450,7 +4456,7 @@
       <c r="B122" s="50"/>
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
-      <c r="E122" s="41"/>
+      <c r="E122" s="68"/>
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
       <c r="H122" s="39"/>
@@ -4459,7 +4465,7 @@
       <c r="B123" s="50"/>
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
-      <c r="E123" s="41"/>
+      <c r="E123" s="68"/>
       <c r="F123" s="41"/>
       <c r="G123" s="41"/>
       <c r="H123" s="39"/>
@@ -4468,7 +4474,7 @@
       <c r="B124" s="50"/>
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
-      <c r="E124" s="41"/>
+      <c r="E124" s="68"/>
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
       <c r="H124" s="39"/>
@@ -4477,7 +4483,7 @@
       <c r="B125" s="50"/>
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
-      <c r="E125" s="41"/>
+      <c r="E125" s="68"/>
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
       <c r="H125" s="39"/>
@@ -4486,7 +4492,7 @@
       <c r="B126" s="50"/>
       <c r="C126" s="39"/>
       <c r="D126" s="39"/>
-      <c r="E126" s="41"/>
+      <c r="E126" s="68"/>
       <c r="F126" s="41"/>
       <c r="G126" s="41"/>
       <c r="H126" s="39"/>
@@ -4495,7 +4501,7 @@
       <c r="B127" s="50"/>
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
-      <c r="E127" s="41"/>
+      <c r="E127" s="68"/>
       <c r="F127" s="41"/>
       <c r="G127" s="41"/>
       <c r="H127" s="39"/>
@@ -4504,7 +4510,7 @@
       <c r="B128" s="50"/>
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
-      <c r="E128" s="41"/>
+      <c r="E128" s="68"/>
       <c r="F128" s="41"/>
       <c r="G128" s="41"/>
       <c r="H128" s="39"/>
@@ -4513,7 +4519,7 @@
       <c r="B129" s="50"/>
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
-      <c r="E129" s="41"/>
+      <c r="E129" s="68"/>
       <c r="F129" s="41"/>
       <c r="G129" s="41"/>
       <c r="H129" s="39"/>
@@ -4522,7 +4528,7 @@
       <c r="B130" s="50"/>
       <c r="C130" s="39"/>
       <c r="D130" s="39"/>
-      <c r="E130" s="41"/>
+      <c r="E130" s="68"/>
       <c r="F130" s="41"/>
       <c r="G130" s="41"/>
       <c r="H130" s="39"/>
@@ -4531,7 +4537,7 @@
       <c r="B131" s="50"/>
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
-      <c r="E131" s="41"/>
+      <c r="E131" s="68"/>
       <c r="F131" s="41"/>
       <c r="G131" s="41"/>
       <c r="H131" s="39"/>
@@ -4540,7 +4546,7 @@
       <c r="B132" s="50"/>
       <c r="C132" s="39"/>
       <c r="D132" s="39"/>
-      <c r="E132" s="41"/>
+      <c r="E132" s="68"/>
       <c r="F132" s="41"/>
       <c r="G132" s="41"/>
       <c r="H132" s="39"/>
@@ -4549,7 +4555,7 @@
       <c r="B133" s="50"/>
       <c r="C133" s="39"/>
       <c r="D133" s="39"/>
-      <c r="E133" s="41"/>
+      <c r="E133" s="68"/>
       <c r="F133" s="41"/>
       <c r="G133" s="41"/>
       <c r="H133" s="39"/>
@@ -4558,7 +4564,7 @@
       <c r="B134" s="50"/>
       <c r="C134" s="39"/>
       <c r="D134" s="39"/>
-      <c r="E134" s="41"/>
+      <c r="E134" s="68"/>
       <c r="F134" s="41"/>
       <c r="G134" s="41"/>
       <c r="H134" s="39"/>
@@ -4567,7 +4573,7 @@
       <c r="B135" s="50"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
-      <c r="E135" s="41"/>
+      <c r="E135" s="68"/>
       <c r="F135" s="41"/>
       <c r="G135" s="41"/>
       <c r="H135" s="39"/>
@@ -4576,7 +4582,7 @@
       <c r="B136" s="50"/>
       <c r="C136" s="39"/>
       <c r="D136" s="39"/>
-      <c r="E136" s="41"/>
+      <c r="E136" s="68"/>
       <c r="F136" s="41"/>
       <c r="G136" s="41"/>
       <c r="H136" s="39"/>
@@ -4585,7 +4591,7 @@
       <c r="B137" s="50"/>
       <c r="C137" s="39"/>
       <c r="D137" s="39"/>
-      <c r="E137" s="41"/>
+      <c r="E137" s="68"/>
       <c r="F137" s="41"/>
       <c r="G137" s="41"/>
       <c r="H137" s="39"/>
@@ -4594,7 +4600,7 @@
       <c r="B138" s="50"/>
       <c r="C138" s="39"/>
       <c r="D138" s="39"/>
-      <c r="E138" s="41"/>
+      <c r="E138" s="68"/>
       <c r="F138" s="41"/>
       <c r="G138" s="41"/>
       <c r="H138" s="39"/>
@@ -4603,7 +4609,7 @@
       <c r="B139" s="50"/>
       <c r="C139" s="39"/>
       <c r="D139" s="39"/>
-      <c r="E139" s="41"/>
+      <c r="E139" s="68"/>
       <c r="F139" s="41"/>
       <c r="G139" s="41"/>
       <c r="H139" s="39"/>
@@ -4612,7 +4618,7 @@
       <c r="B140" s="50"/>
       <c r="C140" s="39"/>
       <c r="D140" s="39"/>
-      <c r="E140" s="41"/>
+      <c r="E140" s="68"/>
       <c r="F140" s="41"/>
       <c r="G140" s="41"/>
       <c r="H140" s="39"/>
@@ -4621,7 +4627,7 @@
       <c r="B141" s="50"/>
       <c r="C141" s="39"/>
       <c r="D141" s="39"/>
-      <c r="E141" s="41"/>
+      <c r="E141" s="68"/>
       <c r="F141" s="41"/>
       <c r="G141" s="41"/>
       <c r="H141" s="39"/>
@@ -4630,7 +4636,7 @@
       <c r="B142" s="50"/>
       <c r="C142" s="39"/>
       <c r="D142" s="39"/>
-      <c r="E142" s="41"/>
+      <c r="E142" s="68"/>
       <c r="F142" s="41"/>
       <c r="G142" s="41"/>
       <c r="H142" s="39"/>
@@ -4639,7 +4645,7 @@
       <c r="B143" s="50"/>
       <c r="C143" s="39"/>
       <c r="D143" s="39"/>
-      <c r="E143" s="41"/>
+      <c r="E143" s="68"/>
       <c r="F143" s="41"/>
       <c r="G143" s="41"/>
       <c r="H143" s="39"/>
@@ -4648,7 +4654,7 @@
       <c r="B144" s="50"/>
       <c r="C144" s="39"/>
       <c r="D144" s="39"/>
-      <c r="E144" s="41"/>
+      <c r="E144" s="68"/>
       <c r="F144" s="41"/>
       <c r="G144" s="41"/>
       <c r="H144" s="39"/>
@@ -4657,7 +4663,7 @@
       <c r="B145" s="50"/>
       <c r="C145" s="39"/>
       <c r="D145" s="39"/>
-      <c r="E145" s="41"/>
+      <c r="E145" s="68"/>
       <c r="F145" s="41"/>
       <c r="G145" s="41"/>
       <c r="H145" s="39"/>
@@ -4666,7 +4672,7 @@
       <c r="B146" s="50"/>
       <c r="C146" s="39"/>
       <c r="D146" s="39"/>
-      <c r="E146" s="41"/>
+      <c r="E146" s="68"/>
       <c r="F146" s="41"/>
       <c r="G146" s="41"/>
       <c r="H146" s="39"/>
@@ -4675,7 +4681,7 @@
       <c r="B147" s="50"/>
       <c r="C147" s="39"/>
       <c r="D147" s="39"/>
-      <c r="E147" s="41"/>
+      <c r="E147" s="68"/>
       <c r="F147" s="41"/>
       <c r="G147" s="41"/>
       <c r="H147" s="39"/>
@@ -4684,7 +4690,7 @@
       <c r="B148" s="50"/>
       <c r="C148" s="39"/>
       <c r="D148" s="39"/>
-      <c r="E148" s="41"/>
+      <c r="E148" s="68"/>
       <c r="F148" s="41"/>
       <c r="G148" s="41"/>
       <c r="H148" s="39"/>
@@ -4693,7 +4699,7 @@
       <c r="B149" s="50"/>
       <c r="C149" s="39"/>
       <c r="D149" s="39"/>
-      <c r="E149" s="41"/>
+      <c r="E149" s="68"/>
       <c r="F149" s="41"/>
       <c r="G149" s="41"/>
       <c r="H149" s="39"/>
@@ -4702,7 +4708,7 @@
       <c r="B150" s="50"/>
       <c r="C150" s="39"/>
       <c r="D150" s="39"/>
-      <c r="E150" s="41"/>
+      <c r="E150" s="68"/>
       <c r="F150" s="41"/>
       <c r="G150" s="41"/>
       <c r="H150" s="39"/>
@@ -4711,7 +4717,7 @@
       <c r="B151" s="50"/>
       <c r="C151" s="39"/>
       <c r="D151" s="39"/>
-      <c r="E151" s="41"/>
+      <c r="E151" s="68"/>
       <c r="F151" s="41"/>
       <c r="G151" s="41"/>
       <c r="H151" s="39"/>
@@ -4720,7 +4726,7 @@
       <c r="B152" s="50"/>
       <c r="C152" s="39"/>
       <c r="D152" s="39"/>
-      <c r="E152" s="41"/>
+      <c r="E152" s="68"/>
       <c r="F152" s="41"/>
       <c r="G152" s="41"/>
       <c r="H152" s="39"/>
@@ -4729,7 +4735,7 @@
       <c r="B153" s="50"/>
       <c r="C153" s="39"/>
       <c r="D153" s="39"/>
-      <c r="E153" s="41"/>
+      <c r="E153" s="68"/>
       <c r="F153" s="41"/>
       <c r="G153" s="41"/>
       <c r="H153" s="39"/>
@@ -4738,7 +4744,7 @@
       <c r="B154" s="50"/>
       <c r="C154" s="39"/>
       <c r="D154" s="39"/>
-      <c r="E154" s="41"/>
+      <c r="E154" s="68"/>
       <c r="F154" s="41"/>
       <c r="G154" s="41"/>
       <c r="H154" s="39"/>
@@ -4747,7 +4753,7 @@
       <c r="B155" s="50"/>
       <c r="C155" s="39"/>
       <c r="D155" s="39"/>
-      <c r="E155" s="41"/>
+      <c r="E155" s="68"/>
       <c r="F155" s="41"/>
       <c r="G155" s="41"/>
       <c r="H155" s="39"/>
@@ -4756,7 +4762,7 @@
       <c r="B156" s="50"/>
       <c r="C156" s="39"/>
       <c r="D156" s="39"/>
-      <c r="E156" s="41"/>
+      <c r="E156" s="68"/>
       <c r="F156" s="41"/>
       <c r="G156" s="41"/>
       <c r="H156" s="39"/>
@@ -4765,7 +4771,7 @@
       <c r="B157" s="50"/>
       <c r="C157" s="39"/>
       <c r="D157" s="39"/>
-      <c r="E157" s="41"/>
+      <c r="E157" s="68"/>
       <c r="F157" s="41"/>
       <c r="G157" s="41"/>
       <c r="H157" s="39"/>
@@ -4774,7 +4780,7 @@
       <c r="B158" s="50"/>
       <c r="C158" s="39"/>
       <c r="D158" s="39"/>
-      <c r="E158" s="41"/>
+      <c r="E158" s="68"/>
       <c r="F158" s="41"/>
       <c r="G158" s="41"/>
       <c r="H158" s="39"/>
@@ -4783,7 +4789,7 @@
       <c r="B159" s="50"/>
       <c r="C159" s="39"/>
       <c r="D159" s="39"/>
-      <c r="E159" s="41"/>
+      <c r="E159" s="68"/>
       <c r="F159" s="41"/>
       <c r="G159" s="41"/>
       <c r="H159" s="39"/>
@@ -4792,7 +4798,7 @@
       <c r="B160" s="50"/>
       <c r="C160" s="39"/>
       <c r="D160" s="39"/>
-      <c r="E160" s="41"/>
+      <c r="E160" s="68"/>
       <c r="F160" s="41"/>
       <c r="G160" s="41"/>
       <c r="H160" s="39"/>
@@ -4801,7 +4807,7 @@
       <c r="B161" s="50"/>
       <c r="C161" s="39"/>
       <c r="D161" s="39"/>
-      <c r="E161" s="41"/>
+      <c r="E161" s="68"/>
       <c r="F161" s="41"/>
       <c r="G161" s="41"/>
       <c r="H161" s="39"/>
@@ -4810,7 +4816,7 @@
       <c r="B162" s="50"/>
       <c r="C162" s="39"/>
       <c r="D162" s="39"/>
-      <c r="E162" s="41"/>
+      <c r="E162" s="68"/>
       <c r="F162" s="41"/>
       <c r="G162" s="41"/>
       <c r="H162" s="39"/>
@@ -4819,7 +4825,7 @@
       <c r="B163" s="50"/>
       <c r="C163" s="39"/>
       <c r="D163" s="39"/>
-      <c r="E163" s="41"/>
+      <c r="E163" s="68"/>
       <c r="F163" s="41"/>
       <c r="G163" s="41"/>
       <c r="H163" s="39"/>
@@ -4828,7 +4834,7 @@
       <c r="B164" s="50"/>
       <c r="C164" s="39"/>
       <c r="D164" s="39"/>
-      <c r="E164" s="41"/>
+      <c r="E164" s="68"/>
       <c r="F164" s="41"/>
       <c r="G164" s="41"/>
       <c r="H164" s="39"/>
@@ -4837,7 +4843,7 @@
       <c r="B165" s="50"/>
       <c r="C165" s="39"/>
       <c r="D165" s="39"/>
-      <c r="E165" s="41"/>
+      <c r="E165" s="68"/>
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
       <c r="H165" s="39"/>
@@ -4846,7 +4852,7 @@
       <c r="B166" s="50"/>
       <c r="C166" s="39"/>
       <c r="D166" s="39"/>
-      <c r="E166" s="41"/>
+      <c r="E166" s="68"/>
       <c r="F166" s="41"/>
       <c r="G166" s="41"/>
       <c r="H166" s="39"/>
@@ -4855,7 +4861,7 @@
       <c r="B167" s="50"/>
       <c r="C167" s="39"/>
       <c r="D167" s="39"/>
-      <c r="E167" s="41"/>
+      <c r="E167" s="68"/>
       <c r="F167" s="41"/>
       <c r="G167" s="41"/>
       <c r="H167" s="39"/>
@@ -4864,7 +4870,7 @@
       <c r="B168" s="50"/>
       <c r="C168" s="39"/>
       <c r="D168" s="39"/>
-      <c r="E168" s="41"/>
+      <c r="E168" s="68"/>
       <c r="F168" s="41"/>
       <c r="G168" s="41"/>
       <c r="H168" s="39"/>
@@ -4873,7 +4879,7 @@
       <c r="B169" s="50"/>
       <c r="C169" s="39"/>
       <c r="D169" s="39"/>
-      <c r="E169" s="41"/>
+      <c r="E169" s="68"/>
       <c r="F169" s="41"/>
       <c r="G169" s="41"/>
       <c r="H169" s="39"/>
@@ -4882,7 +4888,7 @@
       <c r="B170" s="50"/>
       <c r="C170" s="39"/>
       <c r="D170" s="39"/>
-      <c r="E170" s="41"/>
+      <c r="E170" s="68"/>
       <c r="F170" s="41"/>
       <c r="G170" s="41"/>
       <c r="H170" s="39"/>
@@ -4891,7 +4897,7 @@
       <c r="B171" s="50"/>
       <c r="C171" s="39"/>
       <c r="D171" s="39"/>
-      <c r="E171" s="41"/>
+      <c r="E171" s="68"/>
       <c r="F171" s="41"/>
       <c r="G171" s="41"/>
       <c r="H171" s="39"/>
@@ -4900,7 +4906,7 @@
       <c r="B172" s="50"/>
       <c r="C172" s="39"/>
       <c r="D172" s="39"/>
-      <c r="E172" s="41"/>
+      <c r="E172" s="68"/>
       <c r="F172" s="41"/>
       <c r="G172" s="41"/>
       <c r="H172" s="39"/>
@@ -4909,7 +4915,7 @@
       <c r="B173" s="50"/>
       <c r="C173" s="39"/>
       <c r="D173" s="39"/>
-      <c r="E173" s="41"/>
+      <c r="E173" s="68"/>
       <c r="F173" s="41"/>
       <c r="G173" s="41"/>
       <c r="H173" s="39"/>
@@ -4918,7 +4924,7 @@
       <c r="B174" s="50"/>
       <c r="C174" s="39"/>
       <c r="D174" s="39"/>
-      <c r="E174" s="41"/>
+      <c r="E174" s="68"/>
       <c r="F174" s="41"/>
       <c r="G174" s="41"/>
       <c r="H174" s="39"/>
@@ -4927,7 +4933,7 @@
       <c r="B175" s="50"/>
       <c r="C175" s="39"/>
       <c r="D175" s="39"/>
-      <c r="E175" s="41"/>
+      <c r="E175" s="68"/>
       <c r="F175" s="41"/>
       <c r="G175" s="41"/>
       <c r="H175" s="39"/>
@@ -4936,7 +4942,7 @@
       <c r="B176" s="50"/>
       <c r="C176" s="39"/>
       <c r="D176" s="39"/>
-      <c r="E176" s="41"/>
+      <c r="E176" s="68"/>
       <c r="F176" s="41"/>
       <c r="G176" s="41"/>
       <c r="H176" s="39"/>
@@ -4945,7 +4951,7 @@
       <c r="B177" s="50"/>
       <c r="C177" s="39"/>
       <c r="D177" s="39"/>
-      <c r="E177" s="41"/>
+      <c r="E177" s="68"/>
       <c r="F177" s="41"/>
       <c r="G177" s="41"/>
       <c r="H177" s="39"/>
@@ -4954,7 +4960,7 @@
       <c r="B178" s="50"/>
       <c r="C178" s="39"/>
       <c r="D178" s="39"/>
-      <c r="E178" s="41"/>
+      <c r="E178" s="68"/>
       <c r="F178" s="41"/>
       <c r="G178" s="41"/>
       <c r="H178" s="39"/>
@@ -4963,7 +4969,7 @@
       <c r="B179" s="50"/>
       <c r="C179" s="39"/>
       <c r="D179" s="39"/>
-      <c r="E179" s="41"/>
+      <c r="E179" s="68"/>
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
       <c r="H179" s="39"/>
@@ -4972,7 +4978,7 @@
       <c r="B180" s="50"/>
       <c r="C180" s="39"/>
       <c r="D180" s="39"/>
-      <c r="E180" s="41"/>
+      <c r="E180" s="68"/>
       <c r="F180" s="41"/>
       <c r="G180" s="41"/>
       <c r="H180" s="39"/>
@@ -4981,7 +4987,7 @@
       <c r="B181" s="50"/>
       <c r="C181" s="39"/>
       <c r="D181" s="39"/>
-      <c r="E181" s="41"/>
+      <c r="E181" s="68"/>
       <c r="F181" s="41"/>
       <c r="G181" s="41"/>
       <c r="H181" s="39"/>
@@ -4990,7 +4996,7 @@
       <c r="B182" s="50"/>
       <c r="C182" s="39"/>
       <c r="D182" s="39"/>
-      <c r="E182" s="41"/>
+      <c r="E182" s="68"/>
       <c r="F182" s="41"/>
       <c r="G182" s="41"/>
       <c r="H182" s="39"/>
@@ -4999,7 +5005,7 @@
       <c r="B183" s="50"/>
       <c r="C183" s="39"/>
       <c r="D183" s="39"/>
-      <c r="E183" s="41"/>
+      <c r="E183" s="68"/>
       <c r="F183" s="41"/>
       <c r="G183" s="41"/>
       <c r="H183" s="39"/>
@@ -5008,7 +5014,7 @@
       <c r="B184" s="50"/>
       <c r="C184" s="39"/>
       <c r="D184" s="39"/>
-      <c r="E184" s="41"/>
+      <c r="E184" s="68"/>
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
       <c r="H184" s="39"/>
@@ -5017,7 +5023,7 @@
       <c r="B185" s="50"/>
       <c r="C185" s="39"/>
       <c r="D185" s="39"/>
-      <c r="E185" s="41"/>
+      <c r="E185" s="68"/>
       <c r="F185" s="41"/>
       <c r="G185" s="41"/>
       <c r="H185" s="39"/>
@@ -5026,7 +5032,7 @@
       <c r="B186" s="50"/>
       <c r="C186" s="39"/>
       <c r="D186" s="39"/>
-      <c r="E186" s="41"/>
+      <c r="E186" s="68"/>
       <c r="F186" s="41"/>
       <c r="G186" s="41"/>
       <c r="H186" s="39"/>
@@ -5035,7 +5041,7 @@
       <c r="B187" s="50"/>
       <c r="C187" s="39"/>
       <c r="D187" s="39"/>
-      <c r="E187" s="41"/>
+      <c r="E187" s="68"/>
       <c r="F187" s="41"/>
       <c r="G187" s="41"/>
       <c r="H187" s="39"/>
@@ -5044,7 +5050,7 @@
       <c r="B188" s="50"/>
       <c r="C188" s="39"/>
       <c r="D188" s="39"/>
-      <c r="E188" s="41"/>
+      <c r="E188" s="68"/>
       <c r="F188" s="41"/>
       <c r="G188" s="41"/>
       <c r="H188" s="39"/>
@@ -5053,7 +5059,7 @@
       <c r="B189" s="50"/>
       <c r="C189" s="39"/>
       <c r="D189" s="39"/>
-      <c r="E189" s="41"/>
+      <c r="E189" s="68"/>
       <c r="F189" s="41"/>
       <c r="G189" s="41"/>
       <c r="H189" s="39"/>
@@ -5062,7 +5068,7 @@
       <c r="B190" s="50"/>
       <c r="C190" s="39"/>
       <c r="D190" s="39"/>
-      <c r="E190" s="41"/>
+      <c r="E190" s="68"/>
       <c r="F190" s="41"/>
       <c r="G190" s="41"/>
       <c r="H190" s="39"/>
@@ -5071,7 +5077,7 @@
       <c r="B191" s="50"/>
       <c r="C191" s="39"/>
       <c r="D191" s="39"/>
-      <c r="E191" s="41"/>
+      <c r="E191" s="68"/>
       <c r="F191" s="41"/>
       <c r="G191" s="41"/>
       <c r="H191" s="39"/>
@@ -5080,7 +5086,7 @@
       <c r="B192" s="50"/>
       <c r="C192" s="39"/>
       <c r="D192" s="39"/>
-      <c r="E192" s="41"/>
+      <c r="E192" s="68"/>
       <c r="F192" s="41"/>
       <c r="G192" s="41"/>
       <c r="H192" s="39"/>
@@ -5089,7 +5095,7 @@
       <c r="B193" s="50"/>
       <c r="C193" s="39"/>
       <c r="D193" s="39"/>
-      <c r="E193" s="41"/>
+      <c r="E193" s="68"/>
       <c r="F193" s="41"/>
       <c r="G193" s="41"/>
       <c r="H193" s="39"/>
@@ -5098,7 +5104,7 @@
       <c r="B194" s="50"/>
       <c r="C194" s="39"/>
       <c r="D194" s="39"/>
-      <c r="E194" s="41"/>
+      <c r="E194" s="68"/>
       <c r="F194" s="41"/>
       <c r="G194" s="41"/>
       <c r="H194" s="39"/>
@@ -5107,7 +5113,7 @@
       <c r="B195" s="50"/>
       <c r="C195" s="39"/>
       <c r="D195" s="39"/>
-      <c r="E195" s="41"/>
+      <c r="E195" s="68"/>
       <c r="F195" s="41"/>
       <c r="G195" s="41"/>
       <c r="H195" s="39"/>
@@ -5116,7 +5122,7 @@
       <c r="B196" s="50"/>
       <c r="C196" s="39"/>
       <c r="D196" s="39"/>
-      <c r="E196" s="41"/>
+      <c r="E196" s="68"/>
       <c r="F196" s="41"/>
       <c r="G196" s="41"/>
       <c r="H196" s="39"/>
@@ -5125,7 +5131,7 @@
       <c r="B197" s="50"/>
       <c r="C197" s="39"/>
       <c r="D197" s="39"/>
-      <c r="E197" s="41"/>
+      <c r="E197" s="68"/>
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
       <c r="H197" s="39"/>
@@ -5134,7 +5140,7 @@
       <c r="B198" s="50"/>
       <c r="C198" s="39"/>
       <c r="D198" s="39"/>
-      <c r="E198" s="41"/>
+      <c r="E198" s="68"/>
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
       <c r="H198" s="39"/>
@@ -5143,7 +5149,7 @@
       <c r="B199" s="50"/>
       <c r="C199" s="39"/>
       <c r="D199" s="39"/>
-      <c r="E199" s="41"/>
+      <c r="E199" s="68"/>
       <c r="F199" s="41"/>
       <c r="G199" s="41"/>
       <c r="H199" s="39"/>
@@ -5152,7 +5158,7 @@
       <c r="B200" s="50"/>
       <c r="C200" s="39"/>
       <c r="D200" s="39"/>
-      <c r="E200" s="41"/>
+      <c r="E200" s="68"/>
       <c r="F200" s="41"/>
       <c r="G200" s="41"/>
       <c r="H200" s="39"/>
@@ -5161,7 +5167,7 @@
       <c r="B201" s="50"/>
       <c r="C201" s="39"/>
       <c r="D201" s="39"/>
-      <c r="E201" s="41"/>
+      <c r="E201" s="68"/>
       <c r="F201" s="41"/>
       <c r="G201" s="41"/>
       <c r="H201" s="39"/>
@@ -5170,7 +5176,7 @@
       <c r="B202" s="50"/>
       <c r="C202" s="39"/>
       <c r="D202" s="39"/>
-      <c r="E202" s="41"/>
+      <c r="E202" s="68"/>
       <c r="F202" s="41"/>
       <c r="G202" s="41"/>
       <c r="H202" s="39"/>
@@ -5179,7 +5185,7 @@
       <c r="B203" s="50"/>
       <c r="C203" s="39"/>
       <c r="D203" s="39"/>
-      <c r="E203" s="41"/>
+      <c r="E203" s="68"/>
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
       <c r="H203" s="39"/>
@@ -5188,7 +5194,7 @@
       <c r="B204" s="50"/>
       <c r="C204" s="39"/>
       <c r="D204" s="39"/>
-      <c r="E204" s="41"/>
+      <c r="E204" s="68"/>
       <c r="F204" s="41"/>
       <c r="G204" s="41"/>
       <c r="H204" s="39"/>
@@ -5197,7 +5203,7 @@
       <c r="B205" s="50"/>
       <c r="C205" s="39"/>
       <c r="D205" s="39"/>
-      <c r="E205" s="41"/>
+      <c r="E205" s="68"/>
       <c r="F205" s="41"/>
       <c r="G205" s="41"/>
       <c r="H205" s="39"/>
@@ -5206,7 +5212,7 @@
       <c r="B206" s="50"/>
       <c r="C206" s="39"/>
       <c r="D206" s="39"/>
-      <c r="E206" s="41"/>
+      <c r="E206" s="68"/>
       <c r="F206" s="41"/>
       <c r="G206" s="41"/>
       <c r="H206" s="39"/>
@@ -5215,7 +5221,7 @@
       <c r="B207" s="50"/>
       <c r="C207" s="39"/>
       <c r="D207" s="39"/>
-      <c r="E207" s="41"/>
+      <c r="E207" s="68"/>
       <c r="F207" s="41"/>
       <c r="G207" s="41"/>
       <c r="H207" s="39"/>
@@ -5224,7 +5230,7 @@
       <c r="B208" s="50"/>
       <c r="C208" s="39"/>
       <c r="D208" s="39"/>
-      <c r="E208" s="41"/>
+      <c r="E208" s="68"/>
       <c r="F208" s="41"/>
       <c r="G208" s="41"/>
       <c r="H208" s="39"/>
@@ -5233,7 +5239,7 @@
       <c r="B209" s="50"/>
       <c r="C209" s="39"/>
       <c r="D209" s="39"/>
-      <c r="E209" s="41"/>
+      <c r="E209" s="68"/>
       <c r="F209" s="41"/>
       <c r="G209" s="41"/>
       <c r="H209" s="39"/>
@@ -5242,7 +5248,7 @@
       <c r="B210" s="50"/>
       <c r="C210" s="39"/>
       <c r="D210" s="39"/>
-      <c r="E210" s="41"/>
+      <c r="E210" s="68"/>
       <c r="F210" s="41"/>
       <c r="G210" s="41"/>
       <c r="H210" s="39"/>
@@ -5251,7 +5257,7 @@
       <c r="B211" s="50"/>
       <c r="C211" s="39"/>
       <c r="D211" s="39"/>
-      <c r="E211" s="41"/>
+      <c r="E211" s="68"/>
       <c r="F211" s="41"/>
       <c r="G211" s="41"/>
       <c r="H211" s="39"/>
@@ -5260,7 +5266,7 @@
       <c r="B212" s="50"/>
       <c r="C212" s="39"/>
       <c r="D212" s="39"/>
-      <c r="E212" s="41"/>
+      <c r="E212" s="68"/>
       <c r="F212" s="41"/>
       <c r="G212" s="41"/>
       <c r="H212" s="39"/>
@@ -5269,7 +5275,7 @@
       <c r="B213" s="50"/>
       <c r="C213" s="39"/>
       <c r="D213" s="39"/>
-      <c r="E213" s="41"/>
+      <c r="E213" s="68"/>
       <c r="F213" s="41"/>
       <c r="G213" s="41"/>
       <c r="H213" s="39"/>
@@ -5278,7 +5284,7 @@
       <c r="B214" s="50"/>
       <c r="C214" s="39"/>
       <c r="D214" s="39"/>
-      <c r="E214" s="41"/>
+      <c r="E214" s="68"/>
       <c r="F214" s="41"/>
       <c r="G214" s="41"/>
       <c r="H214" s="39"/>
@@ -5287,7 +5293,7 @@
       <c r="B215" s="50"/>
       <c r="C215" s="39"/>
       <c r="D215" s="39"/>
-      <c r="E215" s="41"/>
+      <c r="E215" s="68"/>
       <c r="F215" s="41"/>
       <c r="G215" s="41"/>
       <c r="H215" s="39"/>
@@ -5296,7 +5302,7 @@
       <c r="B216" s="50"/>
       <c r="C216" s="39"/>
       <c r="D216" s="39"/>
-      <c r="E216" s="41"/>
+      <c r="E216" s="68"/>
       <c r="F216" s="41"/>
       <c r="G216" s="41"/>
       <c r="H216" s="39"/>
@@ -5305,7 +5311,7 @@
       <c r="B217" s="50"/>
       <c r="C217" s="39"/>
       <c r="D217" s="39"/>
-      <c r="E217" s="41"/>
+      <c r="E217" s="68"/>
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
       <c r="H217" s="39"/>
@@ -5314,7 +5320,7 @@
       <c r="B218" s="50"/>
       <c r="C218" s="39"/>
       <c r="D218" s="39"/>
-      <c r="E218" s="41"/>
+      <c r="E218" s="68"/>
       <c r="F218" s="41"/>
       <c r="G218" s="41"/>
       <c r="H218" s="39"/>
@@ -5323,7 +5329,7 @@
       <c r="B219" s="50"/>
       <c r="C219" s="39"/>
       <c r="D219" s="39"/>
-      <c r="E219" s="41"/>
+      <c r="E219" s="68"/>
       <c r="F219" s="41"/>
       <c r="G219" s="41"/>
       <c r="H219" s="39"/>
@@ -5332,7 +5338,7 @@
       <c r="B220" s="50"/>
       <c r="C220" s="39"/>
       <c r="D220" s="39"/>
-      <c r="E220" s="41"/>
+      <c r="E220" s="68"/>
       <c r="F220" s="41"/>
       <c r="G220" s="41"/>
       <c r="H220" s="39"/>
@@ -5341,7 +5347,7 @@
       <c r="B221" s="50"/>
       <c r="C221" s="39"/>
       <c r="D221" s="39"/>
-      <c r="E221" s="41"/>
+      <c r="E221" s="68"/>
       <c r="F221" s="41"/>
       <c r="G221" s="41"/>
       <c r="H221" s="39"/>
@@ -5350,7 +5356,7 @@
       <c r="B222" s="50"/>
       <c r="C222" s="39"/>
       <c r="D222" s="39"/>
-      <c r="E222" s="41"/>
+      <c r="E222" s="68"/>
       <c r="F222" s="41"/>
       <c r="G222" s="41"/>
       <c r="H222" s="39"/>
@@ -5359,7 +5365,7 @@
       <c r="B223" s="50"/>
       <c r="C223" s="39"/>
       <c r="D223" s="39"/>
-      <c r="E223" s="41"/>
+      <c r="E223" s="68"/>
       <c r="F223" s="41"/>
       <c r="G223" s="41"/>
       <c r="H223" s="39"/>
@@ -5368,298 +5374,3247 @@
       <c r="B224" s="50"/>
       <c r="C224" s="39"/>
       <c r="D224" s="39"/>
-      <c r="E224" s="41"/>
+      <c r="E224" s="68"/>
       <c r="F224" s="41"/>
       <c r="G224" s="41"/>
       <c r="H224" s="39"/>
     </row>
-    <row r="225" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="50"/>
-    </row>
-    <row r="226" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E225" s="33"/>
+    </row>
+    <row r="226" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="50"/>
-    </row>
-    <row r="227" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E226" s="33"/>
+    </row>
+    <row r="227" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="50"/>
-    </row>
-    <row r="228" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E227" s="33"/>
+    </row>
+    <row r="228" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="50"/>
-    </row>
-    <row r="229" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E228" s="33"/>
+    </row>
+    <row r="229" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="50"/>
-    </row>
-    <row r="230" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E229" s="33"/>
+    </row>
+    <row r="230" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="50"/>
-    </row>
-    <row r="231" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E230" s="33"/>
+    </row>
+    <row r="231" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="50"/>
-    </row>
-    <row r="232" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E231" s="33"/>
+    </row>
+    <row r="232" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="50"/>
-    </row>
-    <row r="233" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E232" s="33"/>
+    </row>
+    <row r="233" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="50"/>
-    </row>
-    <row r="234" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E233" s="33"/>
+    </row>
+    <row r="234" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="50"/>
-    </row>
-    <row r="235" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E234" s="33"/>
+    </row>
+    <row r="235" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="50"/>
-    </row>
-    <row r="236" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E235" s="33"/>
+    </row>
+    <row r="236" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="50"/>
-    </row>
-    <row r="237" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E236" s="33"/>
+    </row>
+    <row r="237" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="50"/>
-    </row>
-    <row r="238" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E237" s="33"/>
+    </row>
+    <row r="238" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="50"/>
-    </row>
-    <row r="239" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E238" s="33"/>
+    </row>
+    <row r="239" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="50"/>
-    </row>
-    <row r="240" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E239" s="33"/>
+    </row>
+    <row r="240" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="50"/>
-    </row>
-    <row r="241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E240" s="33"/>
+    </row>
+    <row r="241" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="50"/>
-    </row>
-    <row r="242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E241" s="33"/>
+    </row>
+    <row r="242" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="50"/>
-    </row>
-    <row r="243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E242" s="33"/>
+    </row>
+    <row r="243" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="50"/>
-    </row>
-    <row r="244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E243" s="33"/>
+    </row>
+    <row r="244" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="50"/>
-    </row>
-    <row r="245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E244" s="33"/>
+    </row>
+    <row r="245" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="50"/>
-    </row>
-    <row r="246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E245" s="33"/>
+    </row>
+    <row r="246" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="50"/>
-    </row>
-    <row r="247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E246" s="33"/>
+    </row>
+    <row r="247" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="50"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E247" s="33"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="50"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E248" s="33"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" s="50"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E249" s="33"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B250" s="50"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E250" s="33"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="50"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E251" s="33"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" s="50"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E252" s="33"/>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="50"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E253" s="33"/>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="50"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E254" s="33"/>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="50"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E255" s="33"/>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="50"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E256" s="33"/>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="50"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E257" s="33"/>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" s="50"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E258" s="33"/>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" s="50"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E259" s="33"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B260" s="50"/>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E260" s="33"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" s="50"/>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E261" s="33"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B262" s="50"/>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E262" s="33"/>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B263" s="50"/>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E263" s="33"/>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B264" s="50"/>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E264" s="33"/>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B265" s="50"/>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E265" s="33"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B266" s="50"/>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E266" s="33"/>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B267" s="50"/>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E267" s="33"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B268" s="50"/>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E268" s="33"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B269" s="50"/>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E269" s="33"/>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" s="50"/>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E270" s="33"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B271" s="50"/>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E271" s="33"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B272" s="50"/>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E272" s="33"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="50"/>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E273" s="33"/>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" s="50"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E274" s="33"/>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" s="50"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E275" s="33"/>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="50"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E276" s="33"/>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="50"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E277" s="33"/>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="50"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E278" s="33"/>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="50"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E279" s="33"/>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="50"/>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E280" s="33"/>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="50"/>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E281" s="33"/>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="50"/>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E282" s="33"/>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="50"/>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E283" s="33"/>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="50"/>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E284" s="33"/>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="50"/>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E285" s="33"/>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" s="50"/>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E286" s="33"/>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" s="50"/>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E287" s="33"/>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="50"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E288" s="33"/>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" s="50"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E289" s="33"/>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" s="50"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E290" s="33"/>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" s="50"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E291" s="33"/>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" s="50"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E292" s="33"/>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" s="50"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E293" s="33"/>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" s="50"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E294" s="33"/>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" s="50"/>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E295" s="33"/>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" s="50"/>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E296" s="33"/>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" s="50"/>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E297" s="33"/>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" s="50"/>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E298" s="33"/>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" s="50"/>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E299" s="33"/>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" s="50"/>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E300" s="33"/>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" s="50"/>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E301" s="33"/>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" s="50"/>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E302" s="33"/>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" s="50"/>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E303" s="33"/>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" s="50"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E304" s="33"/>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305" s="50"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E305" s="33"/>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306" s="50"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E306" s="33"/>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B307" s="50"/>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E307" s="33"/>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B308" s="50"/>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E308" s="33"/>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B309" s="50"/>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E309" s="33"/>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" s="50"/>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E310" s="33"/>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B311" s="50"/>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E311" s="33"/>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B312" s="50"/>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E312" s="33"/>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B313" s="50"/>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E313" s="33"/>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B314" s="50"/>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E314" s="33"/>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" s="50"/>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E315" s="33"/>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B316" s="50"/>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E316" s="33"/>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" s="50"/>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E317" s="33"/>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B318" s="50"/>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E318" s="33"/>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B319" s="50"/>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E319" s="33"/>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B320" s="50"/>
+      <c r="E320" s="33"/>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321" s="33"/>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E322" s="33"/>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323" s="33"/>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E324" s="33"/>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325" s="33"/>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E326" s="33"/>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327" s="33"/>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E328" s="33"/>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329" s="33"/>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E330" s="33"/>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331" s="33"/>
+    </row>
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E332" s="33"/>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E333" s="33"/>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E334" s="33"/>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E335" s="33"/>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E336" s="33"/>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E337" s="33"/>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E338" s="33"/>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E339" s="33"/>
+    </row>
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E340" s="33"/>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E341" s="33"/>
+    </row>
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E342" s="33"/>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E343" s="33"/>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E344" s="33"/>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E345" s="33"/>
+    </row>
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E346" s="33"/>
+    </row>
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E347" s="33"/>
+    </row>
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E348" s="33"/>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E349" s="33"/>
+    </row>
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E350" s="33"/>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E351" s="33"/>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E352" s="33"/>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353" s="33"/>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E354" s="33"/>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E355" s="33"/>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E356" s="33"/>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E357" s="33"/>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E358" s="33"/>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E359" s="33"/>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E360" s="33"/>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E361" s="33"/>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E362" s="33"/>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E363" s="33"/>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E364" s="33"/>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E365" s="33"/>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E366" s="33"/>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E367" s="33"/>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E368" s="33"/>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E369" s="33"/>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E370" s="33"/>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E371" s="33"/>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E372" s="33"/>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E373" s="33"/>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E374" s="33"/>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E375" s="33"/>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E376" s="33"/>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E377" s="33"/>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E378" s="33"/>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E379" s="33"/>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E380" s="33"/>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E381" s="33"/>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E382" s="33"/>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E383" s="33"/>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E384" s="33"/>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E385" s="33"/>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E386" s="33"/>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E387" s="33"/>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E388" s="33"/>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E389" s="33"/>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E390" s="33"/>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E391" s="33"/>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E392" s="33"/>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E393" s="33"/>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E394" s="33"/>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E395" s="33"/>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E396" s="33"/>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E397" s="33"/>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E398" s="33"/>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E399" s="33"/>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E400" s="33"/>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E401" s="33"/>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E402" s="33"/>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E403" s="33"/>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E404" s="33"/>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E405" s="33"/>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E406" s="33"/>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E407" s="33"/>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E408" s="33"/>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E409" s="33"/>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E410" s="33"/>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E411" s="33"/>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E412" s="33"/>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E413" s="33"/>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E414" s="33"/>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E415" s="33"/>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E416" s="33"/>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417" s="33"/>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E418" s="33"/>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419" s="33"/>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E420" s="33"/>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E421" s="33"/>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E422" s="33"/>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E423" s="33"/>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E424" s="33"/>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E425" s="33"/>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E426" s="33"/>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E427" s="33"/>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E428" s="33"/>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E429" s="33"/>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E430" s="33"/>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E431" s="33"/>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E432" s="33"/>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E433" s="33"/>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E434" s="33"/>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435" s="33"/>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E436" s="33"/>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E437" s="33"/>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E438" s="33"/>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E439" s="33"/>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E440" s="33"/>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E441" s="33"/>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E442" s="33"/>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E443" s="33"/>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E444" s="33"/>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E445" s="33"/>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E446" s="33"/>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E447" s="33"/>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E448" s="33"/>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E449" s="33"/>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E450" s="33"/>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E451" s="33"/>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E452" s="33"/>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E453" s="33"/>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E454" s="33"/>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E455" s="33"/>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E456" s="33"/>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E457" s="33"/>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E458" s="33"/>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E459" s="33"/>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E460" s="33"/>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E461" s="33"/>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E462" s="33"/>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E463" s="33"/>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E464" s="33"/>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E465" s="33"/>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E466" s="33"/>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E467" s="33"/>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E468" s="33"/>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E469" s="33"/>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E470" s="33"/>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E471" s="33"/>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E472" s="33"/>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E473" s="33"/>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E474" s="33"/>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E475" s="33"/>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E476" s="33"/>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E477" s="33"/>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E478" s="33"/>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E479" s="33"/>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E480" s="33"/>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E481" s="33"/>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E482" s="33"/>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E483" s="33"/>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E484" s="33"/>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E485" s="33"/>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E486" s="33"/>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E487" s="33"/>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E488" s="33"/>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E489" s="33"/>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E490" s="33"/>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E491" s="33"/>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E492" s="33"/>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E493" s="33"/>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E494" s="33"/>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E495" s="33"/>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E496" s="33"/>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E497" s="33"/>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E498" s="33"/>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E499" s="33"/>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E500" s="33"/>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E501" s="33"/>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E502" s="33"/>
+    </row>
+    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E503" s="33"/>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E504" s="33"/>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E505" s="33"/>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E506" s="33"/>
+    </row>
+    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E507" s="33"/>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E508" s="33"/>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E509" s="33"/>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E510" s="33"/>
+    </row>
+    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E511" s="33"/>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E512" s="33"/>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E513" s="33"/>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E514" s="33"/>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E515" s="33"/>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E516" s="33"/>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E517" s="33"/>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E518" s="33"/>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E519" s="33"/>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E520" s="33"/>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E521" s="33"/>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E522" s="33"/>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E523" s="33"/>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E524" s="33"/>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E525" s="33"/>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E526" s="33"/>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E527" s="33"/>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E528" s="33"/>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E529" s="33"/>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E530" s="33"/>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E531" s="33"/>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E532" s="33"/>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E533" s="33"/>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E534" s="33"/>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E535" s="33"/>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E536" s="33"/>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E537" s="33"/>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E538" s="33"/>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E539" s="33"/>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E540" s="33"/>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E541" s="33"/>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E542" s="33"/>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E543" s="33"/>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E544" s="33"/>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E545" s="33"/>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E546" s="33"/>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E547" s="33"/>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E548" s="33"/>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E549" s="33"/>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E550" s="33"/>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E551" s="33"/>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E552" s="33"/>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E553" s="33"/>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E554" s="33"/>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E555" s="33"/>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E556" s="33"/>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E557" s="33"/>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E558" s="33"/>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E559" s="33"/>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E560" s="33"/>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E561" s="33"/>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E562" s="33"/>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E563" s="33"/>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E564" s="33"/>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E565" s="33"/>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E566" s="33"/>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E567" s="33"/>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E568" s="33"/>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E569" s="33"/>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E570" s="33"/>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E571" s="33"/>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E572" s="33"/>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E573" s="33"/>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E574" s="33"/>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E575" s="33"/>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E576" s="33"/>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E577" s="33"/>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E578" s="33"/>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E579" s="33"/>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E580" s="33"/>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E581" s="33"/>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E582" s="33"/>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E583" s="33"/>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E584" s="33"/>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E585" s="33"/>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E586" s="33"/>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E587" s="33"/>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E588" s="33"/>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E589" s="33"/>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E590" s="33"/>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E591" s="33"/>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E592" s="33"/>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E593" s="33"/>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E594" s="33"/>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E595" s="33"/>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E596" s="33"/>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E597" s="33"/>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E598" s="33"/>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E599" s="33"/>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E600" s="33"/>
+    </row>
+    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E601" s="33"/>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E602" s="33"/>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E603" s="33"/>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E604" s="33"/>
+    </row>
+    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E605" s="33"/>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E606" s="33"/>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E607" s="33"/>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E608" s="33"/>
+    </row>
+    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E609" s="33"/>
+    </row>
+    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E610" s="33"/>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E611" s="33"/>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E612" s="33"/>
+    </row>
+    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E613" s="33"/>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E614" s="33"/>
+    </row>
+    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E615" s="33"/>
+    </row>
+    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E616" s="33"/>
+    </row>
+    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E617" s="33"/>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E618" s="33"/>
+    </row>
+    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E619" s="33"/>
+    </row>
+    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E620" s="33"/>
+    </row>
+    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E621" s="33"/>
+    </row>
+    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E622" s="33"/>
+    </row>
+    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E623" s="33"/>
+    </row>
+    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E624" s="33"/>
+    </row>
+    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E625" s="33"/>
+    </row>
+    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E626" s="33"/>
+    </row>
+    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E627" s="33"/>
+    </row>
+    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E628" s="33"/>
+    </row>
+    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E629" s="33"/>
+    </row>
+    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E630" s="33"/>
+    </row>
+    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E631" s="33"/>
+    </row>
+    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E632" s="33"/>
+    </row>
+    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E633" s="33"/>
+    </row>
+    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E634" s="33"/>
+    </row>
+    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E635" s="33"/>
+    </row>
+    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E636" s="33"/>
+    </row>
+    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E637" s="33"/>
+    </row>
+    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E638" s="33"/>
+    </row>
+    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E639" s="33"/>
+    </row>
+    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E640" s="33"/>
+    </row>
+    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E641" s="33"/>
+    </row>
+    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E642" s="33"/>
+    </row>
+    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E643" s="33"/>
+    </row>
+    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E644" s="33"/>
+    </row>
+    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E645" s="33"/>
+    </row>
+    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E646" s="33"/>
+    </row>
+    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E647" s="33"/>
+    </row>
+    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E648" s="33"/>
+    </row>
+    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E649" s="33"/>
+    </row>
+    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E650" s="33"/>
+    </row>
+    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E651" s="33"/>
+    </row>
+    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E652" s="33"/>
+    </row>
+    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E653" s="33"/>
+    </row>
+    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E654" s="33"/>
+    </row>
+    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E655" s="33"/>
+    </row>
+    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E656" s="33"/>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E657" s="33"/>
+    </row>
+    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E658" s="33"/>
+    </row>
+    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E659" s="33"/>
+    </row>
+    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E660" s="33"/>
+    </row>
+    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E661" s="33"/>
+    </row>
+    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E662" s="33"/>
+    </row>
+    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E663" s="33"/>
+    </row>
+    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E664" s="33"/>
+    </row>
+    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E665" s="33"/>
+    </row>
+    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E666" s="33"/>
+    </row>
+    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E667" s="33"/>
+    </row>
+    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E668" s="33"/>
+    </row>
+    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E669" s="33"/>
+    </row>
+    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E670" s="33"/>
+    </row>
+    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E671" s="33"/>
+    </row>
+    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E672" s="33"/>
+    </row>
+    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E673" s="33"/>
+    </row>
+    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E674" s="33"/>
+    </row>
+    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E675" s="33"/>
+    </row>
+    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E676" s="33"/>
+    </row>
+    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E677" s="33"/>
+    </row>
+    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E678" s="33"/>
+    </row>
+    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E679" s="33"/>
+    </row>
+    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E680" s="33"/>
+    </row>
+    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E681" s="33"/>
+    </row>
+    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E682" s="33"/>
+    </row>
+    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E683" s="33"/>
+    </row>
+    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E684" s="33"/>
+    </row>
+    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E685" s="33"/>
+    </row>
+    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E686" s="33"/>
+    </row>
+    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E687" s="33"/>
+    </row>
+    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E688" s="33"/>
+    </row>
+    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E689" s="33"/>
+    </row>
+    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E690" s="33"/>
+    </row>
+    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E691" s="33"/>
+    </row>
+    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E692" s="33"/>
+    </row>
+    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E693" s="33"/>
+    </row>
+    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E694" s="33"/>
+    </row>
+    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E695" s="33"/>
+    </row>
+    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E696" s="33"/>
+    </row>
+    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E697" s="33"/>
+    </row>
+    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E698" s="33"/>
+    </row>
+    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E699" s="33"/>
+    </row>
+    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E700" s="33"/>
+    </row>
+    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E701" s="33"/>
+    </row>
+    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E702" s="33"/>
+    </row>
+    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E703" s="33"/>
+    </row>
+    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E704" s="33"/>
+    </row>
+    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E705" s="33"/>
+    </row>
+    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E706" s="33"/>
+    </row>
+    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E707" s="33"/>
+    </row>
+    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E708" s="33"/>
+    </row>
+    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E709" s="33"/>
+    </row>
+    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E710" s="33"/>
+    </row>
+    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E711" s="33"/>
+    </row>
+    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E712" s="33"/>
+    </row>
+    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E713" s="33"/>
+    </row>
+    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E714" s="33"/>
+    </row>
+    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E715" s="33"/>
+    </row>
+    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E716" s="33"/>
+    </row>
+    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E717" s="33"/>
+    </row>
+    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E718" s="33"/>
+    </row>
+    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E719" s="33"/>
+    </row>
+    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E720" s="33"/>
+    </row>
+    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E721" s="33"/>
+    </row>
+    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E722" s="33"/>
+    </row>
+    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E723" s="33"/>
+    </row>
+    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E724" s="33"/>
+    </row>
+    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E725" s="33"/>
+    </row>
+    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E726" s="33"/>
+    </row>
+    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E727" s="33"/>
+    </row>
+    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E728" s="33"/>
+    </row>
+    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E729" s="33"/>
+    </row>
+    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E730" s="33"/>
+    </row>
+    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E731" s="33"/>
+    </row>
+    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E732" s="33"/>
+    </row>
+    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E733" s="33"/>
+    </row>
+    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E734" s="33"/>
+    </row>
+    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E735" s="33"/>
+    </row>
+    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E736" s="33"/>
+    </row>
+    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E737" s="33"/>
+    </row>
+    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E738" s="33"/>
+    </row>
+    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E739" s="33"/>
+    </row>
+    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E740" s="33"/>
+    </row>
+    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E741" s="33"/>
+    </row>
+    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E742" s="33"/>
+    </row>
+    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E743" s="33"/>
+    </row>
+    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E744" s="33"/>
+    </row>
+    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E745" s="33"/>
+    </row>
+    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E746" s="33"/>
+    </row>
+    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E747" s="33"/>
+    </row>
+    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E748" s="33"/>
+    </row>
+    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E749" s="33"/>
+    </row>
+    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E750" s="33"/>
+    </row>
+    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E751" s="33"/>
+    </row>
+    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E752" s="33"/>
+    </row>
+    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E753" s="33"/>
+    </row>
+    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E754" s="33"/>
+    </row>
+    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E755" s="33"/>
+    </row>
+    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E756" s="33"/>
+    </row>
+    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E757" s="33"/>
+    </row>
+    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E758" s="33"/>
+    </row>
+    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E759" s="33"/>
+    </row>
+    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E760" s="33"/>
+    </row>
+    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E761" s="33"/>
+    </row>
+    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E762" s="33"/>
+    </row>
+    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E763" s="33"/>
+    </row>
+    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E764" s="33"/>
+    </row>
+    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E765" s="33"/>
+    </row>
+    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E766" s="33"/>
+    </row>
+    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E767" s="33"/>
+    </row>
+    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E768" s="33"/>
+    </row>
+    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E769" s="33"/>
+    </row>
+    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E770" s="33"/>
+    </row>
+    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E771" s="33"/>
+    </row>
+    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E772" s="33"/>
+    </row>
+    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E773" s="33"/>
+    </row>
+    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E774" s="33"/>
+    </row>
+    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E775" s="33"/>
+    </row>
+    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E776" s="33"/>
+    </row>
+    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E777" s="33"/>
+    </row>
+    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E778" s="33"/>
+    </row>
+    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E779" s="33"/>
+    </row>
+    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E780" s="33"/>
+    </row>
+    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E781" s="33"/>
+    </row>
+    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E782" s="33"/>
+    </row>
+    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E783" s="33"/>
+    </row>
+    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E784" s="33"/>
+    </row>
+    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E785" s="33"/>
+    </row>
+    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E786" s="33"/>
+    </row>
+    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E787" s="33"/>
+    </row>
+    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E788" s="33"/>
+    </row>
+    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E789" s="33"/>
+    </row>
+    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E790" s="33"/>
+    </row>
+    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E791" s="33"/>
+    </row>
+    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E792" s="33"/>
+    </row>
+    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E793" s="33"/>
+    </row>
+    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E794" s="33"/>
+    </row>
+    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E795" s="33"/>
+    </row>
+    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E796" s="33"/>
+    </row>
+    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E797" s="33"/>
+    </row>
+    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E798" s="33"/>
+    </row>
+    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E799" s="33"/>
+    </row>
+    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E800" s="33"/>
+    </row>
+    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E801" s="33"/>
+    </row>
+    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E802" s="33"/>
+    </row>
+    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E803" s="33"/>
+    </row>
+    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E804" s="33"/>
+    </row>
+    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E805" s="33"/>
+    </row>
+    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E806" s="33"/>
+    </row>
+    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E807" s="33"/>
+    </row>
+    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E808" s="33"/>
+    </row>
+    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E809" s="33"/>
+    </row>
+    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E810" s="33"/>
+    </row>
+    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E811" s="33"/>
+    </row>
+    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E812" s="33"/>
+    </row>
+    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E813" s="33"/>
+    </row>
+    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E814" s="33"/>
+    </row>
+    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E815" s="33"/>
+    </row>
+    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E816" s="33"/>
+    </row>
+    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E817" s="33"/>
+    </row>
+    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E818" s="33"/>
+    </row>
+    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E819" s="33"/>
+    </row>
+    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E820" s="33"/>
+    </row>
+    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E821" s="33"/>
+    </row>
+    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E822" s="33"/>
+    </row>
+    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E823" s="33"/>
+    </row>
+    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E824" s="33"/>
+    </row>
+    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E825" s="33"/>
+    </row>
+    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E826" s="33"/>
+    </row>
+    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E827" s="33"/>
+    </row>
+    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E828" s="33"/>
+    </row>
+    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E829" s="33"/>
+    </row>
+    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E830" s="33"/>
+    </row>
+    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E831" s="33"/>
+    </row>
+    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E832" s="33"/>
+    </row>
+    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E833" s="33"/>
+    </row>
+    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E834" s="33"/>
+    </row>
+    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E835" s="33"/>
+    </row>
+    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E836" s="33"/>
+    </row>
+    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E837" s="33"/>
+    </row>
+    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E838" s="33"/>
+    </row>
+    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E839" s="33"/>
+    </row>
+    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E840" s="33"/>
+    </row>
+    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E841" s="33"/>
+    </row>
+    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E842" s="33"/>
+    </row>
+    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E843" s="33"/>
+    </row>
+    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E844" s="33"/>
+    </row>
+    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E845" s="33"/>
+    </row>
+    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E846" s="33"/>
+    </row>
+    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E847" s="33"/>
+    </row>
+    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E848" s="33"/>
+    </row>
+    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E849" s="33"/>
+    </row>
+    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E850" s="33"/>
+    </row>
+    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E851" s="33"/>
+    </row>
+    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E852" s="33"/>
+    </row>
+    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E853" s="33"/>
+    </row>
+    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E854" s="33"/>
+    </row>
+    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E855" s="33"/>
+    </row>
+    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E856" s="33"/>
+    </row>
+    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E857" s="33"/>
+    </row>
+    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E858" s="33"/>
+    </row>
+    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E859" s="33"/>
+    </row>
+    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E860" s="33"/>
+    </row>
+    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E861" s="33"/>
+    </row>
+    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E862" s="33"/>
+    </row>
+    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E863" s="33"/>
+    </row>
+    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E864" s="33"/>
+    </row>
+    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E865" s="33"/>
+    </row>
+    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E866" s="33"/>
+    </row>
+    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E867" s="33"/>
+    </row>
+    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E868" s="33"/>
+    </row>
+    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E869" s="33"/>
+    </row>
+    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E870" s="33"/>
+    </row>
+    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E871" s="33"/>
+    </row>
+    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E872" s="33"/>
+    </row>
+    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E873" s="33"/>
+    </row>
+    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E874" s="33"/>
+    </row>
+    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E875" s="33"/>
+    </row>
+    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E876" s="33"/>
+    </row>
+    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E877" s="33"/>
+    </row>
+    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E878" s="33"/>
+    </row>
+    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E879" s="33"/>
+    </row>
+    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E880" s="33"/>
+    </row>
+    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E881" s="33"/>
+    </row>
+    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E882" s="33"/>
+    </row>
+    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E883" s="33"/>
+    </row>
+    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E884" s="33"/>
+    </row>
+    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E885" s="33"/>
+    </row>
+    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E886" s="33"/>
+    </row>
+    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E887" s="33"/>
+    </row>
+    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E888" s="33"/>
+    </row>
+    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E889" s="33"/>
+    </row>
+    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E890" s="33"/>
+    </row>
+    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E891" s="33"/>
+    </row>
+    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E892" s="33"/>
+    </row>
+    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E893" s="33"/>
+    </row>
+    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E894" s="33"/>
+    </row>
+    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E895" s="33"/>
+    </row>
+    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E896" s="33"/>
+    </row>
+    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E897" s="33"/>
+    </row>
+    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E898" s="33"/>
+    </row>
+    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E899" s="33"/>
+    </row>
+    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E900" s="33"/>
+    </row>
+    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E901" s="33"/>
+    </row>
+    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E902" s="33"/>
+    </row>
+    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E903" s="33"/>
+    </row>
+    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E904" s="33"/>
+    </row>
+    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E905" s="33"/>
+    </row>
+    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E906" s="33"/>
+    </row>
+    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E907" s="33"/>
+    </row>
+    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E908" s="33"/>
+    </row>
+    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E909" s="33"/>
+    </row>
+    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E910" s="33"/>
+    </row>
+    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E911" s="33"/>
+    </row>
+    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E912" s="33"/>
+    </row>
+    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E913" s="33"/>
+    </row>
+    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E914" s="33"/>
+    </row>
+    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E915" s="33"/>
+    </row>
+    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E916" s="33"/>
+    </row>
+    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E917" s="33"/>
+    </row>
+    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E918" s="33"/>
+    </row>
+    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E919" s="33"/>
+    </row>
+    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E920" s="33"/>
+    </row>
+    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E921" s="33"/>
+    </row>
+    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E922" s="33"/>
+    </row>
+    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E923" s="33"/>
+    </row>
+    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E924" s="33"/>
+    </row>
+    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E925" s="33"/>
+    </row>
+    <row r="926" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E926" s="33"/>
+    </row>
+    <row r="927" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E927" s="33"/>
+    </row>
+    <row r="928" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E928" s="33"/>
+    </row>
+    <row r="929" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E929" s="33"/>
+    </row>
+    <row r="930" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E930" s="33"/>
+    </row>
+    <row r="931" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E931" s="33"/>
+    </row>
+    <row r="932" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E932" s="33"/>
+    </row>
+    <row r="933" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E933" s="33"/>
+    </row>
+    <row r="934" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E934" s="33"/>
+    </row>
+    <row r="935" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E935" s="33"/>
+    </row>
+    <row r="936" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E936" s="33"/>
+    </row>
+    <row r="937" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E937" s="33"/>
+    </row>
+    <row r="938" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E938" s="33"/>
+    </row>
+    <row r="939" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E939" s="33"/>
+    </row>
+    <row r="940" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E940" s="33"/>
+    </row>
+    <row r="941" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E941" s="33"/>
+    </row>
+    <row r="942" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E942" s="33"/>
+    </row>
+    <row r="943" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E943" s="33"/>
+    </row>
+    <row r="944" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E944" s="33"/>
+    </row>
+    <row r="945" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E945" s="33"/>
+    </row>
+    <row r="946" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E946" s="33"/>
+    </row>
+    <row r="947" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E947" s="33"/>
+    </row>
+    <row r="948" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E948" s="33"/>
+    </row>
+    <row r="949" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E949" s="33"/>
+    </row>
+    <row r="950" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E950" s="33"/>
+    </row>
+    <row r="951" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E951" s="33"/>
+    </row>
+    <row r="952" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E952" s="33"/>
+    </row>
+    <row r="953" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E953" s="33"/>
+    </row>
+    <row r="954" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E954" s="33"/>
+    </row>
+    <row r="955" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E955" s="33"/>
+    </row>
+    <row r="956" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E956" s="33"/>
+    </row>
+    <row r="957" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E957" s="33"/>
+    </row>
+    <row r="958" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E958" s="33"/>
+    </row>
+    <row r="959" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E959" s="33"/>
+    </row>
+    <row r="960" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E960" s="33"/>
+    </row>
+    <row r="961" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E961" s="33"/>
+    </row>
+    <row r="962" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E962" s="33"/>
+    </row>
+    <row r="963" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E963" s="33"/>
+    </row>
+    <row r="964" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E964" s="33"/>
+    </row>
+    <row r="965" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E965" s="33"/>
+    </row>
+    <row r="966" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E966" s="33"/>
+    </row>
+    <row r="967" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E967" s="33"/>
+    </row>
+    <row r="968" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E968" s="33"/>
+    </row>
+    <row r="969" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E969" s="33"/>
+    </row>
+    <row r="970" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E970" s="33"/>
+    </row>
+    <row r="971" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E971" s="33"/>
+    </row>
+    <row r="972" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E972" s="33"/>
+    </row>
+    <row r="973" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E973" s="33"/>
+    </row>
+    <row r="974" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E974" s="33"/>
+    </row>
+    <row r="975" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E975" s="33"/>
+    </row>
+    <row r="976" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E976" s="33"/>
+    </row>
+    <row r="977" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E977" s="33"/>
+    </row>
+    <row r="978" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E978" s="33"/>
+    </row>
+    <row r="979" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E979" s="33"/>
+    </row>
+    <row r="980" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E980" s="33"/>
+    </row>
+    <row r="981" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E981" s="33"/>
+    </row>
+    <row r="982" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E982" s="33"/>
+    </row>
+    <row r="983" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E983" s="33"/>
+    </row>
+    <row r="984" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E984" s="33"/>
+    </row>
+    <row r="985" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E985" s="33"/>
+    </row>
+    <row r="986" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E986" s="33"/>
+    </row>
+    <row r="987" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E987" s="33"/>
+    </row>
+    <row r="988" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E988" s="33"/>
+    </row>
+    <row r="989" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E989" s="33"/>
+    </row>
+    <row r="990" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E990" s="33"/>
+    </row>
+    <row r="991" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E991" s="33"/>
+    </row>
+    <row r="992" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E992" s="33"/>
+    </row>
+    <row r="993" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E993" s="33"/>
+    </row>
+    <row r="994" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E994" s="33"/>
+    </row>
+    <row r="995" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E995" s="33"/>
+    </row>
+    <row r="996" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E996" s="33"/>
+    </row>
+    <row r="997" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E997" s="33"/>
+    </row>
+    <row r="998" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E998" s="33"/>
+    </row>
+    <row r="999" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E999" s="33"/>
+    </row>
+    <row r="1000" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1000" s="33"/>
+    </row>
+    <row r="1001" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1001" s="33"/>
+    </row>
+    <row r="1002" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1002" s="33"/>
+    </row>
+    <row r="1003" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1003" s="33"/>
+    </row>
+    <row r="1004" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1004" s="33"/>
+    </row>
+    <row r="1005" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1005" s="33"/>
+    </row>
+    <row r="1006" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1006" s="33"/>
+    </row>
+    <row r="1007" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1007" s="33"/>
+    </row>
+    <row r="1008" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1008" s="33"/>
+    </row>
+    <row r="1009" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1009" s="33"/>
+    </row>
+    <row r="1010" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1010" s="33"/>
+    </row>
+    <row r="1011" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1011" s="33"/>
+    </row>
+    <row r="1012" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1012" s="33"/>
+    </row>
+    <row r="1013" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1013" s="33"/>
+    </row>
+    <row r="1014" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1014" s="33"/>
+    </row>
+    <row r="1015" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1015" s="33"/>
+    </row>
+    <row r="1016" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1016" s="33"/>
+    </row>
+    <row r="1017" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1017" s="33"/>
+    </row>
+    <row r="1018" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1018" s="33"/>
+    </row>
+    <row r="1019" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1019" s="33"/>
+    </row>
+    <row r="1020" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1020" s="33"/>
+    </row>
+    <row r="1021" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1021" s="33"/>
+    </row>
+    <row r="1022" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1022" s="33"/>
+    </row>
+    <row r="1023" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1023" s="33"/>
+    </row>
+    <row r="1024" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1024" s="33"/>
+    </row>
+    <row r="1025" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1025" s="33"/>
+    </row>
+    <row r="1026" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1026" s="33"/>
+    </row>
+    <row r="1027" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1027" s="33"/>
+    </row>
+    <row r="1028" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1028" s="33"/>
+    </row>
+    <row r="1029" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1029" s="33"/>
+    </row>
+    <row r="1030" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1030" s="33"/>
+    </row>
+    <row r="1031" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1031" s="33"/>
+    </row>
+    <row r="1032" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1032" s="33"/>
+    </row>
+    <row r="1033" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1033" s="33"/>
+    </row>
+    <row r="1034" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1034" s="33"/>
+    </row>
+    <row r="1035" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1035" s="33"/>
+    </row>
+    <row r="1036" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1036" s="33"/>
+    </row>
+    <row r="1037" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1037" s="33"/>
+    </row>
+    <row r="1038" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1038" s="33"/>
+    </row>
+    <row r="1039" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1039" s="33"/>
+    </row>
+    <row r="1040" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1040" s="33"/>
+    </row>
+    <row r="1041" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1041" s="33"/>
+    </row>
+    <row r="1042" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1042" s="33"/>
+    </row>
+    <row r="1043" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1043" s="33"/>
+    </row>
+    <row r="1044" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1044" s="33"/>
+    </row>
+    <row r="1045" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1045" s="33"/>
+    </row>
+    <row r="1046" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1046" s="33"/>
+    </row>
+    <row r="1047" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1047" s="33"/>
+    </row>
+    <row r="1048" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048" s="33"/>
+    </row>
+    <row r="1049" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1049" s="33"/>
+    </row>
+    <row r="1050" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1050" s="33"/>
+    </row>
+    <row r="1051" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1051" s="33"/>
+    </row>
+    <row r="1052" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1052" s="33"/>
+    </row>
+    <row r="1053" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1053" s="33"/>
+    </row>
+    <row r="1054" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1054" s="33"/>
+    </row>
+    <row r="1055" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1055" s="33"/>
+    </row>
+    <row r="1056" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1056" s="33"/>
+    </row>
+    <row r="1057" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1057" s="33"/>
+    </row>
+    <row r="1058" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1058" s="33"/>
+    </row>
+    <row r="1059" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1059" s="33"/>
+    </row>
+    <row r="1060" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1060" s="33"/>
+    </row>
+    <row r="1061" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1061" s="33"/>
+    </row>
+    <row r="1062" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1062" s="33"/>
+    </row>
+    <row r="1063" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1063" s="33"/>
+    </row>
+    <row r="1064" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1064" s="33"/>
+    </row>
+    <row r="1065" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1065" s="33"/>
+    </row>
+    <row r="1066" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1066" s="33"/>
+    </row>
+    <row r="1067" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1067" s="33"/>
+    </row>
+    <row r="1068" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1068" s="33"/>
+    </row>
+    <row r="1069" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1069" s="33"/>
+    </row>
+    <row r="1070" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1070" s="33"/>
+    </row>
+    <row r="1071" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1071" s="33"/>
+    </row>
+    <row r="1072" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1072" s="33"/>
+    </row>
+    <row r="1073" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1073" s="33"/>
+    </row>
+    <row r="1074" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1074" s="33"/>
+    </row>
+    <row r="1075" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1075" s="33"/>
+    </row>
+    <row r="1076" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1076" s="33"/>
+    </row>
+    <row r="1077" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1077" s="33"/>
+    </row>
+    <row r="1078" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1078" s="33"/>
+    </row>
+    <row r="1079" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1079" s="33"/>
+    </row>
+    <row r="1080" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1080" s="33"/>
+    </row>
+    <row r="1081" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1081" s="33"/>
+    </row>
+    <row r="1082" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1082" s="33"/>
+    </row>
+    <row r="1083" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1083" s="33"/>
+    </row>
+    <row r="1084" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1084" s="33"/>
+    </row>
+    <row r="1085" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1085" s="33"/>
+    </row>
+    <row r="1086" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1086" s="33"/>
+    </row>
+    <row r="1087" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1087" s="33"/>
+    </row>
+    <row r="1088" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1088" s="33"/>
+    </row>
+    <row r="1089" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1089" s="33"/>
+    </row>
+    <row r="1090" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1090" s="33"/>
+    </row>
+    <row r="1091" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1091" s="33"/>
+    </row>
+    <row r="1092" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1092" s="33"/>
+    </row>
+    <row r="1093" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1093" s="33"/>
+    </row>
+    <row r="1094" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1094" s="33"/>
+    </row>
+    <row r="1095" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1095" s="33"/>
+    </row>
+    <row r="1096" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1096" s="33"/>
+    </row>
+    <row r="1097" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1097" s="33"/>
+    </row>
+    <row r="1098" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1098" s="33"/>
+    </row>
+    <row r="1099" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1099" s="33"/>
+    </row>
+    <row r="1100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1100" s="33"/>
+    </row>
+    <row r="1101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1101" s="33"/>
+    </row>
+    <row r="1102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1102" s="33"/>
+    </row>
+    <row r="1103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1103" s="33"/>
+    </row>
+    <row r="1104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1104" s="33"/>
+    </row>
+    <row r="1105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1105" s="33"/>
+    </row>
+    <row r="1106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1106" s="33"/>
+    </row>
+    <row r="1107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1107" s="33"/>
+    </row>
+    <row r="1108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1108" s="33"/>
+    </row>
+    <row r="1109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1109" s="33"/>
+    </row>
+    <row r="1110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1110" s="33"/>
+    </row>
+    <row r="1111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1111" s="33"/>
+    </row>
+    <row r="1112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1112" s="33"/>
+    </row>
+    <row r="1113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1113" s="33"/>
+    </row>
+    <row r="1114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1114" s="33"/>
+    </row>
+    <row r="1115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1115" s="33"/>
+    </row>
+    <row r="1116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1116" s="33"/>
+    </row>
+    <row r="1117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1117" s="33"/>
+    </row>
+    <row r="1118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1118" s="33"/>
+    </row>
+    <row r="1119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1119" s="33"/>
+    </row>
+    <row r="1120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1120" s="33"/>
+    </row>
+    <row r="1121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1121" s="33"/>
+    </row>
+    <row r="1122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1122" s="33"/>
+    </row>
+    <row r="1123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1123" s="33"/>
+    </row>
+    <row r="1124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1124" s="33"/>
+    </row>
+    <row r="1125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1125" s="33"/>
+    </row>
+    <row r="1126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1126" s="33"/>
+    </row>
+    <row r="1127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1127" s="33"/>
+    </row>
+    <row r="1128" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1128" s="33"/>
+    </row>
+    <row r="1129" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1129" s="33"/>
+    </row>
+    <row r="1130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1130" s="33"/>
+    </row>
+    <row r="1131" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1131" s="33"/>
+    </row>
+    <row r="1132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1132" s="33"/>
+    </row>
+    <row r="1133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1133" s="33"/>
+    </row>
+    <row r="1134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1134" s="33"/>
+    </row>
+    <row r="1135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1135" s="33"/>
+    </row>
+    <row r="1136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1136" s="33"/>
+    </row>
+    <row r="1137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1137" s="33"/>
+    </row>
+    <row r="1138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1138" s="33"/>
+    </row>
+    <row r="1139" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1139" s="33"/>
+    </row>
+    <row r="1140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1140" s="33"/>
+    </row>
+    <row r="1141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1141" s="33"/>
+    </row>
+    <row r="1142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1142" s="33"/>
+    </row>
+    <row r="1143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1143" s="33"/>
+    </row>
+    <row r="1144" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1144" s="33"/>
+    </row>
+    <row r="1145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1145" s="33"/>
+    </row>
+    <row r="1146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1146" s="33"/>
+    </row>
+    <row r="1147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1147" s="33"/>
+    </row>
+    <row r="1148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1148" s="33"/>
+    </row>
+    <row r="1149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1149" s="33"/>
+    </row>
+    <row r="1150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1150" s="33"/>
+    </row>
+    <row r="1151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1151" s="33"/>
+    </row>
+    <row r="1152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1152" s="33"/>
+    </row>
+    <row r="1153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1153" s="33"/>
+    </row>
+    <row r="1154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1154" s="33"/>
+    </row>
+    <row r="1155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1155" s="33"/>
+    </row>
+    <row r="1156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1156" s="33"/>
+    </row>
+    <row r="1157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1157" s="33"/>
+    </row>
+    <row r="1158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1158" s="33"/>
+    </row>
+    <row r="1159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1159" s="33"/>
+    </row>
+    <row r="1160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1160" s="33"/>
+    </row>
+    <row r="1161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1161" s="33"/>
+    </row>
+    <row r="1162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1162" s="33"/>
+    </row>
+    <row r="1163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1163" s="33"/>
+    </row>
+    <row r="1164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1164" s="33"/>
+    </row>
+    <row r="1165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1165" s="33"/>
+    </row>
+    <row r="1166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1166" s="33"/>
+    </row>
+    <row r="1167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1167" s="33"/>
+    </row>
+    <row r="1168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1168" s="33"/>
+    </row>
+    <row r="1169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1169" s="33"/>
+    </row>
+    <row r="1170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1170" s="33"/>
+    </row>
+    <row r="1171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1171" s="33"/>
+    </row>
+    <row r="1172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1172" s="33"/>
+    </row>
+    <row r="1173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1173" s="33"/>
+    </row>
+    <row r="1174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1174" s="33"/>
+    </row>
+    <row r="1175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1175" s="33"/>
+    </row>
+    <row r="1176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1176" s="33"/>
+    </row>
+    <row r="1177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1177" s="33"/>
+    </row>
+    <row r="1178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1178" s="33"/>
+    </row>
+    <row r="1179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1179" s="33"/>
+    </row>
+    <row r="1180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1180" s="33"/>
+    </row>
+    <row r="1181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1181" s="33"/>
+    </row>
+    <row r="1182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1182" s="33"/>
+    </row>
+    <row r="1183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1183" s="33"/>
+    </row>
+    <row r="1184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1184" s="33"/>
+    </row>
+    <row r="1185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1185" s="33"/>
+    </row>
+    <row r="1186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1186" s="33"/>
+    </row>
+    <row r="1187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1187" s="33"/>
+    </row>
+    <row r="1188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1188" s="33"/>
+    </row>
+    <row r="1189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1189" s="33"/>
+    </row>
+    <row r="1190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1190" s="33"/>
+    </row>
+    <row r="1191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1191" s="33"/>
+    </row>
+    <row r="1192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1192" s="33"/>
+    </row>
+    <row r="1193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1193" s="33"/>
+    </row>
+    <row r="1194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1194" s="33"/>
+    </row>
+    <row r="1195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1195" s="33"/>
+    </row>
+    <row r="1196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1196" s="33"/>
+    </row>
+    <row r="1197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1197" s="33"/>
+    </row>
+    <row r="1198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1198" s="33"/>
+    </row>
+    <row r="1199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1199" s="33"/>
+    </row>
+    <row r="1200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1200" s="33"/>
+    </row>
+    <row r="1201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1201" s="33"/>
+    </row>
+    <row r="1202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1202" s="33"/>
+    </row>
+    <row r="1203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1203" s="33"/>
+    </row>
+    <row r="1204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1204" s="33"/>
+    </row>
+    <row r="1205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1205" s="33"/>
+    </row>
+    <row r="1206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1206" s="33"/>
+    </row>
+    <row r="1207" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1207" s="33"/>
+    </row>
+    <row r="1208" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1208" s="33"/>
+    </row>
+    <row r="1209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1209" s="33"/>
+    </row>
+    <row r="1210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1210" s="33"/>
+    </row>
+    <row r="1211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1211" s="33"/>
+    </row>
+    <row r="1212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1212" s="33"/>
+    </row>
+    <row r="1213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1213" s="33"/>
+    </row>
+    <row r="1214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1214" s="33"/>
+    </row>
+    <row r="1215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1215" s="33"/>
+    </row>
+    <row r="1216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1216" s="33"/>
+    </row>
+    <row r="1217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1217" s="33"/>
+    </row>
+    <row r="1218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1218" s="33"/>
+    </row>
+    <row r="1219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1219" s="33"/>
+    </row>
+    <row r="1220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1220" s="33"/>
+    </row>
+    <row r="1221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1221" s="33"/>
+    </row>
+    <row r="1222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1222" s="33"/>
+    </row>
+    <row r="1223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1223" s="33"/>
+    </row>
+    <row r="1224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1224" s="33"/>
+    </row>
+    <row r="1225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1225" s="33"/>
+    </row>
+    <row r="1226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1226" s="33"/>
+    </row>
+    <row r="1227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1227" s="33"/>
+    </row>
+    <row r="1228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1228" s="33"/>
+    </row>
+    <row r="1229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1229" s="33"/>
+    </row>
+    <row r="1230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1230" s="33"/>
+    </row>
+    <row r="1231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1231" s="33"/>
+    </row>
+    <row r="1232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1232" s="33"/>
+    </row>
+    <row r="1233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1233" s="33"/>
+    </row>
+    <row r="1234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1234" s="33"/>
+    </row>
+    <row r="1235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1235" s="33"/>
+    </row>
+    <row r="1236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1236" s="33"/>
+    </row>
+    <row r="1237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1237" s="33"/>
+    </row>
+    <row r="1238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1238" s="33"/>
+    </row>
+    <row r="1239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1239" s="33"/>
+    </row>
+    <row r="1240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1240" s="33"/>
+    </row>
+    <row r="1241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1241" s="33"/>
+    </row>
+    <row r="1242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1242" s="33"/>
+    </row>
+    <row r="1243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1243" s="33"/>
+    </row>
+    <row r="1244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1244" s="33"/>
+    </row>
+    <row r="1245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1245" s="33"/>
+    </row>
+    <row r="1246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1246" s="33"/>
+    </row>
+    <row r="1247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1247" s="33"/>
+    </row>
+    <row r="1248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1248" s="33"/>
+    </row>
+    <row r="1249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1249" s="33"/>
+    </row>
+    <row r="1250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1250" s="33"/>
+    </row>
+    <row r="1251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1251" s="33"/>
+    </row>
+    <row r="1252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1252" s="33"/>
+    </row>
+    <row r="1253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1253" s="33"/>
+    </row>
+    <row r="1254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1254" s="33"/>
+    </row>
+    <row r="1255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1255" s="33"/>
+    </row>
+    <row r="1256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1256" s="33"/>
+    </row>
+    <row r="1257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1257" s="33"/>
+    </row>
+    <row r="1258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1258" s="33"/>
+    </row>
+    <row r="1259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1259" s="33"/>
+    </row>
+    <row r="1260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1260" s="33"/>
+    </row>
+    <row r="1261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1261" s="33"/>
+    </row>
+    <row r="1262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1262" s="33"/>
+    </row>
+    <row r="1263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1263" s="33"/>
+    </row>
+    <row r="1264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1264" s="33"/>
+    </row>
+    <row r="1265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1265" s="33"/>
+    </row>
+    <row r="1266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1266" s="33"/>
+    </row>
+    <row r="1267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1267" s="33"/>
+    </row>
+    <row r="1268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1268" s="33"/>
+    </row>
+    <row r="1269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1269" s="33"/>
+    </row>
+    <row r="1270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1270" s="33"/>
+    </row>
+    <row r="1271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1271" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5673,10 +8628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E1105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5772,7 +8727,7 @@
       <c r="B5" s="48"/>
       <c r="C5" s="42"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="45"/>
@@ -5782,7 +8737,7 @@
       <c r="B6" s="48"/>
       <c r="C6" s="42"/>
       <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="45"/>
@@ -5792,7 +8747,7 @@
       <c r="B7" s="48"/>
       <c r="C7" s="42"/>
       <c r="D7" s="45"/>
-      <c r="E7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="45"/>
@@ -5802,7 +8757,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="42"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="44"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
@@ -5812,7 +8767,7 @@
       <c r="B9" s="48"/>
       <c r="C9" s="42"/>
       <c r="D9" s="45"/>
-      <c r="E9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45"/>
@@ -5822,7 +8777,7 @@
       <c r="B10" s="48"/>
       <c r="C10" s="42"/>
       <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="45"/>
@@ -5832,7 +8787,7 @@
       <c r="B11" s="48"/>
       <c r="C11" s="42"/>
       <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="45"/>
@@ -5842,7 +8797,7 @@
       <c r="B12" s="48"/>
       <c r="C12" s="42"/>
       <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="45"/>
@@ -5852,7 +8807,7 @@
       <c r="B13" s="48"/>
       <c r="C13" s="42"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
       <c r="H13" s="45"/>
@@ -5862,7 +8817,7 @@
       <c r="B14" s="48"/>
       <c r="C14" s="42"/>
       <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
       <c r="H14" s="45"/>
@@ -5872,7 +8827,7 @@
       <c r="B15" s="48"/>
       <c r="C15" s="42"/>
       <c r="D15" s="45"/>
-      <c r="E15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
@@ -5882,7 +8837,7 @@
       <c r="B16" s="48"/>
       <c r="C16" s="42"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="45"/>
@@ -5892,7 +8847,7 @@
       <c r="B17" s="48"/>
       <c r="C17" s="42"/>
       <c r="D17" s="45"/>
-      <c r="E17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="45"/>
@@ -5902,7 +8857,7 @@
       <c r="B18" s="48"/>
       <c r="C18" s="42"/>
       <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="45"/>
@@ -5912,7 +8867,7 @@
       <c r="B19" s="48"/>
       <c r="C19" s="42"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="45"/>
@@ -5922,7 +8877,7 @@
       <c r="B20" s="48"/>
       <c r="C20" s="42"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="45"/>
@@ -5932,7 +8887,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="42"/>
       <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
       <c r="H21" s="45"/>
@@ -5942,7 +8897,7 @@
       <c r="B22" s="48"/>
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="45"/>
@@ -5952,7 +8907,7 @@
       <c r="B23" s="48"/>
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="45"/>
@@ -5962,7 +8917,7 @@
       <c r="B24" s="48"/>
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="45"/>
@@ -5972,7 +8927,7 @@
       <c r="B25" s="48"/>
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="45"/>
@@ -5982,7 +8937,7 @@
       <c r="B26" s="48"/>
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="45"/>
@@ -5992,7 +8947,7 @@
       <c r="B27" s="48"/>
       <c r="C27" s="42"/>
       <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
       <c r="H27" s="45"/>
@@ -6002,7 +8957,7 @@
       <c r="B28" s="48"/>
       <c r="C28" s="42"/>
       <c r="D28" s="45"/>
-      <c r="E28" s="44"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="45"/>
@@ -6012,7 +8967,7 @@
       <c r="B29" s="48"/>
       <c r="C29" s="42"/>
       <c r="D29" s="45"/>
-      <c r="E29" s="44"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
       <c r="H29" s="45"/>
@@ -6022,7 +8977,7 @@
       <c r="B30" s="48"/>
       <c r="C30" s="42"/>
       <c r="D30" s="45"/>
-      <c r="E30" s="44"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="45"/>
@@ -6032,7 +8987,7 @@
       <c r="B31" s="48"/>
       <c r="C31" s="42"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="44"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="45"/>
@@ -6042,7 +8997,7 @@
       <c r="B32" s="48"/>
       <c r="C32" s="42"/>
       <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="45"/>
@@ -6052,7 +9007,7 @@
       <c r="B33" s="48"/>
       <c r="C33" s="42"/>
       <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="45"/>
@@ -6062,7 +9017,7 @@
       <c r="B34" s="48"/>
       <c r="C34" s="42"/>
       <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="45"/>
@@ -6072,7 +9027,7 @@
       <c r="B35" s="48"/>
       <c r="C35" s="42"/>
       <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="45"/>
@@ -6082,7 +9037,7 @@
       <c r="B36" s="48"/>
       <c r="C36" s="42"/>
       <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="45"/>
@@ -6092,7 +9047,7 @@
       <c r="B37" s="48"/>
       <c r="C37" s="42"/>
       <c r="D37" s="45"/>
-      <c r="E37" s="44"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
@@ -6102,7 +9057,7 @@
       <c r="B38" s="48"/>
       <c r="C38" s="42"/>
       <c r="D38" s="45"/>
-      <c r="E38" s="44"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
       <c r="H38" s="45"/>
@@ -6112,7 +9067,7 @@
       <c r="B39" s="48"/>
       <c r="C39" s="42"/>
       <c r="D39" s="45"/>
-      <c r="E39" s="44"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
       <c r="H39" s="45"/>
@@ -6121,7 +9076,7 @@
       <c r="B40" s="49"/>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="46"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="46"/>
       <c r="G40" s="46"/>
       <c r="H40" s="40"/>
@@ -6130,7 +9085,7 @@
       <c r="B41" s="49"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="46"/>
+      <c r="E41" s="67"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
       <c r="H41" s="40"/>
@@ -6139,7 +9094,7 @@
       <c r="B42" s="49"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="46"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="46"/>
       <c r="G42" s="46"/>
       <c r="H42" s="40"/>
@@ -6148,7 +9103,7 @@
       <c r="B43" s="49"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
-      <c r="E43" s="46"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="46"/>
       <c r="G43" s="46"/>
       <c r="H43" s="40"/>
@@ -6157,7 +9112,7 @@
       <c r="B44" s="49"/>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="46"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
       <c r="H44" s="40"/>
@@ -6166,7 +9121,7 @@
       <c r="B45" s="49"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
-      <c r="E45" s="46"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="46"/>
       <c r="G45" s="46"/>
       <c r="H45" s="40"/>
@@ -6175,7 +9130,7 @@
       <c r="B46" s="49"/>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
-      <c r="E46" s="46"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
       <c r="H46" s="40"/>
@@ -6184,7 +9139,7 @@
       <c r="B47" s="49"/>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
-      <c r="E47" s="46"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="46"/>
       <c r="G47" s="46"/>
       <c r="H47" s="40"/>
@@ -6193,7 +9148,7 @@
       <c r="B48" s="49"/>
       <c r="C48" s="40"/>
       <c r="D48" s="40"/>
-      <c r="E48" s="46"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="46"/>
       <c r="G48" s="46"/>
       <c r="H48" s="40"/>
@@ -6202,7 +9157,7 @@
       <c r="B49" s="49"/>
       <c r="C49" s="40"/>
       <c r="D49" s="40"/>
-      <c r="E49" s="46"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
       <c r="H49" s="40"/>
@@ -6211,7 +9166,7 @@
       <c r="B50" s="49"/>
       <c r="C50" s="40"/>
       <c r="D50" s="40"/>
-      <c r="E50" s="46"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="46"/>
       <c r="G50" s="46"/>
       <c r="H50" s="40"/>
@@ -6220,7 +9175,7 @@
       <c r="B51" s="49"/>
       <c r="C51" s="40"/>
       <c r="D51" s="40"/>
-      <c r="E51" s="46"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="46"/>
       <c r="G51" s="46"/>
       <c r="H51" s="40"/>
@@ -6229,7 +9184,7 @@
       <c r="B52" s="49"/>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
-      <c r="E52" s="46"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="46"/>
       <c r="G52" s="46"/>
       <c r="H52" s="40"/>
@@ -6238,7 +9193,7 @@
       <c r="B53" s="49"/>
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
-      <c r="E53" s="46"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="46"/>
       <c r="G53" s="46"/>
       <c r="H53" s="40"/>
@@ -6247,7 +9202,7 @@
       <c r="B54" s="49"/>
       <c r="C54" s="40"/>
       <c r="D54" s="40"/>
-      <c r="E54" s="46"/>
+      <c r="E54" s="67"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
       <c r="H54" s="40"/>
@@ -6256,7 +9211,7 @@
       <c r="B55" s="49"/>
       <c r="C55" s="40"/>
       <c r="D55" s="40"/>
-      <c r="E55" s="46"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="46"/>
       <c r="G55" s="46"/>
       <c r="H55" s="40"/>
@@ -6265,7 +9220,7 @@
       <c r="B56" s="49"/>
       <c r="C56" s="40"/>
       <c r="D56" s="40"/>
-      <c r="E56" s="46"/>
+      <c r="E56" s="67"/>
       <c r="F56" s="46"/>
       <c r="G56" s="46"/>
       <c r="H56" s="40"/>
@@ -6274,7 +9229,7 @@
       <c r="B57" s="49"/>
       <c r="C57" s="40"/>
       <c r="D57" s="40"/>
-      <c r="E57" s="46"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="46"/>
       <c r="G57" s="46"/>
       <c r="H57" s="40"/>
@@ -6283,7 +9238,7 @@
       <c r="B58" s="49"/>
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
-      <c r="E58" s="46"/>
+      <c r="E58" s="67"/>
       <c r="F58" s="46"/>
       <c r="G58" s="46"/>
       <c r="H58" s="40"/>
@@ -6292,7 +9247,7 @@
       <c r="B59" s="49"/>
       <c r="C59" s="40"/>
       <c r="D59" s="40"/>
-      <c r="E59" s="46"/>
+      <c r="E59" s="67"/>
       <c r="F59" s="46"/>
       <c r="G59" s="46"/>
       <c r="H59" s="40"/>
@@ -6301,7 +9256,7 @@
       <c r="B60" s="49"/>
       <c r="C60" s="40"/>
       <c r="D60" s="40"/>
-      <c r="E60" s="46"/>
+      <c r="E60" s="67"/>
       <c r="F60" s="46"/>
       <c r="G60" s="46"/>
       <c r="H60" s="40"/>
@@ -6310,7 +9265,7 @@
       <c r="B61" s="49"/>
       <c r="C61" s="40"/>
       <c r="D61" s="40"/>
-      <c r="E61" s="46"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
       <c r="H61" s="40"/>
@@ -6319,7 +9274,7 @@
       <c r="B62" s="49"/>
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
-      <c r="E62" s="46"/>
+      <c r="E62" s="67"/>
       <c r="F62" s="46"/>
       <c r="G62" s="46"/>
       <c r="H62" s="40"/>
@@ -6328,7 +9283,7 @@
       <c r="B63" s="49"/>
       <c r="C63" s="40"/>
       <c r="D63" s="40"/>
-      <c r="E63" s="46"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="46"/>
       <c r="G63" s="46"/>
       <c r="H63" s="40"/>
@@ -6337,7 +9292,7 @@
       <c r="B64" s="49"/>
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
-      <c r="E64" s="46"/>
+      <c r="E64" s="67"/>
       <c r="F64" s="46"/>
       <c r="G64" s="46"/>
       <c r="H64" s="40"/>
@@ -6346,7 +9301,7 @@
       <c r="B65" s="49"/>
       <c r="C65" s="40"/>
       <c r="D65" s="40"/>
-      <c r="E65" s="46"/>
+      <c r="E65" s="67"/>
       <c r="F65" s="46"/>
       <c r="G65" s="46"/>
       <c r="H65" s="40"/>
@@ -6355,7 +9310,7 @@
       <c r="B66" s="49"/>
       <c r="C66" s="40"/>
       <c r="D66" s="40"/>
-      <c r="E66" s="46"/>
+      <c r="E66" s="67"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
       <c r="H66" s="40"/>
@@ -6364,7 +9319,7 @@
       <c r="B67" s="49"/>
       <c r="C67" s="40"/>
       <c r="D67" s="40"/>
-      <c r="E67" s="46"/>
+      <c r="E67" s="67"/>
       <c r="F67" s="46"/>
       <c r="G67" s="46"/>
       <c r="H67" s="40"/>
@@ -6373,7 +9328,7 @@
       <c r="B68" s="49"/>
       <c r="C68" s="40"/>
       <c r="D68" s="40"/>
-      <c r="E68" s="46"/>
+      <c r="E68" s="67"/>
       <c r="F68" s="46"/>
       <c r="G68" s="46"/>
       <c r="H68" s="40"/>
@@ -6382,7 +9337,7 @@
       <c r="B69" s="49"/>
       <c r="C69" s="40"/>
       <c r="D69" s="40"/>
-      <c r="E69" s="46"/>
+      <c r="E69" s="67"/>
       <c r="F69" s="46"/>
       <c r="G69" s="46"/>
       <c r="H69" s="40"/>
@@ -6391,7 +9346,7 @@
       <c r="B70" s="49"/>
       <c r="C70" s="40"/>
       <c r="D70" s="40"/>
-      <c r="E70" s="46"/>
+      <c r="E70" s="67"/>
       <c r="F70" s="46"/>
       <c r="G70" s="46"/>
       <c r="H70" s="40"/>
@@ -6400,7 +9355,7 @@
       <c r="B71" s="49"/>
       <c r="C71" s="40"/>
       <c r="D71" s="40"/>
-      <c r="E71" s="46"/>
+      <c r="E71" s="67"/>
       <c r="F71" s="46"/>
       <c r="G71" s="46"/>
       <c r="H71" s="40"/>
@@ -6409,7 +9364,7 @@
       <c r="B72" s="49"/>
       <c r="C72" s="40"/>
       <c r="D72" s="40"/>
-      <c r="E72" s="46"/>
+      <c r="E72" s="67"/>
       <c r="F72" s="46"/>
       <c r="G72" s="46"/>
       <c r="H72" s="40"/>
@@ -6418,7 +9373,7 @@
       <c r="B73" s="49"/>
       <c r="C73" s="40"/>
       <c r="D73" s="40"/>
-      <c r="E73" s="46"/>
+      <c r="E73" s="67"/>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
       <c r="H73" s="40"/>
@@ -6427,7 +9382,7 @@
       <c r="B74" s="49"/>
       <c r="C74" s="40"/>
       <c r="D74" s="40"/>
-      <c r="E74" s="46"/>
+      <c r="E74" s="67"/>
       <c r="F74" s="46"/>
       <c r="G74" s="46"/>
       <c r="H74" s="40"/>
@@ -6436,7 +9391,7 @@
       <c r="B75" s="49"/>
       <c r="C75" s="40"/>
       <c r="D75" s="40"/>
-      <c r="E75" s="46"/>
+      <c r="E75" s="67"/>
       <c r="F75" s="46"/>
       <c r="G75" s="46"/>
       <c r="H75" s="40"/>
@@ -6445,7 +9400,7 @@
       <c r="B76" s="49"/>
       <c r="C76" s="40"/>
       <c r="D76" s="40"/>
-      <c r="E76" s="46"/>
+      <c r="E76" s="67"/>
       <c r="F76" s="46"/>
       <c r="G76" s="46"/>
       <c r="H76" s="40"/>
@@ -6454,7 +9409,7 @@
       <c r="B77" s="49"/>
       <c r="C77" s="40"/>
       <c r="D77" s="40"/>
-      <c r="E77" s="46"/>
+      <c r="E77" s="67"/>
       <c r="F77" s="46"/>
       <c r="G77" s="46"/>
       <c r="H77" s="40"/>
@@ -6463,7 +9418,7 @@
       <c r="B78" s="49"/>
       <c r="C78" s="40"/>
       <c r="D78" s="40"/>
-      <c r="E78" s="46"/>
+      <c r="E78" s="67"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
       <c r="H78" s="40"/>
@@ -6472,7 +9427,7 @@
       <c r="B79" s="49"/>
       <c r="C79" s="40"/>
       <c r="D79" s="40"/>
-      <c r="E79" s="46"/>
+      <c r="E79" s="67"/>
       <c r="F79" s="46"/>
       <c r="G79" s="46"/>
       <c r="H79" s="40"/>
@@ -6481,7 +9436,7 @@
       <c r="B80" s="49"/>
       <c r="C80" s="40"/>
       <c r="D80" s="40"/>
-      <c r="E80" s="46"/>
+      <c r="E80" s="67"/>
       <c r="F80" s="46"/>
       <c r="G80" s="46"/>
       <c r="H80" s="40"/>
@@ -6490,7 +9445,7 @@
       <c r="B81" s="49"/>
       <c r="C81" s="40"/>
       <c r="D81" s="40"/>
-      <c r="E81" s="46"/>
+      <c r="E81" s="67"/>
       <c r="F81" s="46"/>
       <c r="G81" s="46"/>
       <c r="H81" s="40"/>
@@ -6499,7 +9454,7 @@
       <c r="B82" s="49"/>
       <c r="C82" s="40"/>
       <c r="D82" s="40"/>
-      <c r="E82" s="46"/>
+      <c r="E82" s="67"/>
       <c r="F82" s="46"/>
       <c r="G82" s="46"/>
       <c r="H82" s="40"/>
@@ -6508,7 +9463,7 @@
       <c r="B83" s="49"/>
       <c r="C83" s="40"/>
       <c r="D83" s="40"/>
-      <c r="E83" s="46"/>
+      <c r="E83" s="67"/>
       <c r="F83" s="46"/>
       <c r="G83" s="46"/>
       <c r="H83" s="40"/>
@@ -6517,7 +9472,7 @@
       <c r="B84" s="49"/>
       <c r="C84" s="40"/>
       <c r="D84" s="40"/>
-      <c r="E84" s="46"/>
+      <c r="E84" s="67"/>
       <c r="F84" s="46"/>
       <c r="G84" s="46"/>
       <c r="H84" s="40"/>
@@ -6526,7 +9481,7 @@
       <c r="B85" s="49"/>
       <c r="C85" s="40"/>
       <c r="D85" s="40"/>
-      <c r="E85" s="46"/>
+      <c r="E85" s="67"/>
       <c r="F85" s="46"/>
       <c r="G85" s="46"/>
       <c r="H85" s="40"/>
@@ -6535,7 +9490,7 @@
       <c r="B86" s="49"/>
       <c r="C86" s="40"/>
       <c r="D86" s="40"/>
-      <c r="E86" s="46"/>
+      <c r="E86" s="67"/>
       <c r="F86" s="46"/>
       <c r="G86" s="46"/>
       <c r="H86" s="40"/>
@@ -6544,7 +9499,7 @@
       <c r="B87" s="49"/>
       <c r="C87" s="40"/>
       <c r="D87" s="40"/>
-      <c r="E87" s="46"/>
+      <c r="E87" s="67"/>
       <c r="F87" s="46"/>
       <c r="G87" s="46"/>
       <c r="H87" s="40"/>
@@ -6553,7 +9508,7 @@
       <c r="B88" s="49"/>
       <c r="C88" s="40"/>
       <c r="D88" s="40"/>
-      <c r="E88" s="46"/>
+      <c r="E88" s="67"/>
       <c r="F88" s="46"/>
       <c r="G88" s="46"/>
       <c r="H88" s="40"/>
@@ -6562,7 +9517,7 @@
       <c r="B89" s="49"/>
       <c r="C89" s="40"/>
       <c r="D89" s="40"/>
-      <c r="E89" s="46"/>
+      <c r="E89" s="67"/>
       <c r="F89" s="46"/>
       <c r="G89" s="46"/>
       <c r="H89" s="40"/>
@@ -6571,7 +9526,7 @@
       <c r="B90" s="49"/>
       <c r="C90" s="40"/>
       <c r="D90" s="40"/>
-      <c r="E90" s="46"/>
+      <c r="E90" s="67"/>
       <c r="F90" s="46"/>
       <c r="G90" s="46"/>
       <c r="H90" s="40"/>
@@ -6580,7 +9535,7 @@
       <c r="B91" s="49"/>
       <c r="C91" s="40"/>
       <c r="D91" s="40"/>
-      <c r="E91" s="46"/>
+      <c r="E91" s="67"/>
       <c r="F91" s="46"/>
       <c r="G91" s="46"/>
       <c r="H91" s="40"/>
@@ -6589,7 +9544,7 @@
       <c r="B92" s="49"/>
       <c r="C92" s="40"/>
       <c r="D92" s="40"/>
-      <c r="E92" s="46"/>
+      <c r="E92" s="67"/>
       <c r="F92" s="46"/>
       <c r="G92" s="46"/>
       <c r="H92" s="40"/>
@@ -6598,7 +9553,7 @@
       <c r="B93" s="49"/>
       <c r="C93" s="40"/>
       <c r="D93" s="40"/>
-      <c r="E93" s="46"/>
+      <c r="E93" s="67"/>
       <c r="F93" s="46"/>
       <c r="G93" s="46"/>
       <c r="H93" s="40"/>
@@ -6607,7 +9562,7 @@
       <c r="B94" s="49"/>
       <c r="C94" s="40"/>
       <c r="D94" s="40"/>
-      <c r="E94" s="46"/>
+      <c r="E94" s="67"/>
       <c r="F94" s="46"/>
       <c r="G94" s="46"/>
       <c r="H94" s="40"/>
@@ -6616,337 +9571,3149 @@
       <c r="B95" s="49"/>
       <c r="C95" s="40"/>
       <c r="D95" s="40"/>
-      <c r="E95" s="46"/>
+      <c r="E95" s="67"/>
       <c r="F95" s="46"/>
       <c r="G95" s="46"/>
       <c r="H95" s="40"/>
     </row>
     <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="50"/>
-    </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E96" s="33"/>
+    </row>
+    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="50"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E97" s="33"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="50"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E98" s="33"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="50"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E99" s="33"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="50"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E100" s="33"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="50"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E101" s="33"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="50"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E102" s="33"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="50"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E103" s="33"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="50"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E104" s="33"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="50"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E105" s="33"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="50"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E106" s="33"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="50"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E107" s="33"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="50"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E108" s="33"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="50"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E109" s="33"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="50"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E110" s="33"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="50"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E111" s="33"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="50"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E112" s="33"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="50"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E113" s="33"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="50"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E114" s="33"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="50"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E115" s="33"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="50"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E116" s="33"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="50"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E117" s="33"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="50"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E118" s="33"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="50"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E119" s="33"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="50"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E120" s="33"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="50"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E121" s="33"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="50"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E122" s="33"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="50"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E123" s="33"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="50"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E124" s="33"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="50"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E125" s="33"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="50"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E126" s="33"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="50"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E127" s="33"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="50"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E128" s="33"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="50"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E129" s="33"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="50"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E130" s="33"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="50"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E131" s="33"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="50"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E132" s="33"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="50"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E133" s="33"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="50"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E134" s="33"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="50"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E135" s="33"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="50"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E136" s="33"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="50"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E137" s="33"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="50"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E138" s="33"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="50"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E139" s="33"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="50"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E140" s="33"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="50"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E141" s="33"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="50"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E142" s="33"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="50"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E143" s="33"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="50"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E144" s="33"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="50"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E145" s="33"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="50"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E146" s="33"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="50"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E147" s="33"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="50"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E148" s="33"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="50"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E149" s="33"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="50"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E150" s="33"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="50"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E151" s="33"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="50"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E152" s="33"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="50"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E153" s="33"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="50"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E154" s="33"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="50"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E155" s="33"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="50"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E156" s="33"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="50"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E157" s="33"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="50"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E158" s="33"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="50"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E159" s="33"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="50"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E160" s="33"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="50"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E161" s="33"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="50"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E162" s="33"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="50"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E163" s="33"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="50"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E164" s="33"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="50"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E165" s="33"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="50"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E166" s="33"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="50"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E167" s="33"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="50"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E168" s="33"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="50"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E169" s="33"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="50"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E170" s="33"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="50"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E171" s="33"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="50"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E172" s="33"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="50"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E173" s="33"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="50"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E174" s="33"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="50"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E175" s="33"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="50"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E176" s="33"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="50"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E177" s="33"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="50"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E178" s="33"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="50"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E179" s="33"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="50"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E180" s="33"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="50"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E181" s="33"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="50"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E182" s="33"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="50"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E183" s="33"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="50"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E184" s="33"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="50"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E185" s="33"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="50"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E186" s="33"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="50"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E187" s="33"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="50"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E188" s="33"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="50"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E189" s="33"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="50"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E190" s="33"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="50"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E191" s="33"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="50"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E192" s="33"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="50"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E193" s="33"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="50"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E194" s="33"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="50"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E195" s="33"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="50"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E196" s="33"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="50"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E197" s="33"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="50"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E198" s="33"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="50"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E199" s="33"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="50"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E200" s="33"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="50"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E201" s="33"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="50"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E202" s="33"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="50"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E203" s="33"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="50"/>
+      <c r="E204" s="33"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E205" s="33"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E206" s="33"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E207" s="33"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E208" s="33"/>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209" s="33"/>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210" s="33"/>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211" s="33"/>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212" s="33"/>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213" s="33"/>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214" s="33"/>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215" s="33"/>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216" s="33"/>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217" s="33"/>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E218" s="33"/>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E219" s="33"/>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E220" s="33"/>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E221" s="33"/>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E222" s="33"/>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E223" s="33"/>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E224" s="33"/>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225" s="33"/>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226" s="33"/>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227" s="33"/>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228" s="33"/>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229" s="33"/>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="33"/>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231" s="33"/>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232" s="33"/>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233" s="33"/>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234" s="33"/>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235" s="33"/>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236" s="33"/>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237" s="33"/>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238" s="33"/>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="33"/>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240" s="33"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" s="33"/>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" s="33"/>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" s="33"/>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="33"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" s="33"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" s="33"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="33"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="33"/>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249" s="33"/>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250" s="33"/>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251" s="33"/>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252" s="33"/>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="33"/>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254" s="33"/>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255" s="33"/>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="33"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" s="33"/>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" s="33"/>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259" s="33"/>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" s="33"/>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261" s="33"/>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" s="33"/>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263" s="33"/>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" s="33"/>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265" s="33"/>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" s="33"/>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267" s="33"/>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268" s="33"/>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269" s="33"/>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="33"/>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="33"/>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" s="33"/>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273" s="33"/>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" s="33"/>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E275" s="33"/>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276" s="33"/>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E277" s="33"/>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278" s="33"/>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E279" s="33"/>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E280" s="33"/>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E281" s="33"/>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E282" s="33"/>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E283" s="33"/>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E284" s="33"/>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E285" s="33"/>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E286" s="33"/>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E287" s="33"/>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288" s="33"/>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E289" s="33"/>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290" s="33"/>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E291" s="33"/>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292" s="33"/>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E293" s="33"/>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294" s="33"/>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E295" s="33"/>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296" s="33"/>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E297" s="33"/>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298" s="33"/>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E299" s="33"/>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300" s="33"/>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301" s="33"/>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302" s="33"/>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E303" s="33"/>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304" s="33"/>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305" s="33"/>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E306" s="33"/>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E307" s="33"/>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308" s="33"/>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E309" s="33"/>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310" s="33"/>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E311" s="33"/>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E312" s="33"/>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E313" s="33"/>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E314" s="33"/>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E315" s="33"/>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E316" s="33"/>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E317" s="33"/>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E318" s="33"/>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E319" s="33"/>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E320" s="33"/>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321" s="33"/>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E322" s="33"/>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323" s="33"/>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E324" s="33"/>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325" s="33"/>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E326" s="33"/>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327" s="33"/>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E328" s="33"/>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329" s="33"/>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E330" s="33"/>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331" s="33"/>
+    </row>
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E332" s="33"/>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E333" s="33"/>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E334" s="33"/>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E335" s="33"/>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E336" s="33"/>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E337" s="33"/>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E338" s="33"/>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E339" s="33"/>
+    </row>
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E340" s="33"/>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E341" s="33"/>
+    </row>
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E342" s="33"/>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E343" s="33"/>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E344" s="33"/>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E345" s="33"/>
+    </row>
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E346" s="33"/>
+    </row>
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E347" s="33"/>
+    </row>
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E348" s="33"/>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E349" s="33"/>
+    </row>
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E350" s="33"/>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E351" s="33"/>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E352" s="33"/>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353" s="33"/>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E354" s="33"/>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E355" s="33"/>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E356" s="33"/>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E357" s="33"/>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E358" s="33"/>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E359" s="33"/>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E360" s="33"/>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E361" s="33"/>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E362" s="33"/>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E363" s="33"/>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E364" s="33"/>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E365" s="33"/>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E366" s="33"/>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E367" s="33"/>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E368" s="33"/>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E369" s="33"/>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E370" s="33"/>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E371" s="33"/>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E372" s="33"/>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E373" s="33"/>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E374" s="33"/>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E375" s="33"/>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E376" s="33"/>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E377" s="33"/>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E378" s="33"/>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E379" s="33"/>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E380" s="33"/>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E381" s="33"/>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E382" s="33"/>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E383" s="33"/>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E384" s="33"/>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E385" s="33"/>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E386" s="33"/>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E387" s="33"/>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E388" s="33"/>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E389" s="33"/>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E390" s="33"/>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E391" s="33"/>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E392" s="33"/>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E393" s="33"/>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E394" s="33"/>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E395" s="33"/>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E396" s="33"/>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E397" s="33"/>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E398" s="33"/>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E399" s="33"/>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E400" s="33"/>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E401" s="33"/>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E402" s="33"/>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E403" s="33"/>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E404" s="33"/>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E405" s="33"/>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E406" s="33"/>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E407" s="33"/>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E408" s="33"/>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E409" s="33"/>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E410" s="33"/>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E411" s="33"/>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E412" s="33"/>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E413" s="33"/>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E414" s="33"/>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E415" s="33"/>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E416" s="33"/>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417" s="33"/>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E418" s="33"/>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419" s="33"/>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E420" s="33"/>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E421" s="33"/>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E422" s="33"/>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E423" s="33"/>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E424" s="33"/>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E425" s="33"/>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E426" s="33"/>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E427" s="33"/>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E428" s="33"/>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E429" s="33"/>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E430" s="33"/>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E431" s="33"/>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E432" s="33"/>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E433" s="33"/>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E434" s="33"/>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435" s="33"/>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E436" s="33"/>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E437" s="33"/>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E438" s="33"/>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E439" s="33"/>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E440" s="33"/>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E441" s="33"/>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E442" s="33"/>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E443" s="33"/>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E444" s="33"/>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E445" s="33"/>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E446" s="33"/>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E447" s="33"/>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E448" s="33"/>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E449" s="33"/>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E450" s="33"/>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E451" s="33"/>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E452" s="33"/>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E453" s="33"/>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E454" s="33"/>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E455" s="33"/>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E456" s="33"/>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E457" s="33"/>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E458" s="33"/>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E459" s="33"/>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E460" s="33"/>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E461" s="33"/>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E462" s="33"/>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E463" s="33"/>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E464" s="33"/>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E465" s="33"/>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E466" s="33"/>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E467" s="33"/>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E468" s="33"/>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E469" s="33"/>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E470" s="33"/>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E471" s="33"/>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E472" s="33"/>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E473" s="33"/>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E474" s="33"/>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E475" s="33"/>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E476" s="33"/>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E477" s="33"/>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E478" s="33"/>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E479" s="33"/>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E480" s="33"/>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E481" s="33"/>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E482" s="33"/>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E483" s="33"/>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E484" s="33"/>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E485" s="33"/>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E486" s="33"/>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E487" s="33"/>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E488" s="33"/>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E489" s="33"/>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E490" s="33"/>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E491" s="33"/>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E492" s="33"/>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E493" s="33"/>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E494" s="33"/>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E495" s="33"/>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E496" s="33"/>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E497" s="33"/>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E498" s="33"/>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E499" s="33"/>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E500" s="33"/>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E501" s="33"/>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E502" s="33"/>
+    </row>
+    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E503" s="33"/>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E504" s="33"/>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E505" s="33"/>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E506" s="33"/>
+    </row>
+    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E507" s="33"/>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E508" s="33"/>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E509" s="33"/>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E510" s="33"/>
+    </row>
+    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E511" s="33"/>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E512" s="33"/>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E513" s="33"/>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E514" s="33"/>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E515" s="33"/>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E516" s="33"/>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E517" s="33"/>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E518" s="33"/>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E519" s="33"/>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E520" s="33"/>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E521" s="33"/>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E522" s="33"/>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E523" s="33"/>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E524" s="33"/>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E525" s="33"/>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E526" s="33"/>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E527" s="33"/>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E528" s="33"/>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E529" s="33"/>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E530" s="33"/>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E531" s="33"/>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E532" s="33"/>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E533" s="33"/>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E534" s="33"/>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E535" s="33"/>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E536" s="33"/>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E537" s="33"/>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E538" s="33"/>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E539" s="33"/>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E540" s="33"/>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E541" s="33"/>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E542" s="33"/>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E543" s="33"/>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E544" s="33"/>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E545" s="33"/>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E546" s="33"/>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E547" s="33"/>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E548" s="33"/>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E549" s="33"/>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E550" s="33"/>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E551" s="33"/>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E552" s="33"/>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E553" s="33"/>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E554" s="33"/>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E555" s="33"/>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E556" s="33"/>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E557" s="33"/>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E558" s="33"/>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E559" s="33"/>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E560" s="33"/>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E561" s="33"/>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E562" s="33"/>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E563" s="33"/>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E564" s="33"/>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E565" s="33"/>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E566" s="33"/>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E567" s="33"/>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E568" s="33"/>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E569" s="33"/>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E570" s="33"/>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E571" s="33"/>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E572" s="33"/>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E573" s="33"/>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E574" s="33"/>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E575" s="33"/>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E576" s="33"/>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E577" s="33"/>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E578" s="33"/>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E579" s="33"/>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E580" s="33"/>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E581" s="33"/>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E582" s="33"/>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E583" s="33"/>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E584" s="33"/>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E585" s="33"/>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E586" s="33"/>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E587" s="33"/>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E588" s="33"/>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E589" s="33"/>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E590" s="33"/>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E591" s="33"/>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E592" s="33"/>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E593" s="33"/>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E594" s="33"/>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E595" s="33"/>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E596" s="33"/>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E597" s="33"/>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E598" s="33"/>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E599" s="33"/>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E600" s="33"/>
+    </row>
+    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E601" s="33"/>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E602" s="33"/>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E603" s="33"/>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E604" s="33"/>
+    </row>
+    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E605" s="33"/>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E606" s="33"/>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E607" s="33"/>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E608" s="33"/>
+    </row>
+    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E609" s="33"/>
+    </row>
+    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E610" s="33"/>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E611" s="33"/>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E612" s="33"/>
+    </row>
+    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E613" s="33"/>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E614" s="33"/>
+    </row>
+    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E615" s="33"/>
+    </row>
+    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E616" s="33"/>
+    </row>
+    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E617" s="33"/>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E618" s="33"/>
+    </row>
+    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E619" s="33"/>
+    </row>
+    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E620" s="33"/>
+    </row>
+    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E621" s="33"/>
+    </row>
+    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E622" s="33"/>
+    </row>
+    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E623" s="33"/>
+    </row>
+    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E624" s="33"/>
+    </row>
+    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E625" s="33"/>
+    </row>
+    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E626" s="33"/>
+    </row>
+    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E627" s="33"/>
+    </row>
+    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E628" s="33"/>
+    </row>
+    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E629" s="33"/>
+    </row>
+    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E630" s="33"/>
+    </row>
+    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E631" s="33"/>
+    </row>
+    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E632" s="33"/>
+    </row>
+    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E633" s="33"/>
+    </row>
+    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E634" s="33"/>
+    </row>
+    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E635" s="33"/>
+    </row>
+    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E636" s="33"/>
+    </row>
+    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E637" s="33"/>
+    </row>
+    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E638" s="33"/>
+    </row>
+    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E639" s="33"/>
+    </row>
+    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E640" s="33"/>
+    </row>
+    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E641" s="33"/>
+    </row>
+    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E642" s="33"/>
+    </row>
+    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E643" s="33"/>
+    </row>
+    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E644" s="33"/>
+    </row>
+    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E645" s="33"/>
+    </row>
+    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E646" s="33"/>
+    </row>
+    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E647" s="33"/>
+    </row>
+    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E648" s="33"/>
+    </row>
+    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E649" s="33"/>
+    </row>
+    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E650" s="33"/>
+    </row>
+    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E651" s="33"/>
+    </row>
+    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E652" s="33"/>
+    </row>
+    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E653" s="33"/>
+    </row>
+    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E654" s="33"/>
+    </row>
+    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E655" s="33"/>
+    </row>
+    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E656" s="33"/>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E657" s="33"/>
+    </row>
+    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E658" s="33"/>
+    </row>
+    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E659" s="33"/>
+    </row>
+    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E660" s="33"/>
+    </row>
+    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E661" s="33"/>
+    </row>
+    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E662" s="33"/>
+    </row>
+    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E663" s="33"/>
+    </row>
+    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E664" s="33"/>
+    </row>
+    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E665" s="33"/>
+    </row>
+    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E666" s="33"/>
+    </row>
+    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E667" s="33"/>
+    </row>
+    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E668" s="33"/>
+    </row>
+    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E669" s="33"/>
+    </row>
+    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E670" s="33"/>
+    </row>
+    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E671" s="33"/>
+    </row>
+    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E672" s="33"/>
+    </row>
+    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E673" s="33"/>
+    </row>
+    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E674" s="33"/>
+    </row>
+    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E675" s="33"/>
+    </row>
+    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E676" s="33"/>
+    </row>
+    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E677" s="33"/>
+    </row>
+    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E678" s="33"/>
+    </row>
+    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E679" s="33"/>
+    </row>
+    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E680" s="33"/>
+    </row>
+    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E681" s="33"/>
+    </row>
+    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E682" s="33"/>
+    </row>
+    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E683" s="33"/>
+    </row>
+    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E684" s="33"/>
+    </row>
+    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E685" s="33"/>
+    </row>
+    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E686" s="33"/>
+    </row>
+    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E687" s="33"/>
+    </row>
+    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E688" s="33"/>
+    </row>
+    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E689" s="33"/>
+    </row>
+    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E690" s="33"/>
+    </row>
+    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E691" s="33"/>
+    </row>
+    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E692" s="33"/>
+    </row>
+    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E693" s="33"/>
+    </row>
+    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E694" s="33"/>
+    </row>
+    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E695" s="33"/>
+    </row>
+    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E696" s="33"/>
+    </row>
+    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E697" s="33"/>
+    </row>
+    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E698" s="33"/>
+    </row>
+    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E699" s="33"/>
+    </row>
+    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E700" s="33"/>
+    </row>
+    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E701" s="33"/>
+    </row>
+    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E702" s="33"/>
+    </row>
+    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E703" s="33"/>
+    </row>
+    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E704" s="33"/>
+    </row>
+    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E705" s="33"/>
+    </row>
+    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E706" s="33"/>
+    </row>
+    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E707" s="33"/>
+    </row>
+    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E708" s="33"/>
+    </row>
+    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E709" s="33"/>
+    </row>
+    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E710" s="33"/>
+    </row>
+    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E711" s="33"/>
+    </row>
+    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E712" s="33"/>
+    </row>
+    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E713" s="33"/>
+    </row>
+    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E714" s="33"/>
+    </row>
+    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E715" s="33"/>
+    </row>
+    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E716" s="33"/>
+    </row>
+    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E717" s="33"/>
+    </row>
+    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E718" s="33"/>
+    </row>
+    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E719" s="33"/>
+    </row>
+    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E720" s="33"/>
+    </row>
+    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E721" s="33"/>
+    </row>
+    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E722" s="33"/>
+    </row>
+    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E723" s="33"/>
+    </row>
+    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E724" s="33"/>
+    </row>
+    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E725" s="33"/>
+    </row>
+    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E726" s="33"/>
+    </row>
+    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E727" s="33"/>
+    </row>
+    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E728" s="33"/>
+    </row>
+    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E729" s="33"/>
+    </row>
+    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E730" s="33"/>
+    </row>
+    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E731" s="33"/>
+    </row>
+    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E732" s="33"/>
+    </row>
+    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E733" s="33"/>
+    </row>
+    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E734" s="33"/>
+    </row>
+    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E735" s="33"/>
+    </row>
+    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E736" s="33"/>
+    </row>
+    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E737" s="33"/>
+    </row>
+    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E738" s="33"/>
+    </row>
+    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E739" s="33"/>
+    </row>
+    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E740" s="33"/>
+    </row>
+    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E741" s="33"/>
+    </row>
+    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E742" s="33"/>
+    </row>
+    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E743" s="33"/>
+    </row>
+    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E744" s="33"/>
+    </row>
+    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E745" s="33"/>
+    </row>
+    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E746" s="33"/>
+    </row>
+    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E747" s="33"/>
+    </row>
+    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E748" s="33"/>
+    </row>
+    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E749" s="33"/>
+    </row>
+    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E750" s="33"/>
+    </row>
+    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E751" s="33"/>
+    </row>
+    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E752" s="33"/>
+    </row>
+    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E753" s="33"/>
+    </row>
+    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E754" s="33"/>
+    </row>
+    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E755" s="33"/>
+    </row>
+    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E756" s="33"/>
+    </row>
+    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E757" s="33"/>
+    </row>
+    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E758" s="33"/>
+    </row>
+    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E759" s="33"/>
+    </row>
+    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E760" s="33"/>
+    </row>
+    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E761" s="33"/>
+    </row>
+    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E762" s="33"/>
+    </row>
+    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E763" s="33"/>
+    </row>
+    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E764" s="33"/>
+    </row>
+    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E765" s="33"/>
+    </row>
+    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E766" s="33"/>
+    </row>
+    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E767" s="33"/>
+    </row>
+    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E768" s="33"/>
+    </row>
+    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E769" s="33"/>
+    </row>
+    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E770" s="33"/>
+    </row>
+    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E771" s="33"/>
+    </row>
+    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E772" s="33"/>
+    </row>
+    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E773" s="33"/>
+    </row>
+    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E774" s="33"/>
+    </row>
+    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E775" s="33"/>
+    </row>
+    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E776" s="33"/>
+    </row>
+    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E777" s="33"/>
+    </row>
+    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E778" s="33"/>
+    </row>
+    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E779" s="33"/>
+    </row>
+    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E780" s="33"/>
+    </row>
+    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E781" s="33"/>
+    </row>
+    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E782" s="33"/>
+    </row>
+    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E783" s="33"/>
+    </row>
+    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E784" s="33"/>
+    </row>
+    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E785" s="33"/>
+    </row>
+    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E786" s="33"/>
+    </row>
+    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E787" s="33"/>
+    </row>
+    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E788" s="33"/>
+    </row>
+    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E789" s="33"/>
+    </row>
+    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E790" s="33"/>
+    </row>
+    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E791" s="33"/>
+    </row>
+    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E792" s="33"/>
+    </row>
+    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E793" s="33"/>
+    </row>
+    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E794" s="33"/>
+    </row>
+    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E795" s="33"/>
+    </row>
+    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E796" s="33"/>
+    </row>
+    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E797" s="33"/>
+    </row>
+    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E798" s="33"/>
+    </row>
+    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E799" s="33"/>
+    </row>
+    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E800" s="33"/>
+    </row>
+    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E801" s="33"/>
+    </row>
+    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E802" s="33"/>
+    </row>
+    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E803" s="33"/>
+    </row>
+    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E804" s="33"/>
+    </row>
+    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E805" s="33"/>
+    </row>
+    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E806" s="33"/>
+    </row>
+    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E807" s="33"/>
+    </row>
+    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E808" s="33"/>
+    </row>
+    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E809" s="33"/>
+    </row>
+    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E810" s="33"/>
+    </row>
+    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E811" s="33"/>
+    </row>
+    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E812" s="33"/>
+    </row>
+    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E813" s="33"/>
+    </row>
+    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E814" s="33"/>
+    </row>
+    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E815" s="33"/>
+    </row>
+    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E816" s="33"/>
+    </row>
+    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E817" s="33"/>
+    </row>
+    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E818" s="33"/>
+    </row>
+    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E819" s="33"/>
+    </row>
+    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E820" s="33"/>
+    </row>
+    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E821" s="33"/>
+    </row>
+    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E822" s="33"/>
+    </row>
+    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E823" s="33"/>
+    </row>
+    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E824" s="33"/>
+    </row>
+    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E825" s="33"/>
+    </row>
+    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E826" s="33"/>
+    </row>
+    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E827" s="33"/>
+    </row>
+    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E828" s="33"/>
+    </row>
+    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E829" s="33"/>
+    </row>
+    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E830" s="33"/>
+    </row>
+    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E831" s="33"/>
+    </row>
+    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E832" s="33"/>
+    </row>
+    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E833" s="33"/>
+    </row>
+    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E834" s="33"/>
+    </row>
+    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E835" s="33"/>
+    </row>
+    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E836" s="33"/>
+    </row>
+    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E837" s="33"/>
+    </row>
+    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E838" s="33"/>
+    </row>
+    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E839" s="33"/>
+    </row>
+    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E840" s="33"/>
+    </row>
+    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E841" s="33"/>
+    </row>
+    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E842" s="33"/>
+    </row>
+    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E843" s="33"/>
+    </row>
+    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E844" s="33"/>
+    </row>
+    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E845" s="33"/>
+    </row>
+    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E846" s="33"/>
+    </row>
+    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E847" s="33"/>
+    </row>
+    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E848" s="33"/>
+    </row>
+    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E849" s="33"/>
+    </row>
+    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E850" s="33"/>
+    </row>
+    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E851" s="33"/>
+    </row>
+    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E852" s="33"/>
+    </row>
+    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E853" s="33"/>
+    </row>
+    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E854" s="33"/>
+    </row>
+    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E855" s="33"/>
+    </row>
+    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E856" s="33"/>
+    </row>
+    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E857" s="33"/>
+    </row>
+    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E858" s="33"/>
+    </row>
+    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E859" s="33"/>
+    </row>
+    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E860" s="33"/>
+    </row>
+    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E861" s="33"/>
+    </row>
+    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E862" s="33"/>
+    </row>
+    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E863" s="33"/>
+    </row>
+    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E864" s="33"/>
+    </row>
+    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E865" s="33"/>
+    </row>
+    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E866" s="33"/>
+    </row>
+    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E867" s="33"/>
+    </row>
+    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E868" s="33"/>
+    </row>
+    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E869" s="33"/>
+    </row>
+    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E870" s="33"/>
+    </row>
+    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E871" s="33"/>
+    </row>
+    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E872" s="33"/>
+    </row>
+    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E873" s="33"/>
+    </row>
+    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E874" s="33"/>
+    </row>
+    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E875" s="33"/>
+    </row>
+    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E876" s="33"/>
+    </row>
+    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E877" s="33"/>
+    </row>
+    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E878" s="33"/>
+    </row>
+    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E879" s="33"/>
+    </row>
+    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E880" s="33"/>
+    </row>
+    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E881" s="33"/>
+    </row>
+    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E882" s="33"/>
+    </row>
+    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E883" s="33"/>
+    </row>
+    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E884" s="33"/>
+    </row>
+    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E885" s="33"/>
+    </row>
+    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E886" s="33"/>
+    </row>
+    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E887" s="33"/>
+    </row>
+    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E888" s="33"/>
+    </row>
+    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E889" s="33"/>
+    </row>
+    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E890" s="33"/>
+    </row>
+    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E891" s="33"/>
+    </row>
+    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E892" s="33"/>
+    </row>
+    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E893" s="33"/>
+    </row>
+    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E894" s="33"/>
+    </row>
+    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E895" s="33"/>
+    </row>
+    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E896" s="33"/>
+    </row>
+    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E897" s="33"/>
+    </row>
+    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E898" s="33"/>
+    </row>
+    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E899" s="33"/>
+    </row>
+    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E900" s="33"/>
+    </row>
+    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E901" s="33"/>
+    </row>
+    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E902" s="33"/>
+    </row>
+    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E903" s="33"/>
+    </row>
+    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E904" s="33"/>
+    </row>
+    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E905" s="33"/>
+    </row>
+    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E906" s="33"/>
+    </row>
+    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E907" s="33"/>
+    </row>
+    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E908" s="33"/>
+    </row>
+    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E909" s="33"/>
+    </row>
+    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E910" s="33"/>
+    </row>
+    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E911" s="33"/>
+    </row>
+    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E912" s="33"/>
+    </row>
+    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E913" s="33"/>
+    </row>
+    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E914" s="33"/>
+    </row>
+    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E915" s="33"/>
+    </row>
+    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E916" s="33"/>
+    </row>
+    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E917" s="33"/>
+    </row>
+    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E918" s="33"/>
+    </row>
+    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E919" s="33"/>
+    </row>
+    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E920" s="33"/>
+    </row>
+    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E921" s="33"/>
+    </row>
+    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E922" s="33"/>
+    </row>
+    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E923" s="33"/>
+    </row>
+    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E924" s="33"/>
+    </row>
+    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E925" s="33"/>
+    </row>
+    <row r="926" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E926" s="33"/>
+    </row>
+    <row r="927" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E927" s="33"/>
+    </row>
+    <row r="928" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E928" s="33"/>
+    </row>
+    <row r="929" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E929" s="33"/>
+    </row>
+    <row r="930" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E930" s="33"/>
+    </row>
+    <row r="931" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E931" s="33"/>
+    </row>
+    <row r="932" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E932" s="33"/>
+    </row>
+    <row r="933" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E933" s="33"/>
+    </row>
+    <row r="934" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E934" s="33"/>
+    </row>
+    <row r="935" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E935" s="33"/>
+    </row>
+    <row r="936" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E936" s="33"/>
+    </row>
+    <row r="937" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E937" s="33"/>
+    </row>
+    <row r="938" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E938" s="33"/>
+    </row>
+    <row r="939" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E939" s="33"/>
+    </row>
+    <row r="940" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E940" s="33"/>
+    </row>
+    <row r="941" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E941" s="33"/>
+    </row>
+    <row r="942" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E942" s="33"/>
+    </row>
+    <row r="943" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E943" s="33"/>
+    </row>
+    <row r="944" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E944" s="33"/>
+    </row>
+    <row r="945" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E945" s="33"/>
+    </row>
+    <row r="946" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E946" s="33"/>
+    </row>
+    <row r="947" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E947" s="33"/>
+    </row>
+    <row r="948" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E948" s="33"/>
+    </row>
+    <row r="949" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E949" s="33"/>
+    </row>
+    <row r="950" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E950" s="33"/>
+    </row>
+    <row r="951" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E951" s="33"/>
+    </row>
+    <row r="952" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E952" s="33"/>
+    </row>
+    <row r="953" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E953" s="33"/>
+    </row>
+    <row r="954" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E954" s="33"/>
+    </row>
+    <row r="955" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E955" s="33"/>
+    </row>
+    <row r="956" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E956" s="33"/>
+    </row>
+    <row r="957" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E957" s="33"/>
+    </row>
+    <row r="958" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E958" s="33"/>
+    </row>
+    <row r="959" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E959" s="33"/>
+    </row>
+    <row r="960" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E960" s="33"/>
+    </row>
+    <row r="961" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E961" s="33"/>
+    </row>
+    <row r="962" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E962" s="33"/>
+    </row>
+    <row r="963" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E963" s="33"/>
+    </row>
+    <row r="964" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E964" s="33"/>
+    </row>
+    <row r="965" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E965" s="33"/>
+    </row>
+    <row r="966" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E966" s="33"/>
+    </row>
+    <row r="967" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E967" s="33"/>
+    </row>
+    <row r="968" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E968" s="33"/>
+    </row>
+    <row r="969" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E969" s="33"/>
+    </row>
+    <row r="970" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E970" s="33"/>
+    </row>
+    <row r="971" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E971" s="33"/>
+    </row>
+    <row r="972" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E972" s="33"/>
+    </row>
+    <row r="973" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E973" s="33"/>
+    </row>
+    <row r="974" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E974" s="33"/>
+    </row>
+    <row r="975" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E975" s="33"/>
+    </row>
+    <row r="976" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E976" s="33"/>
+    </row>
+    <row r="977" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E977" s="33"/>
+    </row>
+    <row r="978" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E978" s="33"/>
+    </row>
+    <row r="979" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E979" s="33"/>
+    </row>
+    <row r="980" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E980" s="33"/>
+    </row>
+    <row r="981" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E981" s="33"/>
+    </row>
+    <row r="982" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E982" s="33"/>
+    </row>
+    <row r="983" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E983" s="33"/>
+    </row>
+    <row r="984" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E984" s="33"/>
+    </row>
+    <row r="985" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E985" s="33"/>
+    </row>
+    <row r="986" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E986" s="33"/>
+    </row>
+    <row r="987" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E987" s="33"/>
+    </row>
+    <row r="988" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E988" s="33"/>
+    </row>
+    <row r="989" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E989" s="33"/>
+    </row>
+    <row r="990" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E990" s="33"/>
+    </row>
+    <row r="991" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E991" s="33"/>
+    </row>
+    <row r="992" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E992" s="33"/>
+    </row>
+    <row r="993" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E993" s="33"/>
+    </row>
+    <row r="994" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E994" s="33"/>
+    </row>
+    <row r="995" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E995" s="33"/>
+    </row>
+    <row r="996" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E996" s="33"/>
+    </row>
+    <row r="997" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E997" s="33"/>
+    </row>
+    <row r="998" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E998" s="33"/>
+    </row>
+    <row r="999" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E999" s="33"/>
+    </row>
+    <row r="1000" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1000" s="33"/>
+    </row>
+    <row r="1001" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1001" s="33"/>
+    </row>
+    <row r="1002" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1002" s="33"/>
+    </row>
+    <row r="1003" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1003" s="33"/>
+    </row>
+    <row r="1004" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1004" s="33"/>
+    </row>
+    <row r="1005" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1005" s="33"/>
+    </row>
+    <row r="1006" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1006" s="33"/>
+    </row>
+    <row r="1007" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1007" s="33"/>
+    </row>
+    <row r="1008" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1008" s="33"/>
+    </row>
+    <row r="1009" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1009" s="33"/>
+    </row>
+    <row r="1010" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1010" s="33"/>
+    </row>
+    <row r="1011" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1011" s="33"/>
+    </row>
+    <row r="1012" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1012" s="33"/>
+    </row>
+    <row r="1013" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1013" s="33"/>
+    </row>
+    <row r="1014" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1014" s="33"/>
+    </row>
+    <row r="1015" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1015" s="33"/>
+    </row>
+    <row r="1016" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1016" s="33"/>
+    </row>
+    <row r="1017" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1017" s="33"/>
+    </row>
+    <row r="1018" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1018" s="33"/>
+    </row>
+    <row r="1019" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1019" s="33"/>
+    </row>
+    <row r="1020" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1020" s="33"/>
+    </row>
+    <row r="1021" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1021" s="33"/>
+    </row>
+    <row r="1022" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1022" s="33"/>
+    </row>
+    <row r="1023" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1023" s="33"/>
+    </row>
+    <row r="1024" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1024" s="33"/>
+    </row>
+    <row r="1025" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1025" s="33"/>
+    </row>
+    <row r="1026" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1026" s="33"/>
+    </row>
+    <row r="1027" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1027" s="33"/>
+    </row>
+    <row r="1028" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1028" s="33"/>
+    </row>
+    <row r="1029" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1029" s="33"/>
+    </row>
+    <row r="1030" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1030" s="33"/>
+    </row>
+    <row r="1031" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1031" s="33"/>
+    </row>
+    <row r="1032" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1032" s="33"/>
+    </row>
+    <row r="1033" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1033" s="33"/>
+    </row>
+    <row r="1034" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1034" s="33"/>
+    </row>
+    <row r="1035" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1035" s="33"/>
+    </row>
+    <row r="1036" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1036" s="33"/>
+    </row>
+    <row r="1037" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1037" s="33"/>
+    </row>
+    <row r="1038" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1038" s="33"/>
+    </row>
+    <row r="1039" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1039" s="33"/>
+    </row>
+    <row r="1040" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1040" s="33"/>
+    </row>
+    <row r="1041" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1041" s="33"/>
+    </row>
+    <row r="1042" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1042" s="33"/>
+    </row>
+    <row r="1043" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1043" s="33"/>
+    </row>
+    <row r="1044" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1044" s="33"/>
+    </row>
+    <row r="1045" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1045" s="33"/>
+    </row>
+    <row r="1046" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1046" s="33"/>
+    </row>
+    <row r="1047" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1047" s="33"/>
+    </row>
+    <row r="1048" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048" s="33"/>
+    </row>
+    <row r="1049" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1049" s="33"/>
+    </row>
+    <row r="1050" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1050" s="33"/>
+    </row>
+    <row r="1051" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1051" s="33"/>
+    </row>
+    <row r="1052" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1052" s="33"/>
+    </row>
+    <row r="1053" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1053" s="33"/>
+    </row>
+    <row r="1054" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1054" s="33"/>
+    </row>
+    <row r="1055" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1055" s="33"/>
+    </row>
+    <row r="1056" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1056" s="33"/>
+    </row>
+    <row r="1057" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1057" s="33"/>
+    </row>
+    <row r="1058" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1058" s="33"/>
+    </row>
+    <row r="1059" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1059" s="33"/>
+    </row>
+    <row r="1060" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1060" s="33"/>
+    </row>
+    <row r="1061" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1061" s="33"/>
+    </row>
+    <row r="1062" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1062" s="33"/>
+    </row>
+    <row r="1063" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1063" s="33"/>
+    </row>
+    <row r="1064" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1064" s="33"/>
+    </row>
+    <row r="1065" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1065" s="33"/>
+    </row>
+    <row r="1066" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1066" s="33"/>
+    </row>
+    <row r="1067" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1067" s="33"/>
+    </row>
+    <row r="1068" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1068" s="33"/>
+    </row>
+    <row r="1069" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1069" s="33"/>
+    </row>
+    <row r="1070" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1070" s="33"/>
+    </row>
+    <row r="1071" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1071" s="33"/>
+    </row>
+    <row r="1072" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1072" s="33"/>
+    </row>
+    <row r="1073" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1073" s="33"/>
+    </row>
+    <row r="1074" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1074" s="33"/>
+    </row>
+    <row r="1075" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1075" s="33"/>
+    </row>
+    <row r="1076" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1076" s="33"/>
+    </row>
+    <row r="1077" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1077" s="33"/>
+    </row>
+    <row r="1078" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1078" s="33"/>
+    </row>
+    <row r="1079" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1079" s="33"/>
+    </row>
+    <row r="1080" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1080" s="33"/>
+    </row>
+    <row r="1081" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1081" s="33"/>
+    </row>
+    <row r="1082" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1082" s="33"/>
+    </row>
+    <row r="1083" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1083" s="33"/>
+    </row>
+    <row r="1084" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1084" s="33"/>
+    </row>
+    <row r="1085" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1085" s="33"/>
+    </row>
+    <row r="1086" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1086" s="33"/>
+    </row>
+    <row r="1087" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1087" s="33"/>
+    </row>
+    <row r="1088" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1088" s="33"/>
+    </row>
+    <row r="1089" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1089" s="33"/>
+    </row>
+    <row r="1090" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1090" s="33"/>
+    </row>
+    <row r="1091" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1091" s="33"/>
+    </row>
+    <row r="1092" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1092" s="33"/>
+    </row>
+    <row r="1093" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1093" s="33"/>
+    </row>
+    <row r="1094" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1094" s="33"/>
+    </row>
+    <row r="1095" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1095" s="33"/>
+    </row>
+    <row r="1096" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1096" s="33"/>
+    </row>
+    <row r="1097" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1097" s="33"/>
+    </row>
+    <row r="1098" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1098" s="33"/>
+    </row>
+    <row r="1099" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1099" s="33"/>
+    </row>
+    <row r="1100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1100" s="33"/>
+    </row>
+    <row r="1101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1101" s="33"/>
+    </row>
+    <row r="1102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1102" s="33"/>
+    </row>
+    <row r="1103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1103" s="33"/>
+    </row>
+    <row r="1104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1104" s="33"/>
+    </row>
+    <row r="1105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1105" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6954,5 +12721,6 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TransportReports/bin/Debug/Template/ActivePass.xlsx
+++ b/TransportReports/bin/Debug/Template/ActivePass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="11805" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12255" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="По поездкам" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -397,9 +400,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,6 +420,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -469,11 +475,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +797,8 @@
   </sheetPr>
   <dimension ref="A1:M443"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,53 +817,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="51" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="61"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,7 +938,7 @@
     </row>
     <row r="5" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="47"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="13"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -934,13 +947,13 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="47"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="13"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -949,13 +962,13 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="47"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="13"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -964,13 +977,13 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -979,13 +992,13 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="47"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -994,13 +1007,13 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
     </row>
     <row r="10" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="47"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="13"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1009,13 +1022,13 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
     </row>
     <row r="11" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="13"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1024,13 +1037,13 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
-      <c r="B12" s="47"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="13"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1039,13 +1052,13 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="47"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="13"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1054,13 +1067,13 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="47"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1069,13 +1082,13 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="13"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1084,13 +1097,13 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
     </row>
     <row r="16" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="47"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="13"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1099,13 +1112,13 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
     </row>
     <row r="17" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="47"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="13"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1114,13 +1127,13 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
     </row>
     <row r="18" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="13"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1129,13 +1142,13 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
     </row>
     <row r="19" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="47"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1144,13 +1157,13 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
     </row>
     <row r="20" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="47"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="13"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1159,13 +1172,13 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
     </row>
     <row r="21" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="13"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1174,13 +1187,13 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
     </row>
     <row r="22" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="47"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="13"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1189,13 +1202,13 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
     </row>
     <row r="23" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="13"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1204,13 +1217,13 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
     </row>
     <row r="24" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
-      <c r="B24" s="47"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1219,13 +1232,13 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
     </row>
     <row r="25" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="47"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="13"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1234,13 +1247,13 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
     </row>
     <row r="26" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
-      <c r="B26" s="47"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="13"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1249,13 +1262,13 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
     </row>
     <row r="27" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="47"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="13"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1264,13 +1277,13 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
     </row>
     <row r="28" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="13"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1279,13 +1292,13 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
     </row>
     <row r="29" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="13"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1294,13 +1307,13 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
     </row>
     <row r="30" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="48"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="13"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1309,13 +1322,13 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
     </row>
     <row r="31" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="48"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="13"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1324,13 +1337,13 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
     </row>
     <row r="32" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
-      <c r="B32" s="48"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="13"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1339,13 +1352,13 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
     </row>
     <row r="33" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
-      <c r="B33" s="48"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="13"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1354,13 +1367,13 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
     </row>
     <row r="34" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="13"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1369,13 +1382,13 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
     </row>
     <row r="35" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
-      <c r="B35" s="48"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="13"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1384,13 +1397,13 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
     </row>
     <row r="36" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
-      <c r="B36" s="47"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="13"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1399,13 +1412,13 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
     </row>
     <row r="37" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="47"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="13"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1414,13 +1427,13 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
     </row>
     <row r="38" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="13"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1429,13 +1442,13 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
     </row>
     <row r="39" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="47"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1444,1254 +1457,1845 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
     </row>
     <row r="40" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
-      <c r="B40" s="49"/>
+      <c r="B40" s="48"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
     </row>
     <row r="41" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
-      <c r="B41" s="49"/>
+      <c r="B41" s="48"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
     </row>
     <row r="42" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
-      <c r="B42" s="49"/>
+      <c r="B42" s="48"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
     </row>
     <row r="43" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
-      <c r="B43" s="49"/>
+      <c r="B43" s="48"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
     </row>
     <row r="44" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
-      <c r="B44" s="49"/>
+      <c r="B44" s="48"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
     </row>
     <row r="45" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
-      <c r="B45" s="49"/>
+      <c r="B45" s="48"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
     </row>
     <row r="46" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
-      <c r="B46" s="49"/>
+      <c r="B46" s="48"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
     </row>
     <row r="47" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
-      <c r="B47" s="49"/>
+      <c r="B47" s="48"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
     </row>
     <row r="48" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
-      <c r="B48" s="49"/>
-    </row>
-    <row r="49" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="48"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+    </row>
+    <row r="49" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
-      <c r="B49" s="49"/>
-    </row>
-    <row r="50" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="48"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+    </row>
+    <row r="50" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
-      <c r="B50" s="49"/>
-    </row>
-    <row r="51" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="48"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+    </row>
+    <row r="51" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
-      <c r="B51" s="49"/>
-    </row>
-    <row r="52" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="48"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+    </row>
+    <row r="52" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
-      <c r="B52" s="49"/>
-    </row>
-    <row r="53" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="48"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+    </row>
+    <row r="53" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
-      <c r="B53" s="49"/>
-    </row>
-    <row r="54" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="48"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+    </row>
+    <row r="54" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
-      <c r="B54" s="49"/>
-    </row>
-    <row r="55" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="48"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+    </row>
+    <row r="55" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
-      <c r="B55" s="49"/>
-    </row>
-    <row r="56" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="48"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+    </row>
+    <row r="56" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
-      <c r="B56" s="49"/>
-    </row>
-    <row r="57" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="48"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+    </row>
+    <row r="57" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
-      <c r="B57" s="49"/>
-    </row>
-    <row r="58" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="48"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+    </row>
+    <row r="58" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
-      <c r="B58" s="49"/>
-    </row>
-    <row r="59" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="48"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+    </row>
+    <row r="59" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
-      <c r="B59" s="49"/>
-    </row>
-    <row r="60" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="48"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+    </row>
+    <row r="60" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
-      <c r="B60" s="49"/>
-    </row>
-    <row r="61" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="48"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+    </row>
+    <row r="61" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
-      <c r="B61" s="49"/>
-    </row>
-    <row r="62" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="48"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+    </row>
+    <row r="62" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
-      <c r="B62" s="49"/>
-    </row>
-    <row r="63" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="48"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+    </row>
+    <row r="63" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
-      <c r="B63" s="49"/>
-    </row>
-    <row r="64" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="48"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+    </row>
+    <row r="64" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
-      <c r="B64" s="49"/>
-    </row>
-    <row r="65" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="48"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+    </row>
+    <row r="65" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
-      <c r="B65" s="49"/>
-    </row>
-    <row r="66" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="48"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+    </row>
+    <row r="66" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
-      <c r="B66" s="49"/>
-    </row>
-    <row r="67" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="48"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+    </row>
+    <row r="67" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
-      <c r="B67" s="49"/>
-    </row>
-    <row r="68" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="48"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="69"/>
+    </row>
+    <row r="68" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
-      <c r="B68" s="49"/>
-    </row>
-    <row r="69" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="48"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+    </row>
+    <row r="69" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
-      <c r="B69" s="49"/>
-    </row>
-    <row r="70" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="48"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+    </row>
+    <row r="70" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
-      <c r="B70" s="49"/>
-    </row>
-    <row r="71" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="48"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="69"/>
+      <c r="M70" s="69"/>
+    </row>
+    <row r="71" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
-      <c r="B71" s="49"/>
-    </row>
-    <row r="72" spans="1:2" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="48"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+    </row>
+    <row r="72" spans="1:13" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
-      <c r="B72" s="49"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="49"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="49"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="49"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="49"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="49"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="49"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="49"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="49"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="49"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="49"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="49"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="49"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="49"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="49"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="49"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="49"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="49"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="49"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="49"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="49"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="49"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="49"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="49"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="49"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="49"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="49"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="49"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="49"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="49"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="49"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="49"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="49"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="49"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="49"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="49"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="49"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="49"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="49"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="49"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="49"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="49"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="49"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="49"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="49"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="49"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="49"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="49"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="49"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="49"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="49"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="49"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="49"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="49"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="49"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="49"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="49"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="49"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="49"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="49"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="49"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="49"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="49"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="49"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="49"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="49"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="49"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="49"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="49"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="49"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="49"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="49"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="49"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="49"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="49"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="49"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="49"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="49"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="49"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="49"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="49"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="49"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="49"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="49"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="49"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="49"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="49"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="49"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="49"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="49"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="49"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="49"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="49"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="49"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="49"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="49"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="49"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="49"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="49"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="49"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="49"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="49"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="49"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="49"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="49"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="49"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="49"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="49"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="49"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="49"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="49"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="49"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="49"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="49"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="49"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="49"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="49"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="49"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="49"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="49"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="49"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="49"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="49"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="49"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="49"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="49"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="49"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="49"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="49"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="49"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="49"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="49"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="49"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="49"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="49"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="49"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="49"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="49"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="49"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="49"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="49"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="49"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="49"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="49"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="49"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="49"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="49"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="49"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="49"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="49"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="49"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="49"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="49"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="49"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="49"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="49"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="49"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="49"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="49"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="49"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="49"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="49"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="49"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="49"/>
+      <c r="B72" s="48"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="48"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="70"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="48"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="70"/>
+      <c r="M74" s="70"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="48"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="70"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="48"/>
+      <c r="K76" s="70"/>
+      <c r="L76" s="70"/>
+      <c r="M76" s="70"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="48"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="70"/>
+      <c r="M77" s="70"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="48"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="70"/>
+      <c r="M78" s="70"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="48"/>
+      <c r="K79" s="70"/>
+      <c r="L79" s="70"/>
+      <c r="M79" s="70"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="48"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="70"/>
+      <c r="M80" s="70"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="48"/>
+      <c r="K81" s="70"/>
+      <c r="L81" s="70"/>
+      <c r="M81" s="70"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="48"/>
+      <c r="K82" s="70"/>
+      <c r="L82" s="70"/>
+      <c r="M82" s="70"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="48"/>
+      <c r="K83" s="70"/>
+      <c r="L83" s="70"/>
+      <c r="M83" s="70"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="48"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
+      <c r="M84" s="70"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="48"/>
+      <c r="K85" s="70"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="70"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="48"/>
+      <c r="K86" s="70"/>
+      <c r="L86" s="70"/>
+      <c r="M86" s="70"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="48"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="70"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="48"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="70"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="48"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="48"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="70"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="48"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="70"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="48"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="70"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="48"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="70"/>
+      <c r="M93" s="70"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="48"/>
+      <c r="K94" s="70"/>
+      <c r="L94" s="70"/>
+      <c r="M94" s="70"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="48"/>
+      <c r="K95" s="70"/>
+      <c r="L95" s="70"/>
+      <c r="M95" s="70"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="48"/>
+      <c r="K96" s="70"/>
+      <c r="L96" s="70"/>
+      <c r="M96" s="70"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="48"/>
+      <c r="K97" s="70"/>
+      <c r="L97" s="70"/>
+      <c r="M97" s="70"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="48"/>
+      <c r="K98" s="70"/>
+      <c r="L98" s="70"/>
+      <c r="M98" s="70"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="48"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
+      <c r="M99" s="70"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="48"/>
+      <c r="K100" s="70"/>
+      <c r="L100" s="70"/>
+      <c r="M100" s="70"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="48"/>
+      <c r="K101" s="70"/>
+      <c r="L101" s="70"/>
+      <c r="M101" s="70"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="48"/>
+      <c r="K102" s="70"/>
+      <c r="L102" s="70"/>
+      <c r="M102" s="70"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="48"/>
+      <c r="K103" s="70"/>
+      <c r="L103" s="70"/>
+      <c r="M103" s="70"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="48"/>
+      <c r="K104" s="70"/>
+      <c r="L104" s="70"/>
+      <c r="M104" s="70"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="48"/>
+      <c r="K105" s="70"/>
+      <c r="L105" s="70"/>
+      <c r="M105" s="70"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="48"/>
+      <c r="K106" s="70"/>
+      <c r="L106" s="70"/>
+      <c r="M106" s="70"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="48"/>
+      <c r="K107" s="70"/>
+      <c r="L107" s="70"/>
+      <c r="M107" s="70"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="48"/>
+      <c r="K108" s="70"/>
+      <c r="L108" s="70"/>
+      <c r="M108" s="70"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="48"/>
+      <c r="K109" s="70"/>
+      <c r="L109" s="70"/>
+      <c r="M109" s="70"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="48"/>
+      <c r="K110" s="70"/>
+      <c r="L110" s="70"/>
+      <c r="M110" s="70"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="48"/>
+      <c r="K111" s="70"/>
+      <c r="L111" s="70"/>
+      <c r="M111" s="70"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="48"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="70"/>
+      <c r="M112" s="70"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="48"/>
+      <c r="K113" s="70"/>
+      <c r="L113" s="70"/>
+      <c r="M113" s="70"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="48"/>
+      <c r="K114" s="70"/>
+      <c r="L114" s="70"/>
+      <c r="M114" s="70"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="48"/>
+      <c r="K115" s="70"/>
+      <c r="L115" s="70"/>
+      <c r="M115" s="70"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="48"/>
+      <c r="K116" s="70"/>
+      <c r="L116" s="70"/>
+      <c r="M116" s="70"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="48"/>
+      <c r="K117" s="70"/>
+      <c r="L117" s="70"/>
+      <c r="M117" s="70"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="48"/>
+      <c r="K118" s="70"/>
+      <c r="L118" s="70"/>
+      <c r="M118" s="70"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="48"/>
+      <c r="K119" s="70"/>
+      <c r="L119" s="70"/>
+      <c r="M119" s="70"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="48"/>
+      <c r="K120" s="70"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="48"/>
+      <c r="K121" s="70"/>
+      <c r="L121" s="70"/>
+      <c r="M121" s="70"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="48"/>
+      <c r="K122" s="70"/>
+      <c r="L122" s="70"/>
+      <c r="M122" s="70"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="48"/>
+      <c r="K123" s="70"/>
+      <c r="L123" s="70"/>
+      <c r="M123" s="70"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="48"/>
+      <c r="K124" s="70"/>
+      <c r="L124" s="70"/>
+      <c r="M124" s="70"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="48"/>
+      <c r="K125" s="70"/>
+      <c r="L125" s="70"/>
+      <c r="M125" s="70"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="48"/>
+      <c r="K126" s="70"/>
+      <c r="L126" s="70"/>
+      <c r="M126" s="70"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="48"/>
+      <c r="K127" s="70"/>
+      <c r="L127" s="70"/>
+      <c r="M127" s="70"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="48"/>
+      <c r="K128" s="70"/>
+      <c r="L128" s="70"/>
+      <c r="M128" s="70"/>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="48"/>
+      <c r="K129" s="70"/>
+      <c r="L129" s="70"/>
+      <c r="M129" s="70"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B130" s="48"/>
+      <c r="K130" s="70"/>
+      <c r="L130" s="70"/>
+      <c r="M130" s="70"/>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="48"/>
+      <c r="K131" s="70"/>
+      <c r="L131" s="70"/>
+      <c r="M131" s="70"/>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="48"/>
+      <c r="K132" s="70"/>
+      <c r="L132" s="70"/>
+      <c r="M132" s="70"/>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B133" s="48"/>
+      <c r="K133" s="70"/>
+      <c r="L133" s="70"/>
+      <c r="M133" s="70"/>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="48"/>
+      <c r="K134" s="70"/>
+      <c r="L134" s="70"/>
+      <c r="M134" s="70"/>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="48"/>
+      <c r="K135" s="70"/>
+      <c r="L135" s="70"/>
+      <c r="M135" s="70"/>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B136" s="48"/>
+      <c r="K136" s="70"/>
+      <c r="L136" s="70"/>
+      <c r="M136" s="70"/>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B137" s="48"/>
+      <c r="K137" s="70"/>
+      <c r="L137" s="70"/>
+      <c r="M137" s="70"/>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B138" s="48"/>
+      <c r="K138" s="70"/>
+      <c r="L138" s="70"/>
+      <c r="M138" s="70"/>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B139" s="48"/>
+      <c r="K139" s="70"/>
+      <c r="L139" s="70"/>
+      <c r="M139" s="70"/>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B140" s="48"/>
+      <c r="K140" s="70"/>
+      <c r="L140" s="70"/>
+      <c r="M140" s="70"/>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B141" s="48"/>
+      <c r="K141" s="70"/>
+      <c r="L141" s="70"/>
+      <c r="M141" s="70"/>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B142" s="48"/>
+      <c r="K142" s="70"/>
+      <c r="L142" s="70"/>
+      <c r="M142" s="70"/>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B143" s="48"/>
+      <c r="K143" s="70"/>
+      <c r="L143" s="70"/>
+      <c r="M143" s="70"/>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B144" s="48"/>
+      <c r="K144" s="70"/>
+      <c r="L144" s="70"/>
+      <c r="M144" s="70"/>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B145" s="48"/>
+      <c r="K145" s="70"/>
+      <c r="L145" s="70"/>
+      <c r="M145" s="70"/>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B146" s="48"/>
+      <c r="K146" s="70"/>
+      <c r="L146" s="70"/>
+      <c r="M146" s="70"/>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B147" s="48"/>
+      <c r="K147" s="70"/>
+      <c r="L147" s="70"/>
+      <c r="M147" s="70"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B148" s="48"/>
+      <c r="K148" s="70"/>
+      <c r="L148" s="70"/>
+      <c r="M148" s="70"/>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B149" s="48"/>
+      <c r="K149" s="70"/>
+      <c r="L149" s="70"/>
+      <c r="M149" s="70"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B150" s="48"/>
+      <c r="K150" s="70"/>
+      <c r="L150" s="70"/>
+      <c r="M150" s="70"/>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B151" s="48"/>
+      <c r="K151" s="70"/>
+      <c r="L151" s="70"/>
+      <c r="M151" s="70"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B152" s="48"/>
+      <c r="K152" s="70"/>
+      <c r="L152" s="70"/>
+      <c r="M152" s="70"/>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B153" s="48"/>
+      <c r="K153" s="70"/>
+      <c r="L153" s="70"/>
+      <c r="M153" s="70"/>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B154" s="48"/>
+      <c r="K154" s="70"/>
+      <c r="L154" s="70"/>
+      <c r="M154" s="70"/>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B155" s="48"/>
+      <c r="K155" s="70"/>
+      <c r="L155" s="70"/>
+      <c r="M155" s="70"/>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B156" s="48"/>
+      <c r="K156" s="70"/>
+      <c r="L156" s="70"/>
+      <c r="M156" s="70"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B157" s="48"/>
+      <c r="K157" s="70"/>
+      <c r="L157" s="70"/>
+      <c r="M157" s="70"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B158" s="48"/>
+      <c r="K158" s="70"/>
+      <c r="L158" s="70"/>
+      <c r="M158" s="70"/>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B159" s="48"/>
+      <c r="K159" s="70"/>
+      <c r="L159" s="70"/>
+      <c r="M159" s="70"/>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B160" s="48"/>
+      <c r="K160" s="70"/>
+      <c r="L160" s="70"/>
+      <c r="M160" s="70"/>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B161" s="48"/>
+      <c r="K161" s="70"/>
+      <c r="L161" s="70"/>
+      <c r="M161" s="70"/>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B162" s="48"/>
+      <c r="K162" s="70"/>
+      <c r="L162" s="70"/>
+      <c r="M162" s="70"/>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B163" s="48"/>
+      <c r="K163" s="70"/>
+      <c r="L163" s="70"/>
+      <c r="M163" s="70"/>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B164" s="48"/>
+      <c r="K164" s="70"/>
+      <c r="L164" s="70"/>
+      <c r="M164" s="70"/>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B165" s="48"/>
+      <c r="K165" s="70"/>
+      <c r="L165" s="70"/>
+      <c r="M165" s="70"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B166" s="48"/>
+      <c r="K166" s="70"/>
+      <c r="L166" s="70"/>
+      <c r="M166" s="70"/>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B167" s="48"/>
+      <c r="K167" s="70"/>
+      <c r="L167" s="70"/>
+      <c r="M167" s="70"/>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B168" s="48"/>
+      <c r="K168" s="70"/>
+      <c r="L168" s="70"/>
+      <c r="M168" s="70"/>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B169" s="48"/>
+      <c r="K169" s="70"/>
+      <c r="L169" s="70"/>
+      <c r="M169" s="70"/>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B170" s="48"/>
+      <c r="K170" s="70"/>
+      <c r="L170" s="70"/>
+      <c r="M170" s="70"/>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B171" s="48"/>
+      <c r="K171" s="70"/>
+      <c r="L171" s="70"/>
+      <c r="M171" s="70"/>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B172" s="48"/>
+      <c r="K172" s="70"/>
+      <c r="L172" s="70"/>
+      <c r="M172" s="70"/>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B173" s="48"/>
+      <c r="K173" s="70"/>
+      <c r="L173" s="70"/>
+      <c r="M173" s="70"/>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B174" s="48"/>
+      <c r="K174" s="70"/>
+      <c r="L174" s="70"/>
+      <c r="M174" s="70"/>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B175" s="48"/>
+      <c r="K175" s="70"/>
+      <c r="L175" s="70"/>
+      <c r="M175" s="70"/>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B176" s="48"/>
+      <c r="K176" s="70"/>
+      <c r="L176" s="70"/>
+      <c r="M176" s="70"/>
+    </row>
+    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B177" s="48"/>
+      <c r="K177" s="70"/>
+      <c r="L177" s="70"/>
+      <c r="M177" s="70"/>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B178" s="48"/>
+      <c r="K178" s="70"/>
+      <c r="L178" s="70"/>
+      <c r="M178" s="70"/>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B179" s="48"/>
+      <c r="K179" s="70"/>
+      <c r="L179" s="70"/>
+      <c r="M179" s="70"/>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B180" s="48"/>
+      <c r="K180" s="70"/>
+      <c r="L180" s="70"/>
+      <c r="M180" s="70"/>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B181" s="48"/>
+      <c r="K181" s="70"/>
+      <c r="L181" s="70"/>
+      <c r="M181" s="70"/>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B182" s="48"/>
+      <c r="K182" s="70"/>
+      <c r="L182" s="70"/>
+      <c r="M182" s="70"/>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B183" s="48"/>
+      <c r="K183" s="70"/>
+      <c r="L183" s="70"/>
+      <c r="M183" s="70"/>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B184" s="48"/>
+      <c r="K184" s="70"/>
+      <c r="L184" s="70"/>
+      <c r="M184" s="70"/>
+    </row>
+    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B185" s="48"/>
+      <c r="K185" s="70"/>
+      <c r="L185" s="70"/>
+      <c r="M185" s="70"/>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B186" s="48"/>
+      <c r="K186" s="70"/>
+      <c r="L186" s="70"/>
+      <c r="M186" s="70"/>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B187" s="48"/>
+      <c r="K187" s="70"/>
+      <c r="L187" s="70"/>
+      <c r="M187" s="70"/>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B188" s="48"/>
+      <c r="K188" s="70"/>
+      <c r="L188" s="70"/>
+      <c r="M188" s="70"/>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B189" s="48"/>
+      <c r="K189" s="70"/>
+      <c r="L189" s="70"/>
+      <c r="M189" s="70"/>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B190" s="48"/>
+      <c r="K190" s="70"/>
+      <c r="L190" s="70"/>
+      <c r="M190" s="70"/>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B191" s="48"/>
+      <c r="K191" s="70"/>
+      <c r="L191" s="70"/>
+      <c r="M191" s="70"/>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B192" s="48"/>
+      <c r="K192" s="70"/>
+      <c r="L192" s="70"/>
+      <c r="M192" s="70"/>
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B193" s="48"/>
+      <c r="K193" s="70"/>
+      <c r="L193" s="70"/>
+      <c r="M193" s="70"/>
+    </row>
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B194" s="48"/>
+      <c r="K194" s="70"/>
+      <c r="L194" s="70"/>
+      <c r="M194" s="70"/>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B195" s="48"/>
+      <c r="K195" s="70"/>
+      <c r="L195" s="70"/>
+      <c r="M195" s="70"/>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B196" s="48"/>
+      <c r="K196" s="70"/>
+      <c r="L196" s="70"/>
+      <c r="M196" s="70"/>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B197" s="48"/>
+      <c r="K197" s="70"/>
+      <c r="L197" s="70"/>
+      <c r="M197" s="70"/>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B198" s="48"/>
+      <c r="K198" s="70"/>
+      <c r="L198" s="70"/>
+      <c r="M198" s="70"/>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B199" s="48"/>
+      <c r="K199" s="70"/>
+      <c r="L199" s="70"/>
+      <c r="M199" s="70"/>
+    </row>
+    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B200" s="48"/>
+      <c r="K200" s="70"/>
+      <c r="L200" s="70"/>
+      <c r="M200" s="70"/>
+    </row>
+    <row r="201" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B201" s="48"/>
+      <c r="K201" s="70"/>
+      <c r="L201" s="70"/>
+      <c r="M201" s="70"/>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B202" s="48"/>
+      <c r="K202" s="70"/>
+      <c r="L202" s="70"/>
+      <c r="M202" s="70"/>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B203" s="48"/>
+      <c r="K203" s="70"/>
+      <c r="L203" s="70"/>
+      <c r="M203" s="70"/>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B204" s="48"/>
+      <c r="K204" s="70"/>
+      <c r="L204" s="70"/>
+      <c r="M204" s="70"/>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B205" s="48"/>
+      <c r="K205" s="70"/>
+      <c r="L205" s="70"/>
+      <c r="M205" s="70"/>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B206" s="48"/>
+      <c r="K206" s="70"/>
+      <c r="L206" s="70"/>
+      <c r="M206" s="70"/>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B207" s="48"/>
+      <c r="K207" s="70"/>
+      <c r="L207" s="70"/>
+      <c r="M207" s="70"/>
+    </row>
+    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B208" s="48"/>
+      <c r="K208" s="70"/>
+      <c r="L208" s="70"/>
+      <c r="M208" s="70"/>
+    </row>
+    <row r="209" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B209" s="48"/>
+      <c r="K209" s="70"/>
+      <c r="L209" s="70"/>
+      <c r="M209" s="70"/>
+    </row>
+    <row r="210" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B210" s="48"/>
+      <c r="K210" s="70"/>
+      <c r="L210" s="70"/>
+      <c r="M210" s="70"/>
+    </row>
+    <row r="211" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B211" s="48"/>
+      <c r="K211" s="70"/>
+      <c r="L211" s="70"/>
+      <c r="M211" s="70"/>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B212" s="48"/>
+      <c r="K212" s="70"/>
+      <c r="L212" s="70"/>
+      <c r="M212" s="70"/>
+    </row>
+    <row r="213" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B213" s="48"/>
+      <c r="K213" s="70"/>
+      <c r="L213" s="70"/>
+      <c r="M213" s="70"/>
+    </row>
+    <row r="214" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B214" s="48"/>
+      <c r="K214" s="70"/>
+      <c r="L214" s="70"/>
+      <c r="M214" s="70"/>
+    </row>
+    <row r="215" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B215" s="48"/>
+      <c r="K215" s="70"/>
+      <c r="L215" s="70"/>
+      <c r="M215" s="70"/>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B216" s="48"/>
+      <c r="K216" s="70"/>
+      <c r="L216" s="70"/>
+      <c r="M216" s="70"/>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B217" s="48"/>
+      <c r="K217" s="70"/>
+      <c r="L217" s="70"/>
+      <c r="M217" s="70"/>
+    </row>
+    <row r="218" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B218" s="48"/>
+      <c r="K218" s="70"/>
+      <c r="L218" s="70"/>
+      <c r="M218" s="70"/>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B219" s="48"/>
+      <c r="K219" s="70"/>
+      <c r="L219" s="70"/>
+      <c r="M219" s="70"/>
+    </row>
+    <row r="220" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B220" s="48"/>
+      <c r="K220" s="70"/>
+      <c r="L220" s="70"/>
+      <c r="M220" s="70"/>
+    </row>
+    <row r="221" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B221" s="48"/>
+      <c r="K221" s="70"/>
+      <c r="L221" s="70"/>
+      <c r="M221" s="70"/>
+    </row>
+    <row r="222" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B222" s="48"/>
+      <c r="K222" s="70"/>
+      <c r="L222" s="70"/>
+      <c r="M222" s="70"/>
+    </row>
+    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B223" s="48"/>
+      <c r="K223" s="70"/>
+      <c r="L223" s="70"/>
+      <c r="M223" s="70"/>
+    </row>
+    <row r="224" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B224" s="48"/>
+      <c r="K224" s="70"/>
+      <c r="L224" s="70"/>
+      <c r="M224" s="70"/>
+    </row>
+    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B225" s="48"/>
+      <c r="K225" s="70"/>
+      <c r="L225" s="70"/>
+      <c r="M225" s="70"/>
+    </row>
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B226" s="48"/>
+      <c r="K226" s="70"/>
+      <c r="L226" s="70"/>
+      <c r="M226" s="70"/>
+    </row>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B227" s="48"/>
+      <c r="K227" s="70"/>
+      <c r="L227" s="70"/>
+      <c r="M227" s="70"/>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B228" s="48"/>
+      <c r="K228" s="70"/>
+      <c r="L228" s="70"/>
+      <c r="M228" s="70"/>
+    </row>
+    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B229" s="48"/>
+      <c r="K229" s="70"/>
+      <c r="L229" s="70"/>
+      <c r="M229" s="70"/>
+    </row>
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B230" s="48"/>
+      <c r="K230" s="70"/>
+      <c r="L230" s="70"/>
+      <c r="M230" s="70"/>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B231" s="48"/>
+      <c r="K231" s="70"/>
+      <c r="L231" s="70"/>
+      <c r="M231" s="70"/>
+    </row>
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B232" s="48"/>
+      <c r="K232" s="70"/>
+      <c r="L232" s="70"/>
+      <c r="M232" s="70"/>
+    </row>
+    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B233" s="48"/>
+      <c r="K233" s="70"/>
+      <c r="L233" s="70"/>
+      <c r="M233" s="70"/>
+    </row>
+    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B234" s="48"/>
+      <c r="K234" s="70"/>
+      <c r="L234" s="70"/>
+      <c r="M234" s="70"/>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B235" s="48"/>
+      <c r="K235" s="70"/>
+      <c r="L235" s="70"/>
+      <c r="M235" s="70"/>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B236" s="48"/>
+      <c r="K236" s="70"/>
+      <c r="L236" s="70"/>
+      <c r="M236" s="70"/>
+    </row>
+    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B237" s="48"/>
+    </row>
+    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B238" s="48"/>
+    </row>
+    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B239" s="48"/>
+    </row>
+    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B240" s="48"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="49"/>
+      <c r="B241" s="48"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="49"/>
+      <c r="B242" s="48"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="49"/>
+      <c r="B243" s="48"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="49"/>
+      <c r="B244" s="48"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="49"/>
+      <c r="B245" s="48"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="49"/>
+      <c r="B246" s="48"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="49"/>
+      <c r="B247" s="48"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="49"/>
+      <c r="B248" s="48"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="49"/>
+      <c r="B249" s="48"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="49"/>
+      <c r="B250" s="48"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="49"/>
+      <c r="B251" s="48"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="49"/>
+      <c r="B252" s="48"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="49"/>
+      <c r="B253" s="48"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="49"/>
+      <c r="B254" s="48"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="49"/>
+      <c r="B255" s="48"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="49"/>
+      <c r="B256" s="48"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="49"/>
+      <c r="B257" s="48"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="49"/>
+      <c r="B258" s="48"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="49"/>
+      <c r="B259" s="48"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="49"/>
+      <c r="B260" s="48"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="49"/>
+      <c r="B261" s="48"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="49"/>
+      <c r="B262" s="48"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="49"/>
+      <c r="B263" s="48"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="49"/>
+      <c r="B264" s="48"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="49"/>
+      <c r="B265" s="48"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="49"/>
+      <c r="B266" s="48"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="49"/>
+      <c r="B267" s="48"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="49"/>
+      <c r="B268" s="48"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="49"/>
+      <c r="B269" s="48"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="49"/>
+      <c r="B270" s="48"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="49"/>
+      <c r="B271" s="48"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="49"/>
+      <c r="B272" s="48"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="49"/>
+      <c r="B273" s="48"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="49"/>
+      <c r="B274" s="48"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="49"/>
+      <c r="B275" s="48"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="49"/>
+      <c r="B276" s="48"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="49"/>
+      <c r="B277" s="48"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="49"/>
+      <c r="B278" s="48"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="49"/>
+      <c r="B279" s="48"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="49"/>
+      <c r="B280" s="48"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="49"/>
+      <c r="B281" s="48"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="49"/>
+      <c r="B282" s="48"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="49"/>
+      <c r="B283" s="48"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="49"/>
+      <c r="B284" s="48"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="49"/>
+      <c r="B285" s="48"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="49"/>
+      <c r="B286" s="48"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="49"/>
+      <c r="B287" s="48"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="49"/>
+      <c r="B288" s="48"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="49"/>
+      <c r="B289" s="48"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="49"/>
+      <c r="B290" s="48"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="49"/>
+      <c r="B291" s="48"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="49"/>
+      <c r="B292" s="48"/>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="49"/>
+      <c r="B293" s="48"/>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="49"/>
+      <c r="B294" s="48"/>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="49"/>
+      <c r="B295" s="48"/>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="49"/>
+      <c r="B296" s="48"/>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" s="49"/>
+      <c r="B297" s="48"/>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="49"/>
+      <c r="B298" s="48"/>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="49"/>
+      <c r="B299" s="48"/>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="49"/>
+      <c r="B300" s="48"/>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="49"/>
+      <c r="B301" s="48"/>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" s="49"/>
+      <c r="B302" s="48"/>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="49"/>
+      <c r="B303" s="48"/>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="49"/>
+      <c r="B304" s="48"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" s="49"/>
+      <c r="B305" s="48"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" s="49"/>
+      <c r="B306" s="48"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" s="49"/>
+      <c r="B307" s="48"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" s="49"/>
+      <c r="B308" s="48"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" s="49"/>
+      <c r="B309" s="48"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" s="49"/>
+      <c r="B310" s="48"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="49"/>
+      <c r="B311" s="48"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" s="49"/>
+      <c r="B312" s="48"/>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" s="49"/>
+      <c r="B313" s="48"/>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" s="49"/>
+      <c r="B314" s="48"/>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="49"/>
+      <c r="B315" s="48"/>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="49"/>
+      <c r="B316" s="48"/>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" s="49"/>
+      <c r="B317" s="48"/>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" s="49"/>
+      <c r="B318" s="48"/>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" s="49"/>
+      <c r="B319" s="48"/>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" s="49"/>
+      <c r="B320" s="48"/>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" s="49"/>
+      <c r="B321" s="48"/>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" s="49"/>
+      <c r="B322" s="48"/>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" s="49"/>
+      <c r="B323" s="48"/>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" s="49"/>
+      <c r="B324" s="48"/>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" s="49"/>
+      <c r="B325" s="48"/>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" s="49"/>
+      <c r="B326" s="48"/>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" s="49"/>
+      <c r="B327" s="48"/>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" s="49"/>
+      <c r="B328" s="48"/>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" s="49"/>
+      <c r="B329" s="48"/>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" s="49"/>
+      <c r="B330" s="48"/>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" s="49"/>
+      <c r="B331" s="48"/>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" s="49"/>
+      <c r="B332" s="48"/>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" s="49"/>
+      <c r="B333" s="48"/>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" s="49"/>
+      <c r="B334" s="48"/>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" s="49"/>
+      <c r="B335" s="48"/>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" s="49"/>
+      <c r="B336" s="48"/>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" s="49"/>
+      <c r="B337" s="48"/>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" s="49"/>
+      <c r="B338" s="48"/>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" s="49"/>
+      <c r="B339" s="48"/>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" s="49"/>
+      <c r="B340" s="48"/>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" s="49"/>
+      <c r="B341" s="48"/>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" s="49"/>
+      <c r="B342" s="48"/>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" s="49"/>
+      <c r="B343" s="48"/>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="49"/>
+      <c r="B344" s="48"/>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" s="49"/>
+      <c r="B345" s="48"/>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" s="49"/>
+      <c r="B346" s="48"/>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="49"/>
+      <c r="B347" s="48"/>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" s="49"/>
+      <c r="B348" s="48"/>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="49"/>
+      <c r="B349" s="48"/>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="49"/>
+      <c r="B350" s="48"/>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" s="49"/>
+      <c r="B351" s="48"/>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="49"/>
+      <c r="B352" s="48"/>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="49"/>
+      <c r="B353" s="48"/>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" s="49"/>
+      <c r="B354" s="48"/>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" s="49"/>
+      <c r="B355" s="48"/>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" s="49"/>
+      <c r="B356" s="48"/>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" s="49"/>
+      <c r="B357" s="48"/>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" s="49"/>
+      <c r="B358" s="48"/>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" s="49"/>
+      <c r="B359" s="48"/>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" s="49"/>
+      <c r="B360" s="48"/>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" s="49"/>
+      <c r="B361" s="48"/>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" s="49"/>
+      <c r="B362" s="48"/>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" s="49"/>
+      <c r="B363" s="48"/>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" s="49"/>
+      <c r="B364" s="48"/>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" s="49"/>
+      <c r="B365" s="48"/>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="49"/>
+      <c r="B366" s="48"/>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" s="49"/>
+      <c r="B367" s="48"/>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" s="49"/>
+      <c r="B368" s="48"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="49"/>
+      <c r="B369" s="48"/>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="49"/>
+      <c r="B370" s="48"/>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" s="49"/>
+      <c r="B371" s="48"/>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" s="49"/>
+      <c r="B372" s="48"/>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" s="49"/>
+      <c r="B373" s="48"/>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" s="49"/>
+      <c r="B374" s="48"/>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" s="49"/>
+      <c r="B375" s="48"/>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" s="49"/>
+      <c r="B376" s="48"/>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" s="49"/>
+      <c r="B377" s="48"/>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" s="49"/>
+      <c r="B378" s="48"/>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" s="49"/>
+      <c r="B379" s="48"/>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" s="49"/>
+      <c r="B380" s="48"/>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" s="49"/>
+      <c r="B381" s="48"/>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" s="49"/>
+      <c r="B382" s="48"/>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" s="49"/>
+      <c r="B383" s="48"/>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" s="49"/>
+      <c r="B384" s="48"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" s="49"/>
+      <c r="B385" s="48"/>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" s="49"/>
+      <c r="B386" s="48"/>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" s="49"/>
+      <c r="B387" s="48"/>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" s="49"/>
+      <c r="B388" s="48"/>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" s="49"/>
+      <c r="B389" s="48"/>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" s="49"/>
+      <c r="B390" s="48"/>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" s="49"/>
+      <c r="B391" s="48"/>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" s="49"/>
+      <c r="B392" s="48"/>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" s="49"/>
+      <c r="B393" s="48"/>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" s="49"/>
+      <c r="B394" s="48"/>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" s="49"/>
+      <c r="B395" s="48"/>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B396" s="49"/>
+      <c r="B396" s="48"/>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" s="49"/>
+      <c r="B397" s="48"/>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" s="49"/>
+      <c r="B398" s="48"/>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" s="49"/>
+      <c r="B399" s="48"/>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" s="49"/>
+      <c r="B400" s="48"/>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" s="49"/>
+      <c r="B401" s="48"/>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" s="49"/>
+      <c r="B402" s="48"/>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" s="49"/>
+      <c r="B403" s="48"/>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" s="49"/>
+      <c r="B404" s="48"/>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" s="49"/>
+      <c r="B405" s="48"/>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" s="49"/>
+      <c r="B406" s="48"/>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" s="49"/>
+      <c r="B407" s="48"/>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" s="49"/>
+      <c r="B408" s="48"/>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" s="49"/>
+      <c r="B409" s="48"/>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" s="49"/>
+      <c r="B410" s="48"/>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" s="49"/>
+      <c r="B411" s="48"/>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" s="49"/>
+      <c r="B412" s="48"/>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" s="49"/>
+      <c r="B413" s="48"/>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" s="49"/>
+      <c r="B414" s="48"/>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" s="49"/>
+      <c r="B415" s="48"/>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" s="49"/>
+      <c r="B416" s="48"/>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" s="49"/>
+      <c r="B417" s="48"/>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" s="49"/>
+      <c r="B418" s="48"/>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" s="49"/>
+      <c r="B419" s="48"/>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" s="49"/>
+      <c r="B420" s="48"/>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" s="49"/>
+      <c r="B421" s="48"/>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" s="49"/>
+      <c r="B422" s="48"/>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" s="49"/>
+      <c r="B423" s="48"/>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" s="49"/>
+      <c r="B424" s="48"/>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" s="49"/>
+      <c r="B425" s="48"/>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" s="49"/>
+      <c r="B426" s="48"/>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" s="49"/>
+      <c r="B427" s="48"/>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" s="49"/>
+      <c r="B428" s="48"/>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" s="49"/>
+      <c r="B429" s="48"/>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B430" s="49"/>
+      <c r="B430" s="48"/>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" s="49"/>
+      <c r="B431" s="48"/>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B432" s="49"/>
+      <c r="B432" s="48"/>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B433" s="49"/>
+      <c r="B433" s="48"/>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" s="49"/>
+      <c r="B434" s="48"/>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B435" s="49"/>
+      <c r="B435" s="48"/>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B436" s="49"/>
+      <c r="B436" s="48"/>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" s="49"/>
+      <c r="B437" s="48"/>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B438" s="49"/>
+      <c r="B438" s="48"/>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B439" s="49"/>
+      <c r="B439" s="48"/>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" s="49"/>
+      <c r="B440" s="48"/>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B441" s="49"/>
+      <c r="B441" s="48"/>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B442" s="49"/>
+      <c r="B442" s="48"/>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" s="49"/>
+      <c r="B443" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2712,8 +3316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E1271"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,16 +3333,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
@@ -2755,16 +3359,16 @@
       <c r="V1" s="23"/>
     </row>
     <row r="2" spans="1:22" s="24" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="21"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
@@ -2862,9 +3466,9 @@
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="48"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="8"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2886,9 +3490,9 @@
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="48"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="8"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -2910,9 +3514,9 @@
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="48"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="8"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -2934,9 +3538,9 @@
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="48"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="8"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -2958,9 +3562,9 @@
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="48"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="8"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -2982,9 +3586,9 @@
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="48"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="8"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -3006,9 +3610,9 @@
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="48"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="8"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -3030,9 +3634,9 @@
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="48"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="8"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -3054,9 +3658,9 @@
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="48"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="8"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -3078,9 +3682,9 @@
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="48"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="8"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -3102,9 +3706,9 @@
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="8"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -3126,9 +3730,9 @@
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="48"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="8"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -3150,9 +3754,9 @@
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="48"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="8"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -3174,9 +3778,9 @@
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="48"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="8"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -3198,9 +3802,9 @@
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="8"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -3222,9 +3826,9 @@
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="48"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="8"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -3246,9 +3850,9 @@
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="48"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="8"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -3270,9 +3874,9 @@
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="48"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="8"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -3294,9 +3898,9 @@
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="48"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="8"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -3318,9 +3922,9 @@
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="8"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -3342,9 +3946,9 @@
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="48"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="8"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -3366,9 +3970,9 @@
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="48"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="8"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -3390,9 +3994,9 @@
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="48"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="8"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -3414,9 +4018,9 @@
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="48"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="8"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -3438,9 +4042,9 @@
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="8"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -3462,9 +4066,9 @@
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="B30" s="48"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="8"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -3486,9 +4090,9 @@
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="B31" s="48"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="8"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -3510,9 +4114,9 @@
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="48"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="7"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="8"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -3534,9 +4138,9 @@
     </row>
     <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="48"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="7"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="8"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -3558,9 +4162,9 @@
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="7"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="8"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -3582,9 +4186,9 @@
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
-      <c r="B35" s="48"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="8"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3606,9 +4210,9 @@
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
-      <c r="B36" s="48"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="7"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="8"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3630,9 +4234,9 @@
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
-      <c r="B37" s="48"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="8"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -3654,9 +4258,9 @@
     </row>
     <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
-      <c r="B38" s="48"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="8"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -3678,9 +4282,9 @@
     </row>
     <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="8"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -3701,10 +4305,10 @@
       <c r="V39" s="4"/>
     </row>
     <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="50"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="51"/>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="39"/>
@@ -3724,2043 +4328,2043 @@
       <c r="V40" s="4"/>
     </row>
     <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="50"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="50"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="50"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="51"/>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="68"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
       <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="50"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="50"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="51"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="51"/>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
       <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="68"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="39"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="50"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="68"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="51"/>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="39"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="50"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="39"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="50"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="39"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="50"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="39"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="50"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="68"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="39"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="50"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="68"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="39"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="50"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="68"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="39"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="50"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="68"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="39"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="50"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="68"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="39"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="50"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="68"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="39"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="50"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="39"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="50"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="68"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="39"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="50"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="68"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="39"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="50"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="68"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="39"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="50"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="68"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="39"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="50"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="68"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
       <c r="H64" s="39"/>
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="50"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="68"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
       <c r="H65" s="39"/>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="50"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="68"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
       <c r="H66" s="39"/>
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="50"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="68"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
       <c r="H67" s="39"/>
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="50"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="68"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
       <c r="H68" s="39"/>
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="50"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="68"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
       <c r="H69" s="39"/>
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="50"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="68"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
       <c r="H70" s="39"/>
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="50"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="68"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
       <c r="H71" s="39"/>
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="50"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="68"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
       <c r="H72" s="39"/>
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="50"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
       <c r="H73" s="39"/>
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="50"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="68"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="39"/>
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="50"/>
+      <c r="B75" s="49"/>
       <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="68"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
       <c r="H75" s="39"/>
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="50"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="68"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
       <c r="H76" s="39"/>
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="50"/>
+      <c r="B77" s="49"/>
       <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="68"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
       <c r="H77" s="39"/>
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="50"/>
+      <c r="B78" s="49"/>
       <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="68"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="51"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
       <c r="H78" s="39"/>
     </row>
     <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="50"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="68"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="51"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
       <c r="H79" s="39"/>
     </row>
     <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="50"/>
+      <c r="B80" s="49"/>
       <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="68"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="51"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
       <c r="H80" s="39"/>
     </row>
     <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="50"/>
+      <c r="B81" s="49"/>
       <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="68"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="51"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
       <c r="H81" s="39"/>
     </row>
     <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="50"/>
+      <c r="B82" s="49"/>
       <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="68"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="51"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
       <c r="H82" s="39"/>
     </row>
     <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="50"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="68"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
       <c r="H83" s="39"/>
     </row>
     <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="50"/>
+      <c r="B84" s="49"/>
       <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="68"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="51"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
       <c r="H84" s="39"/>
     </row>
     <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="50"/>
+      <c r="B85" s="49"/>
       <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="68"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="51"/>
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
       <c r="H85" s="39"/>
     </row>
     <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="50"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="68"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="51"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
       <c r="H86" s="39"/>
     </row>
     <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="50"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="68"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="51"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
       <c r="H87" s="39"/>
     </row>
     <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="50"/>
+      <c r="B88" s="49"/>
       <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="68"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="51"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
       <c r="H88" s="39"/>
     </row>
     <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="50"/>
+      <c r="B89" s="49"/>
       <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="68"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="51"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
       <c r="H89" s="39"/>
     </row>
     <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="50"/>
+      <c r="B90" s="49"/>
       <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="68"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
       <c r="H90" s="39"/>
     </row>
     <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="50"/>
+      <c r="B91" s="49"/>
       <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="68"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="51"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
       <c r="H91" s="39"/>
     </row>
     <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="50"/>
+      <c r="B92" s="49"/>
       <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="68"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="51"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
       <c r="H92" s="39"/>
     </row>
     <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="50"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="68"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="51"/>
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
       <c r="H93" s="39"/>
     </row>
     <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="50"/>
+      <c r="B94" s="49"/>
       <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="68"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="51"/>
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
       <c r="H94" s="39"/>
     </row>
     <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="50"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="68"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="51"/>
       <c r="F95" s="41"/>
       <c r="G95" s="41"/>
       <c r="H95" s="39"/>
     </row>
     <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="50"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="68"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="51"/>
       <c r="F96" s="41"/>
       <c r="G96" s="41"/>
       <c r="H96" s="39"/>
     </row>
     <row r="97" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="50"/>
+      <c r="B97" s="49"/>
       <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="68"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="51"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
       <c r="H97" s="39"/>
     </row>
     <row r="98" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="50"/>
+      <c r="B98" s="49"/>
       <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="68"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="51"/>
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
       <c r="H98" s="39"/>
     </row>
     <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="50"/>
+      <c r="B99" s="49"/>
       <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="68"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="51"/>
       <c r="F99" s="41"/>
       <c r="G99" s="41"/>
       <c r="H99" s="39"/>
     </row>
     <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="50"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="68"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="51"/>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
       <c r="H100" s="39"/>
     </row>
     <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="50"/>
+      <c r="B101" s="49"/>
       <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="68"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="51"/>
       <c r="F101" s="41"/>
       <c r="G101" s="41"/>
       <c r="H101" s="39"/>
     </row>
     <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="50"/>
+      <c r="B102" s="49"/>
       <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="68"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="51"/>
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
       <c r="H102" s="39"/>
     </row>
     <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="50"/>
+      <c r="B103" s="49"/>
       <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="68"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="51"/>
       <c r="F103" s="41"/>
       <c r="G103" s="41"/>
       <c r="H103" s="39"/>
     </row>
     <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="50"/>
+      <c r="B104" s="49"/>
       <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="68"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="51"/>
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
       <c r="H104" s="39"/>
     </row>
     <row r="105" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="50"/>
+      <c r="B105" s="49"/>
       <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="68"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="51"/>
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
       <c r="H105" s="39"/>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="50"/>
+      <c r="B106" s="49"/>
       <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="68"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="51"/>
       <c r="F106" s="41"/>
       <c r="G106" s="41"/>
       <c r="H106" s="39"/>
     </row>
     <row r="107" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="50"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="68"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="51"/>
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
       <c r="H107" s="39"/>
     </row>
     <row r="108" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="50"/>
+      <c r="B108" s="49"/>
       <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="68"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="51"/>
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
       <c r="H108" s="39"/>
     </row>
     <row r="109" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="50"/>
+      <c r="B109" s="49"/>
       <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="68"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="51"/>
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
       <c r="H109" s="39"/>
     </row>
     <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="50"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="68"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="51"/>
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
       <c r="H110" s="39"/>
     </row>
     <row r="111" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="50"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="68"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="51"/>
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
       <c r="H111" s="39"/>
     </row>
     <row r="112" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="50"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="68"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="51"/>
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
       <c r="H112" s="39"/>
     </row>
     <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="50"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="68"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="51"/>
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
       <c r="H113" s="39"/>
     </row>
     <row r="114" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="50"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="68"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="51"/>
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
       <c r="H114" s="39"/>
     </row>
     <row r="115" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="50"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="68"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="51"/>
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
       <c r="H115" s="39"/>
     </row>
     <row r="116" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="50"/>
+      <c r="B116" s="49"/>
       <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="68"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="51"/>
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
       <c r="H116" s="39"/>
     </row>
     <row r="117" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="50"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="68"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="51"/>
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
       <c r="H117" s="39"/>
     </row>
     <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="50"/>
+      <c r="B118" s="49"/>
       <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="68"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="51"/>
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
       <c r="H118" s="39"/>
     </row>
     <row r="119" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="50"/>
+      <c r="B119" s="49"/>
       <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="68"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="51"/>
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
       <c r="H119" s="39"/>
     </row>
     <row r="120" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="50"/>
+      <c r="B120" s="49"/>
       <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="68"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="51"/>
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
       <c r="H120" s="39"/>
     </row>
     <row r="121" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="50"/>
+      <c r="B121" s="49"/>
       <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="68"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="51"/>
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
       <c r="H121" s="39"/>
     </row>
     <row r="122" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="50"/>
+      <c r="B122" s="49"/>
       <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="68"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="51"/>
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
       <c r="H122" s="39"/>
     </row>
     <row r="123" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="50"/>
+      <c r="B123" s="49"/>
       <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="68"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="51"/>
       <c r="F123" s="41"/>
       <c r="G123" s="41"/>
       <c r="H123" s="39"/>
     </row>
     <row r="124" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="50"/>
+      <c r="B124" s="49"/>
       <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="68"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="51"/>
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
       <c r="H124" s="39"/>
     </row>
     <row r="125" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="50"/>
+      <c r="B125" s="49"/>
       <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="68"/>
+      <c r="D125" s="69"/>
+      <c r="E125" s="51"/>
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
       <c r="H125" s="39"/>
     </row>
     <row r="126" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="50"/>
+      <c r="B126" s="49"/>
       <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="68"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="51"/>
       <c r="F126" s="41"/>
       <c r="G126" s="41"/>
       <c r="H126" s="39"/>
     </row>
     <row r="127" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="50"/>
+      <c r="B127" s="49"/>
       <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="68"/>
+      <c r="D127" s="69"/>
+      <c r="E127" s="51"/>
       <c r="F127" s="41"/>
       <c r="G127" s="41"/>
       <c r="H127" s="39"/>
     </row>
     <row r="128" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="50"/>
+      <c r="B128" s="49"/>
       <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="68"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="51"/>
       <c r="F128" s="41"/>
       <c r="G128" s="41"/>
       <c r="H128" s="39"/>
     </row>
     <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="50"/>
+      <c r="B129" s="49"/>
       <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="68"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="51"/>
       <c r="F129" s="41"/>
       <c r="G129" s="41"/>
       <c r="H129" s="39"/>
     </row>
     <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="50"/>
+      <c r="B130" s="49"/>
       <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="68"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="51"/>
       <c r="F130" s="41"/>
       <c r="G130" s="41"/>
       <c r="H130" s="39"/>
     </row>
     <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="50"/>
+      <c r="B131" s="49"/>
       <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="68"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="51"/>
       <c r="F131" s="41"/>
       <c r="G131" s="41"/>
       <c r="H131" s="39"/>
     </row>
     <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="50"/>
+      <c r="B132" s="49"/>
       <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="68"/>
+      <c r="D132" s="69"/>
+      <c r="E132" s="51"/>
       <c r="F132" s="41"/>
       <c r="G132" s="41"/>
       <c r="H132" s="39"/>
     </row>
     <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="50"/>
+      <c r="B133" s="49"/>
       <c r="C133" s="39"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="68"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="51"/>
       <c r="F133" s="41"/>
       <c r="G133" s="41"/>
       <c r="H133" s="39"/>
     </row>
     <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="50"/>
+      <c r="B134" s="49"/>
       <c r="C134" s="39"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="68"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="51"/>
       <c r="F134" s="41"/>
       <c r="G134" s="41"/>
       <c r="H134" s="39"/>
     </row>
     <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="50"/>
+      <c r="B135" s="49"/>
       <c r="C135" s="39"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="68"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="51"/>
       <c r="F135" s="41"/>
       <c r="G135" s="41"/>
       <c r="H135" s="39"/>
     </row>
     <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="50"/>
+      <c r="B136" s="49"/>
       <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="68"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="51"/>
       <c r="F136" s="41"/>
       <c r="G136" s="41"/>
       <c r="H136" s="39"/>
     </row>
     <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="50"/>
+      <c r="B137" s="49"/>
       <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="68"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="51"/>
       <c r="F137" s="41"/>
       <c r="G137" s="41"/>
       <c r="H137" s="39"/>
     </row>
     <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="50"/>
+      <c r="B138" s="49"/>
       <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="68"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="51"/>
       <c r="F138" s="41"/>
       <c r="G138" s="41"/>
       <c r="H138" s="39"/>
     </row>
     <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="50"/>
+      <c r="B139" s="49"/>
       <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="68"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="51"/>
       <c r="F139" s="41"/>
       <c r="G139" s="41"/>
       <c r="H139" s="39"/>
     </row>
     <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="50"/>
+      <c r="B140" s="49"/>
       <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="68"/>
+      <c r="D140" s="69"/>
+      <c r="E140" s="51"/>
       <c r="F140" s="41"/>
       <c r="G140" s="41"/>
       <c r="H140" s="39"/>
     </row>
     <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="50"/>
+      <c r="B141" s="49"/>
       <c r="C141" s="39"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="68"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="51"/>
       <c r="F141" s="41"/>
       <c r="G141" s="41"/>
       <c r="H141" s="39"/>
     </row>
     <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="50"/>
+      <c r="B142" s="49"/>
       <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="68"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="51"/>
       <c r="F142" s="41"/>
       <c r="G142" s="41"/>
       <c r="H142" s="39"/>
     </row>
     <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="50"/>
+      <c r="B143" s="49"/>
       <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="68"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="51"/>
       <c r="F143" s="41"/>
       <c r="G143" s="41"/>
       <c r="H143" s="39"/>
     </row>
     <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="50"/>
+      <c r="B144" s="49"/>
       <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="68"/>
+      <c r="D144" s="69"/>
+      <c r="E144" s="51"/>
       <c r="F144" s="41"/>
       <c r="G144" s="41"/>
       <c r="H144" s="39"/>
     </row>
     <row r="145" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="50"/>
+      <c r="B145" s="49"/>
       <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="68"/>
+      <c r="D145" s="69"/>
+      <c r="E145" s="51"/>
       <c r="F145" s="41"/>
       <c r="G145" s="41"/>
       <c r="H145" s="39"/>
     </row>
     <row r="146" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="50"/>
+      <c r="B146" s="49"/>
       <c r="C146" s="39"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="68"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="51"/>
       <c r="F146" s="41"/>
       <c r="G146" s="41"/>
       <c r="H146" s="39"/>
     </row>
     <row r="147" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="50"/>
+      <c r="B147" s="49"/>
       <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="68"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="51"/>
       <c r="F147" s="41"/>
       <c r="G147" s="41"/>
       <c r="H147" s="39"/>
     </row>
     <row r="148" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="50"/>
+      <c r="B148" s="49"/>
       <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="68"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="51"/>
       <c r="F148" s="41"/>
       <c r="G148" s="41"/>
       <c r="H148" s="39"/>
     </row>
     <row r="149" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="50"/>
+      <c r="B149" s="49"/>
       <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="68"/>
+      <c r="D149" s="69"/>
+      <c r="E149" s="51"/>
       <c r="F149" s="41"/>
       <c r="G149" s="41"/>
       <c r="H149" s="39"/>
     </row>
     <row r="150" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="50"/>
+      <c r="B150" s="49"/>
       <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="68"/>
+      <c r="D150" s="69"/>
+      <c r="E150" s="51"/>
       <c r="F150" s="41"/>
       <c r="G150" s="41"/>
       <c r="H150" s="39"/>
     </row>
     <row r="151" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="50"/>
+      <c r="B151" s="49"/>
       <c r="C151" s="39"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="68"/>
+      <c r="D151" s="69"/>
+      <c r="E151" s="51"/>
       <c r="F151" s="41"/>
       <c r="G151" s="41"/>
       <c r="H151" s="39"/>
     </row>
     <row r="152" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="50"/>
+      <c r="B152" s="49"/>
       <c r="C152" s="39"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="68"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="51"/>
       <c r="F152" s="41"/>
       <c r="G152" s="41"/>
       <c r="H152" s="39"/>
     </row>
     <row r="153" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="50"/>
+      <c r="B153" s="49"/>
       <c r="C153" s="39"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="68"/>
+      <c r="D153" s="69"/>
+      <c r="E153" s="51"/>
       <c r="F153" s="41"/>
       <c r="G153" s="41"/>
       <c r="H153" s="39"/>
     </row>
     <row r="154" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="50"/>
+      <c r="B154" s="49"/>
       <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="68"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="51"/>
       <c r="F154" s="41"/>
       <c r="G154" s="41"/>
       <c r="H154" s="39"/>
     </row>
     <row r="155" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="50"/>
+      <c r="B155" s="49"/>
       <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="68"/>
+      <c r="D155" s="69"/>
+      <c r="E155" s="51"/>
       <c r="F155" s="41"/>
       <c r="G155" s="41"/>
       <c r="H155" s="39"/>
     </row>
     <row r="156" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="50"/>
+      <c r="B156" s="49"/>
       <c r="C156" s="39"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="68"/>
+      <c r="D156" s="69"/>
+      <c r="E156" s="51"/>
       <c r="F156" s="41"/>
       <c r="G156" s="41"/>
       <c r="H156" s="39"/>
     </row>
     <row r="157" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="50"/>
+      <c r="B157" s="49"/>
       <c r="C157" s="39"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="68"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="51"/>
       <c r="F157" s="41"/>
       <c r="G157" s="41"/>
       <c r="H157" s="39"/>
     </row>
     <row r="158" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="50"/>
+      <c r="B158" s="49"/>
       <c r="C158" s="39"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="68"/>
+      <c r="D158" s="69"/>
+      <c r="E158" s="51"/>
       <c r="F158" s="41"/>
       <c r="G158" s="41"/>
       <c r="H158" s="39"/>
     </row>
     <row r="159" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="50"/>
+      <c r="B159" s="49"/>
       <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="68"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="51"/>
       <c r="F159" s="41"/>
       <c r="G159" s="41"/>
       <c r="H159" s="39"/>
     </row>
     <row r="160" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="50"/>
+      <c r="B160" s="49"/>
       <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="68"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="51"/>
       <c r="F160" s="41"/>
       <c r="G160" s="41"/>
       <c r="H160" s="39"/>
     </row>
     <row r="161" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="50"/>
+      <c r="B161" s="49"/>
       <c r="C161" s="39"/>
-      <c r="D161" s="39"/>
-      <c r="E161" s="68"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="51"/>
       <c r="F161" s="41"/>
       <c r="G161" s="41"/>
       <c r="H161" s="39"/>
     </row>
     <row r="162" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="50"/>
+      <c r="B162" s="49"/>
       <c r="C162" s="39"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="68"/>
+      <c r="D162" s="69"/>
+      <c r="E162" s="51"/>
       <c r="F162" s="41"/>
       <c r="G162" s="41"/>
       <c r="H162" s="39"/>
     </row>
     <row r="163" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="50"/>
+      <c r="B163" s="49"/>
       <c r="C163" s="39"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="68"/>
+      <c r="D163" s="69"/>
+      <c r="E163" s="51"/>
       <c r="F163" s="41"/>
       <c r="G163" s="41"/>
       <c r="H163" s="39"/>
     </row>
     <row r="164" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="50"/>
+      <c r="B164" s="49"/>
       <c r="C164" s="39"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="68"/>
+      <c r="D164" s="69"/>
+      <c r="E164" s="51"/>
       <c r="F164" s="41"/>
       <c r="G164" s="41"/>
       <c r="H164" s="39"/>
     </row>
     <row r="165" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="50"/>
+      <c r="B165" s="49"/>
       <c r="C165" s="39"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="68"/>
+      <c r="D165" s="69"/>
+      <c r="E165" s="51"/>
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
       <c r="H165" s="39"/>
     </row>
     <row r="166" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="50"/>
+      <c r="B166" s="49"/>
       <c r="C166" s="39"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="68"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="51"/>
       <c r="F166" s="41"/>
       <c r="G166" s="41"/>
       <c r="H166" s="39"/>
     </row>
     <row r="167" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="50"/>
+      <c r="B167" s="49"/>
       <c r="C167" s="39"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="68"/>
+      <c r="D167" s="69"/>
+      <c r="E167" s="51"/>
       <c r="F167" s="41"/>
       <c r="G167" s="41"/>
       <c r="H167" s="39"/>
     </row>
     <row r="168" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="50"/>
+      <c r="B168" s="49"/>
       <c r="C168" s="39"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="68"/>
+      <c r="D168" s="69"/>
+      <c r="E168" s="51"/>
       <c r="F168" s="41"/>
       <c r="G168" s="41"/>
       <c r="H168" s="39"/>
     </row>
     <row r="169" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="50"/>
+      <c r="B169" s="49"/>
       <c r="C169" s="39"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="68"/>
+      <c r="D169" s="69"/>
+      <c r="E169" s="51"/>
       <c r="F169" s="41"/>
       <c r="G169" s="41"/>
       <c r="H169" s="39"/>
     </row>
     <row r="170" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="50"/>
+      <c r="B170" s="49"/>
       <c r="C170" s="39"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="68"/>
+      <c r="D170" s="69"/>
+      <c r="E170" s="51"/>
       <c r="F170" s="41"/>
       <c r="G170" s="41"/>
       <c r="H170" s="39"/>
     </row>
     <row r="171" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="50"/>
+      <c r="B171" s="49"/>
       <c r="C171" s="39"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="68"/>
+      <c r="D171" s="69"/>
+      <c r="E171" s="51"/>
       <c r="F171" s="41"/>
       <c r="G171" s="41"/>
       <c r="H171" s="39"/>
     </row>
     <row r="172" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="50"/>
+      <c r="B172" s="49"/>
       <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="68"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="51"/>
       <c r="F172" s="41"/>
       <c r="G172" s="41"/>
       <c r="H172" s="39"/>
     </row>
     <row r="173" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="50"/>
+      <c r="B173" s="49"/>
       <c r="C173" s="39"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="68"/>
+      <c r="D173" s="69"/>
+      <c r="E173" s="51"/>
       <c r="F173" s="41"/>
       <c r="G173" s="41"/>
       <c r="H173" s="39"/>
     </row>
     <row r="174" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="50"/>
+      <c r="B174" s="49"/>
       <c r="C174" s="39"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="68"/>
+      <c r="D174" s="69"/>
+      <c r="E174" s="51"/>
       <c r="F174" s="41"/>
       <c r="G174" s="41"/>
       <c r="H174" s="39"/>
     </row>
     <row r="175" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="50"/>
+      <c r="B175" s="49"/>
       <c r="C175" s="39"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="68"/>
+      <c r="D175" s="69"/>
+      <c r="E175" s="51"/>
       <c r="F175" s="41"/>
       <c r="G175" s="41"/>
       <c r="H175" s="39"/>
     </row>
     <row r="176" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="50"/>
+      <c r="B176" s="49"/>
       <c r="C176" s="39"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="68"/>
+      <c r="D176" s="69"/>
+      <c r="E176" s="51"/>
       <c r="F176" s="41"/>
       <c r="G176" s="41"/>
       <c r="H176" s="39"/>
     </row>
     <row r="177" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="50"/>
+      <c r="B177" s="49"/>
       <c r="C177" s="39"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="68"/>
+      <c r="D177" s="69"/>
+      <c r="E177" s="51"/>
       <c r="F177" s="41"/>
       <c r="G177" s="41"/>
       <c r="H177" s="39"/>
     </row>
     <row r="178" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="50"/>
+      <c r="B178" s="49"/>
       <c r="C178" s="39"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="68"/>
+      <c r="D178" s="69"/>
+      <c r="E178" s="51"/>
       <c r="F178" s="41"/>
       <c r="G178" s="41"/>
       <c r="H178" s="39"/>
     </row>
     <row r="179" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="50"/>
+      <c r="B179" s="49"/>
       <c r="C179" s="39"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="68"/>
+      <c r="D179" s="69"/>
+      <c r="E179" s="51"/>
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
       <c r="H179" s="39"/>
     </row>
     <row r="180" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="50"/>
+      <c r="B180" s="49"/>
       <c r="C180" s="39"/>
-      <c r="D180" s="39"/>
-      <c r="E180" s="68"/>
+      <c r="D180" s="69"/>
+      <c r="E180" s="51"/>
       <c r="F180" s="41"/>
       <c r="G180" s="41"/>
       <c r="H180" s="39"/>
     </row>
     <row r="181" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="50"/>
+      <c r="B181" s="49"/>
       <c r="C181" s="39"/>
-      <c r="D181" s="39"/>
-      <c r="E181" s="68"/>
+      <c r="D181" s="69"/>
+      <c r="E181" s="51"/>
       <c r="F181" s="41"/>
       <c r="G181" s="41"/>
       <c r="H181" s="39"/>
     </row>
     <row r="182" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="50"/>
+      <c r="B182" s="49"/>
       <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
-      <c r="E182" s="68"/>
+      <c r="D182" s="69"/>
+      <c r="E182" s="51"/>
       <c r="F182" s="41"/>
       <c r="G182" s="41"/>
       <c r="H182" s="39"/>
     </row>
     <row r="183" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="50"/>
+      <c r="B183" s="49"/>
       <c r="C183" s="39"/>
       <c r="D183" s="39"/>
-      <c r="E183" s="68"/>
+      <c r="E183" s="51"/>
       <c r="F183" s="41"/>
       <c r="G183" s="41"/>
       <c r="H183" s="39"/>
     </row>
     <row r="184" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="50"/>
+      <c r="B184" s="49"/>
       <c r="C184" s="39"/>
       <c r="D184" s="39"/>
-      <c r="E184" s="68"/>
+      <c r="E184" s="51"/>
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
       <c r="H184" s="39"/>
     </row>
     <row r="185" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="50"/>
+      <c r="B185" s="49"/>
       <c r="C185" s="39"/>
       <c r="D185" s="39"/>
-      <c r="E185" s="68"/>
+      <c r="E185" s="51"/>
       <c r="F185" s="41"/>
       <c r="G185" s="41"/>
       <c r="H185" s="39"/>
     </row>
     <row r="186" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="50"/>
+      <c r="B186" s="49"/>
       <c r="C186" s="39"/>
       <c r="D186" s="39"/>
-      <c r="E186" s="68"/>
+      <c r="E186" s="51"/>
       <c r="F186" s="41"/>
       <c r="G186" s="41"/>
       <c r="H186" s="39"/>
     </row>
     <row r="187" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="50"/>
+      <c r="B187" s="49"/>
       <c r="C187" s="39"/>
       <c r="D187" s="39"/>
-      <c r="E187" s="68"/>
+      <c r="E187" s="51"/>
       <c r="F187" s="41"/>
       <c r="G187" s="41"/>
       <c r="H187" s="39"/>
     </row>
     <row r="188" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="50"/>
+      <c r="B188" s="49"/>
       <c r="C188" s="39"/>
       <c r="D188" s="39"/>
-      <c r="E188" s="68"/>
+      <c r="E188" s="51"/>
       <c r="F188" s="41"/>
       <c r="G188" s="41"/>
       <c r="H188" s="39"/>
     </row>
     <row r="189" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="50"/>
+      <c r="B189" s="49"/>
       <c r="C189" s="39"/>
       <c r="D189" s="39"/>
-      <c r="E189" s="68"/>
+      <c r="E189" s="51"/>
       <c r="F189" s="41"/>
       <c r="G189" s="41"/>
       <c r="H189" s="39"/>
     </row>
     <row r="190" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="50"/>
+      <c r="B190" s="49"/>
       <c r="C190" s="39"/>
       <c r="D190" s="39"/>
-      <c r="E190" s="68"/>
+      <c r="E190" s="51"/>
       <c r="F190" s="41"/>
       <c r="G190" s="41"/>
       <c r="H190" s="39"/>
     </row>
     <row r="191" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="50"/>
+      <c r="B191" s="49"/>
       <c r="C191" s="39"/>
       <c r="D191" s="39"/>
-      <c r="E191" s="68"/>
+      <c r="E191" s="51"/>
       <c r="F191" s="41"/>
       <c r="G191" s="41"/>
       <c r="H191" s="39"/>
     </row>
     <row r="192" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="50"/>
+      <c r="B192" s="49"/>
       <c r="C192" s="39"/>
       <c r="D192" s="39"/>
-      <c r="E192" s="68"/>
+      <c r="E192" s="51"/>
       <c r="F192" s="41"/>
       <c r="G192" s="41"/>
       <c r="H192" s="39"/>
     </row>
     <row r="193" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="50"/>
+      <c r="B193" s="49"/>
       <c r="C193" s="39"/>
       <c r="D193" s="39"/>
-      <c r="E193" s="68"/>
+      <c r="E193" s="51"/>
       <c r="F193" s="41"/>
       <c r="G193" s="41"/>
       <c r="H193" s="39"/>
     </row>
     <row r="194" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="50"/>
+      <c r="B194" s="49"/>
       <c r="C194" s="39"/>
       <c r="D194" s="39"/>
-      <c r="E194" s="68"/>
+      <c r="E194" s="51"/>
       <c r="F194" s="41"/>
       <c r="G194" s="41"/>
       <c r="H194" s="39"/>
     </row>
     <row r="195" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="50"/>
+      <c r="B195" s="49"/>
       <c r="C195" s="39"/>
       <c r="D195" s="39"/>
-      <c r="E195" s="68"/>
+      <c r="E195" s="51"/>
       <c r="F195" s="41"/>
       <c r="G195" s="41"/>
       <c r="H195" s="39"/>
     </row>
     <row r="196" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="50"/>
+      <c r="B196" s="49"/>
       <c r="C196" s="39"/>
       <c r="D196" s="39"/>
-      <c r="E196" s="68"/>
+      <c r="E196" s="51"/>
       <c r="F196" s="41"/>
       <c r="G196" s="41"/>
       <c r="H196" s="39"/>
     </row>
     <row r="197" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="50"/>
+      <c r="B197" s="49"/>
       <c r="C197" s="39"/>
       <c r="D197" s="39"/>
-      <c r="E197" s="68"/>
+      <c r="E197" s="51"/>
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
       <c r="H197" s="39"/>
     </row>
     <row r="198" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="50"/>
+      <c r="B198" s="49"/>
       <c r="C198" s="39"/>
       <c r="D198" s="39"/>
-      <c r="E198" s="68"/>
+      <c r="E198" s="51"/>
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
       <c r="H198" s="39"/>
     </row>
     <row r="199" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="50"/>
+      <c r="B199" s="49"/>
       <c r="C199" s="39"/>
       <c r="D199" s="39"/>
-      <c r="E199" s="68"/>
+      <c r="E199" s="51"/>
       <c r="F199" s="41"/>
       <c r="G199" s="41"/>
       <c r="H199" s="39"/>
     </row>
     <row r="200" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="50"/>
+      <c r="B200" s="49"/>
       <c r="C200" s="39"/>
       <c r="D200" s="39"/>
-      <c r="E200" s="68"/>
+      <c r="E200" s="51"/>
       <c r="F200" s="41"/>
       <c r="G200" s="41"/>
       <c r="H200" s="39"/>
     </row>
     <row r="201" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="50"/>
+      <c r="B201" s="49"/>
       <c r="C201" s="39"/>
       <c r="D201" s="39"/>
-      <c r="E201" s="68"/>
+      <c r="E201" s="51"/>
       <c r="F201" s="41"/>
       <c r="G201" s="41"/>
       <c r="H201" s="39"/>
     </row>
     <row r="202" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="50"/>
+      <c r="B202" s="49"/>
       <c r="C202" s="39"/>
       <c r="D202" s="39"/>
-      <c r="E202" s="68"/>
+      <c r="E202" s="51"/>
       <c r="F202" s="41"/>
       <c r="G202" s="41"/>
       <c r="H202" s="39"/>
     </row>
     <row r="203" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="50"/>
+      <c r="B203" s="49"/>
       <c r="C203" s="39"/>
       <c r="D203" s="39"/>
-      <c r="E203" s="68"/>
+      <c r="E203" s="51"/>
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
       <c r="H203" s="39"/>
     </row>
     <row r="204" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="50"/>
+      <c r="B204" s="49"/>
       <c r="C204" s="39"/>
       <c r="D204" s="39"/>
-      <c r="E204" s="68"/>
+      <c r="E204" s="51"/>
       <c r="F204" s="41"/>
       <c r="G204" s="41"/>
       <c r="H204" s="39"/>
     </row>
     <row r="205" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="50"/>
+      <c r="B205" s="49"/>
       <c r="C205" s="39"/>
       <c r="D205" s="39"/>
-      <c r="E205" s="68"/>
+      <c r="E205" s="51"/>
       <c r="F205" s="41"/>
       <c r="G205" s="41"/>
       <c r="H205" s="39"/>
     </row>
     <row r="206" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="50"/>
+      <c r="B206" s="49"/>
       <c r="C206" s="39"/>
       <c r="D206" s="39"/>
-      <c r="E206" s="68"/>
+      <c r="E206" s="51"/>
       <c r="F206" s="41"/>
       <c r="G206" s="41"/>
       <c r="H206" s="39"/>
     </row>
     <row r="207" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="50"/>
+      <c r="B207" s="49"/>
       <c r="C207" s="39"/>
       <c r="D207" s="39"/>
-      <c r="E207" s="68"/>
+      <c r="E207" s="51"/>
       <c r="F207" s="41"/>
       <c r="G207" s="41"/>
       <c r="H207" s="39"/>
     </row>
     <row r="208" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="50"/>
+      <c r="B208" s="49"/>
       <c r="C208" s="39"/>
       <c r="D208" s="39"/>
-      <c r="E208" s="68"/>
+      <c r="E208" s="51"/>
       <c r="F208" s="41"/>
       <c r="G208" s="41"/>
       <c r="H208" s="39"/>
     </row>
     <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="50"/>
+      <c r="B209" s="49"/>
       <c r="C209" s="39"/>
       <c r="D209" s="39"/>
-      <c r="E209" s="68"/>
+      <c r="E209" s="51"/>
       <c r="F209" s="41"/>
       <c r="G209" s="41"/>
       <c r="H209" s="39"/>
     </row>
     <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="50"/>
+      <c r="B210" s="49"/>
       <c r="C210" s="39"/>
       <c r="D210" s="39"/>
-      <c r="E210" s="68"/>
+      <c r="E210" s="51"/>
       <c r="F210" s="41"/>
       <c r="G210" s="41"/>
       <c r="H210" s="39"/>
     </row>
     <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="50"/>
+      <c r="B211" s="49"/>
       <c r="C211" s="39"/>
       <c r="D211" s="39"/>
-      <c r="E211" s="68"/>
+      <c r="E211" s="51"/>
       <c r="F211" s="41"/>
       <c r="G211" s="41"/>
       <c r="H211" s="39"/>
     </row>
     <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="50"/>
+      <c r="B212" s="49"/>
       <c r="C212" s="39"/>
       <c r="D212" s="39"/>
-      <c r="E212" s="68"/>
+      <c r="E212" s="51"/>
       <c r="F212" s="41"/>
       <c r="G212" s="41"/>
       <c r="H212" s="39"/>
     </row>
     <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="50"/>
+      <c r="B213" s="49"/>
       <c r="C213" s="39"/>
       <c r="D213" s="39"/>
-      <c r="E213" s="68"/>
+      <c r="E213" s="51"/>
       <c r="F213" s="41"/>
       <c r="G213" s="41"/>
       <c r="H213" s="39"/>
     </row>
     <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="50"/>
+      <c r="B214" s="49"/>
       <c r="C214" s="39"/>
       <c r="D214" s="39"/>
-      <c r="E214" s="68"/>
+      <c r="E214" s="51"/>
       <c r="F214" s="41"/>
       <c r="G214" s="41"/>
       <c r="H214" s="39"/>
     </row>
     <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="50"/>
+      <c r="B215" s="49"/>
       <c r="C215" s="39"/>
       <c r="D215" s="39"/>
-      <c r="E215" s="68"/>
+      <c r="E215" s="51"/>
       <c r="F215" s="41"/>
       <c r="G215" s="41"/>
       <c r="H215" s="39"/>
     </row>
     <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="50"/>
+      <c r="B216" s="49"/>
       <c r="C216" s="39"/>
       <c r="D216" s="39"/>
-      <c r="E216" s="68"/>
+      <c r="E216" s="51"/>
       <c r="F216" s="41"/>
       <c r="G216" s="41"/>
       <c r="H216" s="39"/>
     </row>
     <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="50"/>
+      <c r="B217" s="49"/>
       <c r="C217" s="39"/>
       <c r="D217" s="39"/>
-      <c r="E217" s="68"/>
+      <c r="E217" s="51"/>
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
       <c r="H217" s="39"/>
     </row>
     <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="50"/>
+      <c r="B218" s="49"/>
       <c r="C218" s="39"/>
       <c r="D218" s="39"/>
-      <c r="E218" s="68"/>
+      <c r="E218" s="51"/>
       <c r="F218" s="41"/>
       <c r="G218" s="41"/>
       <c r="H218" s="39"/>
     </row>
     <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="50"/>
+      <c r="B219" s="49"/>
       <c r="C219" s="39"/>
       <c r="D219" s="39"/>
-      <c r="E219" s="68"/>
+      <c r="E219" s="51"/>
       <c r="F219" s="41"/>
       <c r="G219" s="41"/>
       <c r="H219" s="39"/>
     </row>
     <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="50"/>
+      <c r="B220" s="49"/>
       <c r="C220" s="39"/>
       <c r="D220" s="39"/>
-      <c r="E220" s="68"/>
+      <c r="E220" s="51"/>
       <c r="F220" s="41"/>
       <c r="G220" s="41"/>
       <c r="H220" s="39"/>
     </row>
     <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="50"/>
+      <c r="B221" s="49"/>
       <c r="C221" s="39"/>
       <c r="D221" s="39"/>
-      <c r="E221" s="68"/>
+      <c r="E221" s="51"/>
       <c r="F221" s="41"/>
       <c r="G221" s="41"/>
       <c r="H221" s="39"/>
     </row>
     <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="50"/>
+      <c r="B222" s="49"/>
       <c r="C222" s="39"/>
       <c r="D222" s="39"/>
-      <c r="E222" s="68"/>
+      <c r="E222" s="51"/>
       <c r="F222" s="41"/>
       <c r="G222" s="41"/>
       <c r="H222" s="39"/>
     </row>
     <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="50"/>
+      <c r="B223" s="49"/>
       <c r="C223" s="39"/>
       <c r="D223" s="39"/>
-      <c r="E223" s="68"/>
+      <c r="E223" s="51"/>
       <c r="F223" s="41"/>
       <c r="G223" s="41"/>
       <c r="H223" s="39"/>
     </row>
     <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="50"/>
+      <c r="B224" s="49"/>
       <c r="C224" s="39"/>
       <c r="D224" s="39"/>
-      <c r="E224" s="68"/>
+      <c r="E224" s="51"/>
       <c r="F224" s="41"/>
       <c r="G224" s="41"/>
       <c r="H224" s="39"/>
     </row>
     <row r="225" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="50"/>
+      <c r="B225" s="49"/>
       <c r="E225" s="33"/>
     </row>
     <row r="226" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="50"/>
+      <c r="B226" s="49"/>
       <c r="E226" s="33"/>
     </row>
     <row r="227" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="50"/>
+      <c r="B227" s="49"/>
       <c r="E227" s="33"/>
     </row>
     <row r="228" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="50"/>
+      <c r="B228" s="49"/>
       <c r="E228" s="33"/>
     </row>
     <row r="229" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="50"/>
+      <c r="B229" s="49"/>
       <c r="E229" s="33"/>
     </row>
     <row r="230" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="50"/>
+      <c r="B230" s="49"/>
       <c r="E230" s="33"/>
     </row>
     <row r="231" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="50"/>
+      <c r="B231" s="49"/>
       <c r="E231" s="33"/>
     </row>
     <row r="232" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="50"/>
+      <c r="B232" s="49"/>
       <c r="E232" s="33"/>
     </row>
     <row r="233" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="50"/>
+      <c r="B233" s="49"/>
       <c r="E233" s="33"/>
     </row>
     <row r="234" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="50"/>
+      <c r="B234" s="49"/>
       <c r="E234" s="33"/>
     </row>
     <row r="235" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="50"/>
+      <c r="B235" s="49"/>
       <c r="E235" s="33"/>
     </row>
     <row r="236" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="50"/>
+      <c r="B236" s="49"/>
       <c r="E236" s="33"/>
     </row>
     <row r="237" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="50"/>
+      <c r="B237" s="49"/>
       <c r="E237" s="33"/>
     </row>
     <row r="238" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="50"/>
+      <c r="B238" s="49"/>
       <c r="E238" s="33"/>
     </row>
     <row r="239" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="50"/>
+      <c r="B239" s="49"/>
       <c r="E239" s="33"/>
     </row>
     <row r="240" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="50"/>
+      <c r="B240" s="49"/>
       <c r="E240" s="33"/>
     </row>
     <row r="241" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="50"/>
+      <c r="B241" s="49"/>
       <c r="E241" s="33"/>
     </row>
     <row r="242" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="50"/>
+      <c r="B242" s="49"/>
       <c r="E242" s="33"/>
     </row>
     <row r="243" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="50"/>
+      <c r="B243" s="49"/>
       <c r="E243" s="33"/>
     </row>
     <row r="244" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="50"/>
+      <c r="B244" s="49"/>
       <c r="E244" s="33"/>
     </row>
     <row r="245" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="50"/>
+      <c r="B245" s="49"/>
       <c r="E245" s="33"/>
     </row>
     <row r="246" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="50"/>
+      <c r="B246" s="49"/>
       <c r="E246" s="33"/>
     </row>
     <row r="247" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="50"/>
+      <c r="B247" s="49"/>
       <c r="E247" s="33"/>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B248" s="50"/>
+      <c r="B248" s="49"/>
       <c r="E248" s="33"/>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B249" s="50"/>
+      <c r="B249" s="49"/>
       <c r="E249" s="33"/>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B250" s="50"/>
+      <c r="B250" s="49"/>
       <c r="E250" s="33"/>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B251" s="50"/>
+      <c r="B251" s="49"/>
       <c r="E251" s="33"/>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B252" s="50"/>
+      <c r="B252" s="49"/>
       <c r="E252" s="33"/>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B253" s="50"/>
+      <c r="B253" s="49"/>
       <c r="E253" s="33"/>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B254" s="50"/>
+      <c r="B254" s="49"/>
       <c r="E254" s="33"/>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B255" s="50"/>
+      <c r="B255" s="49"/>
       <c r="E255" s="33"/>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B256" s="50"/>
+      <c r="B256" s="49"/>
       <c r="E256" s="33"/>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B257" s="50"/>
+      <c r="B257" s="49"/>
       <c r="E257" s="33"/>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B258" s="50"/>
+      <c r="B258" s="49"/>
       <c r="E258" s="33"/>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B259" s="50"/>
+      <c r="B259" s="49"/>
       <c r="E259" s="33"/>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B260" s="50"/>
+      <c r="B260" s="49"/>
       <c r="E260" s="33"/>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B261" s="50"/>
+      <c r="B261" s="49"/>
       <c r="E261" s="33"/>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B262" s="50"/>
+      <c r="B262" s="49"/>
       <c r="E262" s="33"/>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B263" s="50"/>
+      <c r="B263" s="49"/>
       <c r="E263" s="33"/>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B264" s="50"/>
+      <c r="B264" s="49"/>
       <c r="E264" s="33"/>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B265" s="50"/>
+      <c r="B265" s="49"/>
       <c r="E265" s="33"/>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B266" s="50"/>
+      <c r="B266" s="49"/>
       <c r="E266" s="33"/>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B267" s="50"/>
+      <c r="B267" s="49"/>
       <c r="E267" s="33"/>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B268" s="50"/>
+      <c r="B268" s="49"/>
       <c r="E268" s="33"/>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B269" s="50"/>
+      <c r="B269" s="49"/>
       <c r="E269" s="33"/>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B270" s="50"/>
+      <c r="B270" s="49"/>
       <c r="E270" s="33"/>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B271" s="50"/>
+      <c r="B271" s="49"/>
       <c r="E271" s="33"/>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B272" s="50"/>
+      <c r="B272" s="49"/>
       <c r="E272" s="33"/>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B273" s="50"/>
+      <c r="B273" s="49"/>
       <c r="E273" s="33"/>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B274" s="50"/>
+      <c r="B274" s="49"/>
       <c r="E274" s="33"/>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B275" s="50"/>
+      <c r="B275" s="49"/>
       <c r="E275" s="33"/>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B276" s="50"/>
+      <c r="B276" s="49"/>
       <c r="E276" s="33"/>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B277" s="50"/>
+      <c r="B277" s="49"/>
       <c r="E277" s="33"/>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B278" s="50"/>
+      <c r="B278" s="49"/>
       <c r="E278" s="33"/>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B279" s="50"/>
+      <c r="B279" s="49"/>
       <c r="E279" s="33"/>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B280" s="50"/>
+      <c r="B280" s="49"/>
       <c r="E280" s="33"/>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B281" s="50"/>
+      <c r="B281" s="49"/>
       <c r="E281" s="33"/>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B282" s="50"/>
+      <c r="B282" s="49"/>
       <c r="E282" s="33"/>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B283" s="50"/>
+      <c r="B283" s="49"/>
       <c r="E283" s="33"/>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B284" s="50"/>
+      <c r="B284" s="49"/>
       <c r="E284" s="33"/>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B285" s="50"/>
+      <c r="B285" s="49"/>
       <c r="E285" s="33"/>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B286" s="50"/>
+      <c r="B286" s="49"/>
       <c r="E286" s="33"/>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B287" s="50"/>
+      <c r="B287" s="49"/>
       <c r="E287" s="33"/>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B288" s="50"/>
+      <c r="B288" s="49"/>
       <c r="E288" s="33"/>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B289" s="50"/>
+      <c r="B289" s="49"/>
       <c r="E289" s="33"/>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B290" s="50"/>
+      <c r="B290" s="49"/>
       <c r="E290" s="33"/>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B291" s="50"/>
+      <c r="B291" s="49"/>
       <c r="E291" s="33"/>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B292" s="50"/>
+      <c r="B292" s="49"/>
       <c r="E292" s="33"/>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B293" s="50"/>
+      <c r="B293" s="49"/>
       <c r="E293" s="33"/>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B294" s="50"/>
+      <c r="B294" s="49"/>
       <c r="E294" s="33"/>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B295" s="50"/>
+      <c r="B295" s="49"/>
       <c r="E295" s="33"/>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B296" s="50"/>
+      <c r="B296" s="49"/>
       <c r="E296" s="33"/>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B297" s="50"/>
+      <c r="B297" s="49"/>
       <c r="E297" s="33"/>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B298" s="50"/>
+      <c r="B298" s="49"/>
       <c r="E298" s="33"/>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B299" s="50"/>
+      <c r="B299" s="49"/>
       <c r="E299" s="33"/>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B300" s="50"/>
+      <c r="B300" s="49"/>
       <c r="E300" s="33"/>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B301" s="50"/>
+      <c r="B301" s="49"/>
       <c r="E301" s="33"/>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B302" s="50"/>
+      <c r="B302" s="49"/>
       <c r="E302" s="33"/>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B303" s="50"/>
+      <c r="B303" s="49"/>
       <c r="E303" s="33"/>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B304" s="50"/>
+      <c r="B304" s="49"/>
       <c r="E304" s="33"/>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B305" s="50"/>
+      <c r="B305" s="49"/>
       <c r="E305" s="33"/>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B306" s="50"/>
+      <c r="B306" s="49"/>
       <c r="E306" s="33"/>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B307" s="50"/>
+      <c r="B307" s="49"/>
       <c r="E307" s="33"/>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B308" s="50"/>
+      <c r="B308" s="49"/>
       <c r="E308" s="33"/>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B309" s="50"/>
+      <c r="B309" s="49"/>
       <c r="E309" s="33"/>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B310" s="50"/>
+      <c r="B310" s="49"/>
       <c r="E310" s="33"/>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B311" s="50"/>
+      <c r="B311" s="49"/>
       <c r="E311" s="33"/>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B312" s="50"/>
+      <c r="B312" s="49"/>
       <c r="E312" s="33"/>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B313" s="50"/>
+      <c r="B313" s="49"/>
       <c r="E313" s="33"/>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B314" s="50"/>
+      <c r="B314" s="49"/>
       <c r="E314" s="33"/>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B315" s="50"/>
+      <c r="B315" s="49"/>
       <c r="E315" s="33"/>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B316" s="50"/>
+      <c r="B316" s="49"/>
       <c r="E316" s="33"/>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B317" s="50"/>
+      <c r="B317" s="49"/>
       <c r="E317" s="33"/>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B318" s="50"/>
+      <c r="B318" s="49"/>
       <c r="E318" s="33"/>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B319" s="50"/>
+      <c r="B319" s="49"/>
       <c r="E319" s="33"/>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B320" s="50"/>
+      <c r="B320" s="49"/>
       <c r="E320" s="33"/>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
@@ -8631,7 +9235,7 @@
   <dimension ref="A1:H1105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E1105"/>
+      <selection activeCell="D5" sqref="D5:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8647,28 +9251,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -8724,1292 +9328,1313 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="48"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="48"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="48"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="48"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="48"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="48"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="48"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="48"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="48"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="48"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="48"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="48"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="42"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="48"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="48"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="48"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="48"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="48"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="48"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="48"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="48"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="48"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="42"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="42"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="B30" s="48"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="42"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="B31" s="48"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="42"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="48"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="48"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
-      <c r="B35" s="48"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="45"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
-      <c r="B36" s="48"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="45"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
-      <c r="B37" s="48"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="45"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
-      <c r="B38" s="48"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="42"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="45"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="42"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="49"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="49"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="49"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
       <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="49"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
       <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="49"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="49"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
       <c r="H47" s="40"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="40"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="40"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="49"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="40"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="49"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
       <c r="H51" s="40"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="49"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
       <c r="H52" s="40"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="49"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
       <c r="H53" s="40"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="49"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
       <c r="H54" s="40"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="49"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="40"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="49"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
       <c r="H56" s="40"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="49"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
       <c r="H57" s="40"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="49"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
       <c r="H58" s="40"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="49"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
       <c r="H59" s="40"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="49"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
       <c r="H60" s="40"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="49"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
       <c r="H61" s="40"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="49"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
       <c r="H62" s="40"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="49"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
       <c r="H63" s="40"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="49"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
       <c r="H64" s="40"/>
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="49"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
       <c r="H65" s="40"/>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="49"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
       <c r="H66" s="40"/>
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="49"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
       <c r="H67" s="40"/>
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="49"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
       <c r="H68" s="40"/>
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="49"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
       <c r="H69" s="40"/>
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="49"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
       <c r="H70" s="40"/>
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="49"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
       <c r="H71" s="40"/>
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="49"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
       <c r="H72" s="40"/>
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="49"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
       <c r="H73" s="40"/>
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="49"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
       <c r="H74" s="40"/>
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="49"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
       <c r="H75" s="40"/>
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="49"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
       <c r="H76" s="40"/>
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="49"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
       <c r="H77" s="40"/>
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="49"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
       <c r="H78" s="40"/>
     </row>
     <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="49"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
       <c r="H79" s="40"/>
     </row>
     <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="49"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
       <c r="H80" s="40"/>
     </row>
     <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="49"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
       <c r="H81" s="40"/>
     </row>
     <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="49"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
       <c r="H82" s="40"/>
     </row>
     <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="49"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
       <c r="H83" s="40"/>
     </row>
     <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="49"/>
+      <c r="B84" s="48"/>
       <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
       <c r="H84" s="40"/>
     </row>
     <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="49"/>
+      <c r="B85" s="48"/>
       <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
       <c r="H85" s="40"/>
     </row>
     <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="49"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
       <c r="H86" s="40"/>
     </row>
     <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="49"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
       <c r="H87" s="40"/>
     </row>
     <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="49"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
       <c r="H88" s="40"/>
     </row>
     <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="49"/>
+      <c r="B89" s="48"/>
       <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
       <c r="H89" s="40"/>
     </row>
     <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="49"/>
+      <c r="B90" s="48"/>
       <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
       <c r="H90" s="40"/>
     </row>
     <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="49"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
       <c r="H91" s="40"/>
     </row>
     <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="49"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
       <c r="H92" s="40"/>
     </row>
     <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="49"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
       <c r="H93" s="40"/>
     </row>
     <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="49"/>
+      <c r="B94" s="48"/>
       <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
       <c r="H94" s="40"/>
     </row>
     <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="49"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
       <c r="H95" s="40"/>
     </row>
     <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="50"/>
+      <c r="B96" s="49"/>
+      <c r="D96" s="70"/>
       <c r="E96" s="33"/>
     </row>
     <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="50"/>
+      <c r="B97" s="49"/>
+      <c r="D97" s="70"/>
       <c r="E97" s="33"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="50"/>
+      <c r="B98" s="49"/>
+      <c r="D98" s="70"/>
       <c r="E98" s="33"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="50"/>
+      <c r="B99" s="49"/>
+      <c r="D99" s="70"/>
       <c r="E99" s="33"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="50"/>
+      <c r="B100" s="49"/>
+      <c r="D100" s="70"/>
       <c r="E100" s="33"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="50"/>
+      <c r="B101" s="49"/>
+      <c r="D101" s="70"/>
       <c r="E101" s="33"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="50"/>
+      <c r="B102" s="49"/>
+      <c r="D102" s="70"/>
       <c r="E102" s="33"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="50"/>
+      <c r="B103" s="49"/>
+      <c r="D103" s="70"/>
       <c r="E103" s="33"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="50"/>
+      <c r="B104" s="49"/>
+      <c r="D104" s="70"/>
       <c r="E104" s="33"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="50"/>
+      <c r="B105" s="49"/>
+      <c r="D105" s="70"/>
       <c r="E105" s="33"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="50"/>
+      <c r="B106" s="49"/>
+      <c r="D106" s="70"/>
       <c r="E106" s="33"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="50"/>
+      <c r="B107" s="49"/>
+      <c r="D107" s="70"/>
       <c r="E107" s="33"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="50"/>
+      <c r="B108" s="49"/>
+      <c r="D108" s="70"/>
       <c r="E108" s="33"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="50"/>
+      <c r="B109" s="49"/>
+      <c r="D109" s="70"/>
       <c r="E109" s="33"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="50"/>
+      <c r="B110" s="49"/>
+      <c r="D110" s="70"/>
       <c r="E110" s="33"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="50"/>
+      <c r="B111" s="49"/>
+      <c r="D111" s="70"/>
       <c r="E111" s="33"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="50"/>
+      <c r="B112" s="49"/>
+      <c r="D112" s="70"/>
       <c r="E112" s="33"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="50"/>
+      <c r="B113" s="49"/>
+      <c r="D113" s="70"/>
       <c r="E113" s="33"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="50"/>
+      <c r="B114" s="49"/>
+      <c r="D114" s="70"/>
       <c r="E114" s="33"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="50"/>
+      <c r="B115" s="49"/>
+      <c r="D115" s="70"/>
       <c r="E115" s="33"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="50"/>
+      <c r="B116" s="49"/>
+      <c r="D116" s="70"/>
       <c r="E116" s="33"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="50"/>
+      <c r="B117" s="49"/>
       <c r="E117" s="33"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="50"/>
+      <c r="B118" s="49"/>
       <c r="E118" s="33"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="50"/>
+      <c r="B119" s="49"/>
       <c r="E119" s="33"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="50"/>
+      <c r="B120" s="49"/>
       <c r="E120" s="33"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="50"/>
+      <c r="B121" s="49"/>
       <c r="E121" s="33"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="50"/>
+      <c r="B122" s="49"/>
       <c r="E122" s="33"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="50"/>
+      <c r="B123" s="49"/>
       <c r="E123" s="33"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="50"/>
+      <c r="B124" s="49"/>
       <c r="E124" s="33"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="50"/>
+      <c r="B125" s="49"/>
       <c r="E125" s="33"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="50"/>
+      <c r="B126" s="49"/>
       <c r="E126" s="33"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="50"/>
+      <c r="B127" s="49"/>
       <c r="E127" s="33"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="50"/>
+      <c r="B128" s="49"/>
       <c r="E128" s="33"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="50"/>
+      <c r="B129" s="49"/>
       <c r="E129" s="33"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="50"/>
+      <c r="B130" s="49"/>
       <c r="E130" s="33"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="50"/>
+      <c r="B131" s="49"/>
       <c r="E131" s="33"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="50"/>
+      <c r="B132" s="49"/>
       <c r="E132" s="33"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="50"/>
+      <c r="B133" s="49"/>
       <c r="E133" s="33"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="50"/>
+      <c r="B134" s="49"/>
       <c r="E134" s="33"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="50"/>
+      <c r="B135" s="49"/>
       <c r="E135" s="33"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="50"/>
+      <c r="B136" s="49"/>
       <c r="E136" s="33"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="50"/>
+      <c r="B137" s="49"/>
       <c r="E137" s="33"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="50"/>
+      <c r="B138" s="49"/>
       <c r="E138" s="33"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="50"/>
+      <c r="B139" s="49"/>
       <c r="E139" s="33"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="50"/>
+      <c r="B140" s="49"/>
       <c r="E140" s="33"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="50"/>
+      <c r="B141" s="49"/>
       <c r="E141" s="33"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="50"/>
+      <c r="B142" s="49"/>
       <c r="E142" s="33"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="50"/>
+      <c r="B143" s="49"/>
       <c r="E143" s="33"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="50"/>
+      <c r="B144" s="49"/>
       <c r="E144" s="33"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="50"/>
+      <c r="B145" s="49"/>
       <c r="E145" s="33"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="50"/>
+      <c r="B146" s="49"/>
       <c r="E146" s="33"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="50"/>
+      <c r="B147" s="49"/>
       <c r="E147" s="33"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="50"/>
+      <c r="B148" s="49"/>
       <c r="E148" s="33"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="50"/>
+      <c r="B149" s="49"/>
       <c r="E149" s="33"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="50"/>
+      <c r="B150" s="49"/>
       <c r="E150" s="33"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="50"/>
+      <c r="B151" s="49"/>
       <c r="E151" s="33"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="50"/>
+      <c r="B152" s="49"/>
       <c r="E152" s="33"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="50"/>
+      <c r="B153" s="49"/>
       <c r="E153" s="33"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="50"/>
+      <c r="B154" s="49"/>
       <c r="E154" s="33"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="50"/>
+      <c r="B155" s="49"/>
       <c r="E155" s="33"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="50"/>
+      <c r="B156" s="49"/>
       <c r="E156" s="33"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="50"/>
+      <c r="B157" s="49"/>
       <c r="E157" s="33"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="50"/>
+      <c r="B158" s="49"/>
       <c r="E158" s="33"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="50"/>
+      <c r="B159" s="49"/>
       <c r="E159" s="33"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="50"/>
+      <c r="B160" s="49"/>
       <c r="E160" s="33"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="50"/>
+      <c r="B161" s="49"/>
       <c r="E161" s="33"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="50"/>
+      <c r="B162" s="49"/>
       <c r="E162" s="33"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="50"/>
+      <c r="B163" s="49"/>
       <c r="E163" s="33"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="50"/>
+      <c r="B164" s="49"/>
       <c r="E164" s="33"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="50"/>
+      <c r="B165" s="49"/>
       <c r="E165" s="33"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="50"/>
+      <c r="B166" s="49"/>
       <c r="E166" s="33"/>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="50"/>
+      <c r="B167" s="49"/>
       <c r="E167" s="33"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="50"/>
+      <c r="B168" s="49"/>
       <c r="E168" s="33"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="50"/>
+      <c r="B169" s="49"/>
       <c r="E169" s="33"/>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="50"/>
+      <c r="B170" s="49"/>
       <c r="E170" s="33"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="50"/>
+      <c r="B171" s="49"/>
       <c r="E171" s="33"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="50"/>
+      <c r="B172" s="49"/>
       <c r="E172" s="33"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="50"/>
+      <c r="B173" s="49"/>
       <c r="E173" s="33"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="50"/>
+      <c r="B174" s="49"/>
       <c r="E174" s="33"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="50"/>
+      <c r="B175" s="49"/>
       <c r="E175" s="33"/>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="50"/>
+      <c r="B176" s="49"/>
       <c r="E176" s="33"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="50"/>
+      <c r="B177" s="49"/>
       <c r="E177" s="33"/>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="50"/>
+      <c r="B178" s="49"/>
       <c r="E178" s="33"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="50"/>
+      <c r="B179" s="49"/>
       <c r="E179" s="33"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="50"/>
+      <c r="B180" s="49"/>
       <c r="E180" s="33"/>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="50"/>
+      <c r="B181" s="49"/>
       <c r="E181" s="33"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="50"/>
+      <c r="B182" s="49"/>
       <c r="E182" s="33"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="50"/>
+      <c r="B183" s="49"/>
       <c r="E183" s="33"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="50"/>
+      <c r="B184" s="49"/>
       <c r="E184" s="33"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="50"/>
+      <c r="B185" s="49"/>
       <c r="E185" s="33"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="50"/>
+      <c r="B186" s="49"/>
       <c r="E186" s="33"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="50"/>
+      <c r="B187" s="49"/>
       <c r="E187" s="33"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="50"/>
+      <c r="B188" s="49"/>
       <c r="E188" s="33"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="50"/>
+      <c r="B189" s="49"/>
       <c r="E189" s="33"/>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="50"/>
+      <c r="B190" s="49"/>
       <c r="E190" s="33"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="50"/>
+      <c r="B191" s="49"/>
       <c r="E191" s="33"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="50"/>
+      <c r="B192" s="49"/>
       <c r="E192" s="33"/>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="50"/>
+      <c r="B193" s="49"/>
       <c r="E193" s="33"/>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="50"/>
+      <c r="B194" s="49"/>
       <c r="E194" s="33"/>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="50"/>
+      <c r="B195" s="49"/>
       <c r="E195" s="33"/>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="50"/>
+      <c r="B196" s="49"/>
       <c r="E196" s="33"/>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="50"/>
+      <c r="B197" s="49"/>
       <c r="E197" s="33"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="50"/>
+      <c r="B198" s="49"/>
       <c r="E198" s="33"/>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="50"/>
+      <c r="B199" s="49"/>
       <c r="E199" s="33"/>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="50"/>
+      <c r="B200" s="49"/>
       <c r="E200" s="33"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="50"/>
+      <c r="B201" s="49"/>
       <c r="E201" s="33"/>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="50"/>
+      <c r="B202" s="49"/>
       <c r="E202" s="33"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="50"/>
+      <c r="B203" s="49"/>
       <c r="E203" s="33"/>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="50"/>
+      <c r="B204" s="49"/>
       <c r="E204" s="33"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
